--- a/PERSONAL BUSINESS/BUDGET 2024.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47654B3-6B43-4BF8-B8CC-F83FBBBDFED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46EC78E-A7AC-42AE-AB18-27927A0A10FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTA BASED" sheetId="23" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
   <si>
     <t>Month</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>LEFT</t>
+  </si>
+  <si>
+    <t>to pay</t>
+  </si>
+  <si>
+    <t>asset= time</t>
+  </si>
+  <si>
+    <t>laptop assest = education</t>
   </si>
 </sst>
 </file>
@@ -376,7 +385,7 @@
     <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$₱-464]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1074,7 +1083,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1334,48 +1343,6 @@
     <xf numFmtId="167" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1388,35 +1355,23 @@
     <xf numFmtId="164" fontId="3" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1428,41 +1383,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1929,21 +1934,21 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" activeCellId="1" sqref="H1 D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="132" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="114" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="132" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="114" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="132" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="124" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="129" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="114" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="110" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="113" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
@@ -1958,31 +1963,31 @@
       <c r="B1" s="70">
         <v>5000</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="117">
+      <c r="D1" s="103">
         <v>1000</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="117">
-        <v>1500</v>
-      </c>
-      <c r="G1" s="130" t="s">
+      <c r="F1" s="103">
+        <v>2000</v>
+      </c>
+      <c r="G1" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="121">
+      <c r="H1" s="107">
         <v>500</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="136" t="s">
         <v>102</v>
       </c>
       <c r="J1" s="71">
         <v>500</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="138" t="s">
         <v>102</v>
       </c>
       <c r="L1" s="73" t="s">
@@ -1990,7 +1995,7 @@
       </c>
       <c r="M1" s="77">
         <f>B1+D1+F1+H1</f>
-        <v>8000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2000,27 +2005,27 @@
       <c r="B2" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="118" t="s">
+      <c r="C2" s="135"/>
+      <c r="D2" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="135"/>
+      <c r="F2" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="122" t="s">
+      <c r="G2" s="135"/>
+      <c r="H2" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="128"/>
+      <c r="I2" s="137"/>
       <c r="J2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="105"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="103" t="s">
+      <c r="M2" s="132" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2031,52 +2036,52 @@
       <c r="B3" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="119" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="119" t="s">
+      <c r="E3" s="135"/>
+      <c r="F3" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="123" t="s">
+      <c r="G3" s="135"/>
+      <c r="H3" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="128"/>
+      <c r="I3" s="137"/>
       <c r="J3" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="105"/>
+      <c r="K3" s="138"/>
       <c r="L3" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="104"/>
+      <c r="M3" s="133"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
-      <c r="B4" s="125">
+      <c r="B4" s="111">
         <v>-2460</v>
       </c>
-      <c r="C4" s="132">
+      <c r="C4" s="114">
         <v>45294</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="112">
         <v>500</v>
       </c>
-      <c r="E4" s="132">
+      <c r="E4" s="114">
         <v>45262</v>
       </c>
       <c r="F4" s="2">
         <v>263</v>
       </c>
-      <c r="G4" s="132">
+      <c r="G4" s="114">
         <v>45262</v>
       </c>
-      <c r="H4" s="124">
+      <c r="H4" s="110">
         <v>500</v>
       </c>
-      <c r="I4" s="133">
+      <c r="I4" s="115">
         <v>45297</v>
       </c>
       <c r="L4" s="45"/>
@@ -2093,13 +2098,13 @@
       <c r="D5" s="2">
         <v>1000</v>
       </c>
-      <c r="E5" s="132">
+      <c r="E5" s="114">
         <v>45297</v>
       </c>
       <c r="F5" s="2">
         <v>1500</v>
       </c>
-      <c r="G5" s="132">
+      <c r="G5" s="114">
         <v>45297</v>
       </c>
       <c r="L5" s="45"/>
@@ -2132,9 +2137,7 @@
       <c r="M8" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="N8" s="82">
-        <v>45315</v>
-      </c>
+      <c r="N8" s="82"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -2271,15 +2274,15 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="29" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="31" customWidth="1"/>
@@ -2302,16 +2305,16 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="35"/>
-      <c r="F1" s="113">
+      <c r="F1" s="146">
         <v>2024</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="148"/>
     </row>
     <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
@@ -2343,28 +2346,30 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="96" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="44"/>
       <c r="D3" s="35"/>
-      <c r="F3" s="36" t="s">
-        <v>67</v>
+      <c r="F3" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="110">
+      <c r="I3" s="50">
+        <v>5460</v>
+      </c>
+      <c r="J3" s="143">
         <f>SUM(I3+I4-L3)</f>
-        <v>-8000</v>
+        <v>-2540</v>
       </c>
       <c r="K3" s="51">
         <f>SUM(G3+H3-I3)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="109">
+        <v>-5460</v>
+      </c>
+      <c r="L3" s="142">
         <v>8000</v>
       </c>
       <c r="M3" s="91"/>
@@ -2374,22 +2379,24 @@
         <v>47</v>
       </c>
       <c r="B4" s="67">
-        <v>1500</v>
-      </c>
-      <c r="C4" s="44"/>
+        <v>2500</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>109</v>
+      </c>
       <c r="D4" s="35"/>
-      <c r="F4" s="37" t="s">
-        <v>69</v>
+      <c r="F4" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="29"/>
       <c r="I4" s="50"/>
-      <c r="J4" s="111"/>
+      <c r="J4" s="144"/>
       <c r="K4" s="51">
         <f>SUM(G4+H4-I4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="109"/>
+      <c r="L4" s="142"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2407,16 +2414,16 @@
       <c r="G5" s="31"/>
       <c r="H5" s="29"/>
       <c r="I5" s="50"/>
-      <c r="J5" s="110">
+      <c r="J5" s="143">
         <f>SUM(I6+I7-L5)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K5" s="51">
         <f t="shared" ref="K5:K26" si="0">SUM(G5+H5-I5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="108">
-        <v>8000</v>
+      <c r="L5" s="141">
+        <v>9000</v>
       </c>
       <c r="M5" s="93"/>
     </row>
@@ -2427,7 +2434,9 @@
       <c r="B6" s="67">
         <v>3000</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="44" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="35"/>
       <c r="F6" s="38" t="s">
         <v>71</v>
@@ -2435,12 +2444,12 @@
       <c r="G6" s="31"/>
       <c r="H6" s="29"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="111"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="51">
         <f>SUM(G6+H6-I6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="108"/>
+      <c r="L6" s="141"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2448,7 +2457,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="67">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="35"/>
@@ -2458,16 +2467,16 @@
       <c r="G7" s="31"/>
       <c r="H7" s="29"/>
       <c r="I7" s="50"/>
-      <c r="J7" s="110">
+      <c r="J7" s="143">
         <f>SUM(I8+I9-L7)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="109">
-        <v>8000</v>
+      <c r="L7" s="142">
+        <v>9000</v>
       </c>
       <c r="M7" s="93"/>
     </row>
@@ -2476,7 +2485,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="67">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="35"/>
@@ -2486,12 +2495,12 @@
       <c r="G8" s="31"/>
       <c r="H8" s="29"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="111"/>
+      <c r="J8" s="144"/>
       <c r="K8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="109"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="94"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,7 +2509,7 @@
       </c>
       <c r="B9" s="99">
         <f>SUM(B4:B8)</f>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="35"/>
@@ -2510,16 +2519,16 @@
       <c r="G9" s="31"/>
       <c r="H9" s="29"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="110">
+      <c r="J9" s="143">
         <f>SUM(I10+I11-L9)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="108">
-        <v>8000</v>
+      <c r="L9" s="141">
+        <v>9000</v>
       </c>
       <c r="M9" s="93"/>
     </row>
@@ -2534,12 +2543,12 @@
       <c r="G10" s="31"/>
       <c r="H10" s="29"/>
       <c r="I10" s="52"/>
-      <c r="J10" s="111"/>
+      <c r="J10" s="144"/>
       <c r="K10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="108"/>
+      <c r="L10" s="141"/>
       <c r="M10" s="94"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2553,16 +2562,16 @@
       <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="52"/>
-      <c r="J11" s="110">
+      <c r="J11" s="143">
         <f>SUM(I12+I13-L11)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="109">
-        <v>8000</v>
+      <c r="L11" s="142">
+        <v>9000</v>
       </c>
       <c r="M11" s="93"/>
     </row>
@@ -2577,75 +2586,81 @@
       <c r="G12" s="53"/>
       <c r="H12" s="31"/>
       <c r="I12" s="52"/>
-      <c r="J12" s="111"/>
+      <c r="J12" s="144"/>
       <c r="K12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="142"/>
       <c r="M12" s="94"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="F13" s="41" t="s">
         <v>78</v>
       </c>
       <c r="G13" s="53"/>
       <c r="H13" s="31"/>
       <c r="I13" s="52"/>
-      <c r="J13" s="110">
+      <c r="J13" s="143">
         <f>SUM(I14+I15-L13)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K13" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="108">
-        <v>8000</v>
+      <c r="L13" s="141">
+        <v>9000</v>
       </c>
       <c r="M13" s="93"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="116" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="100">
         <v>5000</v>
       </c>
       <c r="C14" s="101"/>
-      <c r="D14" s="135">
+      <c r="D14" s="117">
         <v>2460</v>
+      </c>
+      <c r="E14" s="29">
+        <v>2500</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>79</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="52"/>
-      <c r="J14" s="111"/>
+      <c r="J14" s="144"/>
       <c r="K14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="108"/>
+      <c r="L14" s="141"/>
       <c r="M14" s="94"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="118" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="66">
         <v>1000</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="119">
         <v>1000</v>
       </c>
       <c r="F15" s="41" t="s">
@@ -2653,30 +2668,30 @@
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="52"/>
-      <c r="J15" s="110">
+      <c r="J15" s="143">
         <f>SUM(I16+I17-L15)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K15" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="109">
-        <v>8000</v>
+      <c r="L15" s="142">
+        <v>9000</v>
       </c>
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="118" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="66">
         <v>1500</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="138">
+      <c r="D16" s="119">
         <v>1500</v>
       </c>
       <c r="F16" s="42" t="s">
@@ -2685,55 +2700,55 @@
       <c r="G16" s="53"/>
       <c r="H16" s="31"/>
       <c r="I16" s="52"/>
-      <c r="J16" s="111"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="109"/>
+      <c r="L16" s="142"/>
       <c r="M16" s="94"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="120" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="102">
         <v>500</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="141"/>
+      <c r="D17" s="122"/>
       <c r="F17" s="41" t="s">
         <v>82</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="29"/>
       <c r="I17" s="52"/>
-      <c r="J17" s="110">
+      <c r="J17" s="143">
         <f>SUM(I18+I19-L17)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K17" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="108">
-        <v>8000</v>
+      <c r="L17" s="141">
+        <v>9000</v>
       </c>
       <c r="M17" s="93"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136" t="s">
+      <c r="A18" s="118" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="66">
         <v>500</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="129">
         <v>500</v>
       </c>
       <c r="F18" s="42" t="s">
@@ -2742,23 +2757,23 @@
       <c r="G18" s="31"/>
       <c r="H18" s="29"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="111"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="108"/>
+      <c r="L18" s="141"/>
       <c r="M18" s="94"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="118" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="66">
         <v>8000</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="154">
+      <c r="C19" s="44"/>
+      <c r="D19" s="131">
         <f>SUM(D14+D15+D16+D18-B19)</f>
         <v>-2540</v>
       </c>
@@ -2769,24 +2784,23 @@
       <c r="G19" s="31"/>
       <c r="H19" s="29"/>
       <c r="I19" s="52"/>
-      <c r="J19" s="110">
+      <c r="J19" s="143">
         <f>SUM(I20+I21-L19)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K19" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="109">
-        <v>8000</v>
+      <c r="L19" s="142">
+        <v>9000</v>
       </c>
       <c r="M19" s="93"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="153" t="s">
+      <c r="A20" s="123"/>
+      <c r="B20" s="124"/>
+      <c r="D20" s="130" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="42" t="s">
@@ -2795,35 +2809,35 @@
       <c r="G20" s="31"/>
       <c r="H20" s="29"/>
       <c r="I20" s="52"/>
-      <c r="J20" s="111"/>
+      <c r="J20" s="144"/>
       <c r="K20" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="109"/>
+      <c r="L20" s="142"/>
       <c r="M20" s="94"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="148"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="128"/>
       <c r="F21" s="41" t="s">
         <v>86</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="29"/>
       <c r="I21" s="52"/>
-      <c r="J21" s="110">
+      <c r="J21" s="143">
         <f>SUM(I22+I23-L21)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K21" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="108">
-        <v>8000</v>
+      <c r="L21" s="141">
+        <v>9000</v>
       </c>
       <c r="M21" s="93"/>
     </row>
@@ -2835,12 +2849,12 @@
       <c r="G22" s="31"/>
       <c r="H22" s="29"/>
       <c r="I22" s="52"/>
-      <c r="J22" s="111"/>
+      <c r="J22" s="144"/>
       <c r="K22" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="108"/>
+      <c r="L22" s="141"/>
       <c r="M22" s="94"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2851,16 +2865,16 @@
       <c r="G23" s="31"/>
       <c r="H23" s="29"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="110">
+      <c r="J23" s="143">
         <f>SUM(I24+I25-L23)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K23" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="109">
-        <v>8000</v>
+      <c r="L23" s="142">
+        <v>9000</v>
       </c>
       <c r="M23" s="93"/>
     </row>
@@ -2872,12 +2886,12 @@
       <c r="G24" s="31"/>
       <c r="H24" s="29"/>
       <c r="I24" s="52"/>
-      <c r="J24" s="111"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="109"/>
+      <c r="L24" s="142"/>
       <c r="M24" s="94"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2888,16 +2902,16 @@
       <c r="G25" s="31"/>
       <c r="H25" s="29"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="110">
+      <c r="J25" s="143">
         <f>SUM(I26+I27-L25)</f>
-        <v>-8000</v>
+        <v>-9000</v>
       </c>
       <c r="K25" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="108">
-        <v>8000</v>
+      <c r="L25" s="141">
+        <v>9000</v>
       </c>
       <c r="M25" s="93"/>
     </row>
@@ -2909,12 +2923,12 @@
       <c r="G26" s="31"/>
       <c r="H26" s="29"/>
       <c r="I26" s="52"/>
-      <c r="J26" s="112"/>
+      <c r="J26" s="145"/>
       <c r="K26" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="108"/>
+      <c r="L26" s="141"/>
       <c r="M26" s="94"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2923,9 +2937,9 @@
       <c r="G27" s="56"/>
       <c r="H27" s="57"/>
       <c r="I27" s="58"/>
-      <c r="J27" s="106">
+      <c r="J27" s="139">
         <f>SUM(J3:J26)</f>
-        <v>-96000</v>
+        <v>-101540</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="3"/>
@@ -2937,7 +2951,7 @@
       <c r="G28" s="56"/>
       <c r="H28" s="57"/>
       <c r="I28" s="58"/>
-      <c r="J28" s="107"/>
+      <c r="J28" s="140"/>
       <c r="K28" s="57"/>
       <c r="L28" s="3"/>
       <c r="M28" s="63"/>
@@ -2989,9 +3003,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J6"/>
@@ -3005,6 +3016,9 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L21:L22"/>
@@ -3768,10 +3782,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="116" t="s">
+      <c r="K25" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="116"/>
+      <c r="L25" s="152"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -5124,10 +5138,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="116" t="s">
+      <c r="K25" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="116"/>
+      <c r="L25" s="152"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">

--- a/PERSONAL BUSINESS/BUDGET 2024.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2024.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46EC78E-A7AC-42AE-AB18-27927A0A10FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0C13EE-7062-4397-B419-59BD511A9EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTA BASED" sheetId="23" r:id="rId1"/>
     <sheet name="QUOTA" sheetId="17" r:id="rId2"/>
     <sheet name="January" sheetId="19" r:id="rId3"/>
-    <sheet name="TEMPLATE" sheetId="24" r:id="rId4"/>
+    <sheet name="February" sheetId="25" r:id="rId4"/>
+    <sheet name="TEMPLATE" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="162">
   <si>
     <t>Month</t>
   </si>
@@ -185,9 +186,6 @@
     <t>MOTOR</t>
   </si>
   <si>
-    <t>TUTION</t>
-  </si>
-  <si>
     <t>SUM NEEDED</t>
   </si>
   <si>
@@ -372,20 +370,177 @@
   </si>
   <si>
     <t>laptop assest = education</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>food date</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>potato corner w/other on uptown / date</t>
+  </si>
+  <si>
+    <t>utang</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>milktea sunshine</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>padlock</t>
+  </si>
+  <si>
+    <t>oil motor</t>
+  </si>
+  <si>
+    <t>food work</t>
+  </si>
+  <si>
+    <t>change oil service</t>
+  </si>
+  <si>
+    <t>food drink work</t>
+  </si>
+  <si>
+    <t>sahod prev work</t>
+  </si>
+  <si>
+    <t>donut</t>
+  </si>
+  <si>
+    <t>spag/dump work</t>
+  </si>
+  <si>
+    <t>vitamilk</t>
+  </si>
+  <si>
+    <t>beefsteak work</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>papa</t>
+  </si>
+  <si>
+    <t>shake ministop work</t>
+  </si>
+  <si>
+    <t>online banking</t>
+  </si>
+  <si>
+    <t>education  saving</t>
+  </si>
+  <si>
+    <t>bootcamp enroll web dev</t>
+  </si>
+  <si>
+    <t>python bootcamp</t>
+  </si>
+  <si>
+    <t>transferred to PNB</t>
+  </si>
+  <si>
+    <t>snack</t>
+  </si>
+  <si>
+    <t>Kofi</t>
+  </si>
+  <si>
+    <t>cloud 9</t>
+  </si>
+  <si>
+    <t>clover and vitamilk work</t>
+  </si>
+  <si>
+    <t>boy bawang work</t>
+  </si>
+  <si>
+    <t>moby  work</t>
+  </si>
+  <si>
+    <t>water meryenda</t>
+  </si>
+  <si>
+    <t>jersey school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netflix </t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>gsave</t>
+  </si>
+  <si>
+    <t>work gala</t>
+  </si>
+  <si>
+    <t>kofi</t>
+  </si>
+  <si>
+    <t>spoon n mangjuan work</t>
+  </si>
+  <si>
+    <t>hatdog</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>laptop homecredit paid</t>
+  </si>
+  <si>
+    <t>samgyup homecredit not paid</t>
+  </si>
+  <si>
+    <t>SM ate hiram</t>
+  </si>
+  <si>
+    <t>alak</t>
+  </si>
+  <si>
+    <t>foodpanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mama </t>
+  </si>
+  <si>
+    <t>LAPTOP</t>
+  </si>
+  <si>
+    <t>bball drinks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$₱-464]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="[$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$₱-464]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1080,15 +1235,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1110,7 +1265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1126,29 +1281,29 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1157,7 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1166,22 +1321,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1193,81 +1348,81 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1279,10 +1434,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +1452,7 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,47 +1483,47 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -1377,13 +1532,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,16 +1549,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1418,34 +1573,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1457,27 +1612,37 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1491,19 +1656,19 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1513,7 +1678,7 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1524,7 +1689,7 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1538,19 +1703,19 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1560,7 +1725,54 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1589,20 +1801,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBCC0DA-16FA-496F-A798-3ACEF1B0728B}" name="Table14542" displayName="Table14542" ref="A1:I49" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBCC0DA-16FA-496F-A798-3ACEF1B0728B}" name="Table14542" displayName="Table14542" ref="A1:I77" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="A1:I77" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D112E57D-C5F7-4EF3-AE1F-A2939AE2E069}" name="Month" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{D112E57D-C5F7-4EF3-AE1F-A2939AE2E069}" name="Month" dataDxfId="28">
       <calculatedColumnFormula>MONTH(Table14542[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A555A39-8AB0-4C6E-9243-6FC6E29493BF}" name="Date" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{A052C14E-F72C-44ED-A7C8-BBB20320E8F8}" name="Description" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{7818BF9B-065E-4671-846D-D17583E36652}" name="Category" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{5E7FB5A3-4785-4505-9436-4DD43AA82289}" name="Income" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{A82DA387-0642-46AA-9D56-7697E921916D}" name="Debits" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{3501D39E-DFC8-4016-93D8-7704133964D0}" name="Balance" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{88D56B58-AC51-44A0-9733-5471A28A9F03}" name="Month for Savings" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{D2EF91F0-6A35-4203-A80B-9DF2750FD81D}" name="Savings Balance" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{6A555A39-8AB0-4C6E-9243-6FC6E29493BF}" name="Date" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{A052C14E-F72C-44ED-A7C8-BBB20320E8F8}" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{7818BF9B-065E-4671-846D-D17583E36652}" name="Category" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{5E7FB5A3-4785-4505-9436-4DD43AA82289}" name="Income" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{A82DA387-0642-46AA-9D56-7697E921916D}" name="Debits" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{3501D39E-DFC8-4016-93D8-7704133964D0}" name="Balance" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{88D56B58-AC51-44A0-9733-5471A28A9F03}" name="Month for Savings" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{D2EF91F0-6A35-4203-A80B-9DF2750FD81D}" name="Savings Balance" dataDxfId="20">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1611,20 +1823,42 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{72D535E8-645A-4F1B-A4DB-FA2D4FD5E9AC}" name="Table145425" displayName="Table145425" ref="A1:I49" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D14257-61ED-4B4A-A78E-7043085AD9E8}" name="Table1454253" displayName="Table1454253" ref="A1:I49" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{39309D69-6F35-42D9-B417-6C42098C3D9F}" name="Month" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{0294208F-D482-4F0A-B869-6C32269EFA1F}" name="Month" dataDxfId="8">
+      <calculatedColumnFormula>MONTH(Table1454253[[#This Row],[Date]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{018BF1C1-066F-4C09-BA0F-65F039FE7FF0}" name="Date" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{32933DDB-D71E-4CBA-8BDB-5E557A250AF1}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{137428C2-3E76-4967-80B7-832A283920FE}" name="Category" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E65397B1-A5C0-4295-92BC-94F297A440D3}" name="Income" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{24341281-92AB-4EFB-B21C-5B47B39C7765}" name="Debits" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5E3AD812-3C1B-42A5-9160-691E6252E0BD}" name="Balance" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{C1C1E0C0-4B25-4094-BFB6-A6718E2A0A5F}" name="Month for Savings" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4245AF5B-14D4-4F88-A53E-F9A0DF90EA38}" name="Savings Balance" dataDxfId="0">
+      <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{72D535E8-645A-4F1B-A4DB-FA2D4FD5E9AC}" name="Table145425" displayName="Table145425" ref="A1:I49" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{39309D69-6F35-42D9-B417-6C42098C3D9F}" name="Month" dataDxfId="18">
       <calculatedColumnFormula>MONTH(Table145425[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1107F692-5585-46DD-8899-8B47FF0701EF}" name="Date" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D246CF8B-09A9-4930-B9CE-539A5686886C}" name="Description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{79FB080A-FB33-45C5-9798-07F203573430}" name="Category" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F5B9515E-C7E7-4FAF-9AA1-D4C18B4A063D}" name="Income" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{2FEA6553-8DBA-4B37-8155-80F4790DD542}" name="Debits" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6E3FEAB8-E86F-423F-86DB-E26B8F0B74FA}" name="Balance" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{15319760-CB9B-4E3E-B991-292290FC9062}" name="Month for Savings" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4D65A033-3786-4FE2-B622-1BD332D30862}" name="Savings Balance" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{1107F692-5585-46DD-8899-8B47FF0701EF}" name="Date" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{D246CF8B-09A9-4930-B9CE-539A5686886C}" name="Description" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{79FB080A-FB33-45C5-9798-07F203573430}" name="Category" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{F5B9515E-C7E7-4FAF-9AA1-D4C18B4A063D}" name="Income" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{2FEA6553-8DBA-4B37-8155-80F4790DD542}" name="Debits" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{6E3FEAB8-E86F-423F-86DB-E26B8F0B74FA}" name="Balance" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{15319760-CB9B-4E3E-B991-292290FC9062}" name="Month for Savings" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{4D65A033-3786-4FE2-B622-1BD332D30862}" name="Savings Balance" dataDxfId="10">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1633,9 +1867,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1673,7 +1907,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1779,7 +2013,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1921,7 +2155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1934,131 +2168,131 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" activeCellId="1" sqref="H1 D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="114" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="114" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="114" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="114" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="110" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="113" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="114" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="114" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="110" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="113" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.44140625" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="70">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="C1" s="134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="103">
         <v>1000</v>
       </c>
       <c r="E1" s="134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" s="103">
         <v>2000</v>
       </c>
       <c r="G1" s="134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" s="107">
         <v>500</v>
       </c>
       <c r="I1" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J1" s="71">
         <v>500</v>
       </c>
       <c r="K1" s="138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L1" s="73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M1" s="77">
         <f>B1+D1+F1+H1</f>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>95</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="135"/>
       <c r="F2" s="106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="135"/>
       <c r="H2" s="108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="137"/>
       <c r="J2" s="87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="138"/>
       <c r="L2" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M2" s="132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>55</v>
       </c>
       <c r="C3" s="135"/>
       <c r="D3" s="105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="135"/>
       <c r="F3" s="105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="135"/>
       <c r="H3" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="137"/>
       <c r="J3" s="72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" s="138"/>
       <c r="L3" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M3" s="133"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="68"/>
       <c r="B4" s="111">
         <v>-2460</v>
@@ -2089,10 +2323,10 @@
         <v>44</v>
       </c>
       <c r="N4" s="86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="76"/>
       <c r="B5" s="43"/>
       <c r="D5" s="2">
@@ -2111,17 +2345,17 @@
       <c r="M5" s="44"/>
       <c r="N5" s="80"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="84" t="s">
         <v>45</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="88" t="s">
@@ -2131,15 +2365,15 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N8" s="82"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="88" t="s">
@@ -2149,7 +2383,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="89" t="s">
@@ -2159,99 +2393,99 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
@@ -2275,33 +2509,33 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="29" customWidth="1"/>
     <col min="8" max="8" width="17" style="32" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="95" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="35"/>
@@ -2316,37 +2550,37 @@
       <c r="L1" s="147"/>
       <c r="M1" s="148"/>
     </row>
-    <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="69"/>
       <c r="B2" s="67"/>
       <c r="C2" s="44"/>
       <c r="D2" s="35"/>
       <c r="F2" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>52</v>
-      </c>
       <c r="J2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>63</v>
-      </c>
       <c r="M2" s="49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="96" t="s">
         <v>45</v>
       </c>
@@ -2354,14 +2588,14 @@
       <c r="C3" s="44"/>
       <c r="D3" s="35"/>
       <c r="F3" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="29"/>
       <c r="I3" s="50">
         <v>5460</v>
       </c>
-      <c r="J3" s="143">
+      <c r="J3" s="142">
         <f>SUM(I3+I4-L3)</f>
         <v>-2540</v>
       </c>
@@ -2369,12 +2603,12 @@
         <f>SUM(G3+H3-I3)</f>
         <v>-5460</v>
       </c>
-      <c r="L3" s="142">
+      <c r="L3" s="144">
         <v>8000</v>
       </c>
       <c r="M3" s="91"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="69" t="s">
         <v>47</v>
       </c>
@@ -2382,26 +2616,26 @@
         <v>2500</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="35"/>
       <c r="F4" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="29"/>
       <c r="I4" s="50"/>
-      <c r="J4" s="144"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="51">
         <f>SUM(G4+H4-I4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="142"/>
+      <c r="L4" s="144"/>
       <c r="M4" s="92"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="67">
         <v>500</v>
@@ -2409,12 +2643,12 @@
       <c r="C5" s="44"/>
       <c r="D5" s="35"/>
       <c r="F5" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="29"/>
       <c r="I5" s="50"/>
-      <c r="J5" s="143">
+      <c r="J5" s="142">
         <f>SUM(I6+I7-L5)</f>
         <v>-9000</v>
       </c>
@@ -2422,37 +2656,37 @@
         <f t="shared" ref="K5:K26" si="0">SUM(G5+H5-I5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="141">
+      <c r="L5" s="145">
         <v>9000</v>
       </c>
       <c r="M5" s="93"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="69" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="B6" s="67">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="35"/>
       <c r="F6" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="29"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="144"/>
+      <c r="J6" s="143"/>
       <c r="K6" s="51">
         <f>SUM(G6+H6-I6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="141"/>
+      <c r="L6" s="145"/>
       <c r="M6" s="92"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="69" t="s">
         <v>46</v>
       </c>
@@ -2462,12 +2696,12 @@
       <c r="C7" s="44"/>
       <c r="D7" s="35"/>
       <c r="F7" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="29"/>
       <c r="I7" s="50"/>
-      <c r="J7" s="143">
+      <c r="J7" s="142">
         <f>SUM(I8+I9-L7)</f>
         <v>-9000</v>
       </c>
@@ -2475,12 +2709,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="142">
+      <c r="L7" s="144">
         <v>9000</v>
       </c>
       <c r="M7" s="93"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="69" t="s">
         <v>43</v>
       </c>
@@ -2490,36 +2724,36 @@
       <c r="C8" s="44"/>
       <c r="D8" s="35"/>
       <c r="F8" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="29"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="144"/>
+      <c r="J8" s="143"/>
       <c r="K8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="142"/>
+      <c r="L8" s="144"/>
       <c r="M8" s="94"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="99">
         <f>SUM(B4:B8)</f>
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="35"/>
       <c r="F9" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="29"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="143">
+      <c r="J9" s="142">
         <f>SUM(I10+I11-L9)</f>
         <v>-9000</v>
       </c>
@@ -2527,42 +2761,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="141">
+      <c r="L9" s="145">
         <v>9000</v>
       </c>
       <c r="M9" s="93"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44"/>
       <c r="B10" s="43"/>
       <c r="C10" s="44"/>
       <c r="D10" s="35"/>
       <c r="F10" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="29"/>
       <c r="I10" s="52"/>
-      <c r="J10" s="144"/>
+      <c r="J10" s="143"/>
       <c r="K10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="141"/>
+      <c r="L10" s="145"/>
       <c r="M10" s="94"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="43"/>
       <c r="C11" s="44"/>
       <c r="D11" s="35"/>
       <c r="F11" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="52"/>
-      <c r="J11" s="143">
+      <c r="J11" s="142">
         <f>SUM(I12+I13-L11)</f>
         <v>-9000</v>
       </c>
@@ -2570,47 +2804,47 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="142">
+      <c r="L11" s="144">
         <v>9000</v>
       </c>
       <c r="M11" s="93"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
       <c r="D12" s="35"/>
       <c r="F12" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="31"/>
       <c r="I12" s="52"/>
-      <c r="J12" s="144"/>
+      <c r="J12" s="143"/>
       <c r="K12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="142"/>
+      <c r="L12" s="144"/>
       <c r="M12" s="94"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="149" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="53"/>
       <c r="H13" s="31"/>
       <c r="I13" s="52"/>
-      <c r="J13" s="143">
+      <c r="J13" s="142">
         <f>SUM(I14+I15-L13)</f>
         <v>-9000</v>
       </c>
@@ -2618,57 +2852,57 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="141">
+      <c r="L13" s="145">
         <v>9000</v>
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="100">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="C14" s="101"/>
       <c r="D14" s="117">
         <v>2460</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="156">
         <v>2500</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="52"/>
-      <c r="J14" s="144"/>
+      <c r="J14" s="143"/>
       <c r="K14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="141"/>
+      <c r="L14" s="145"/>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="66">
         <v>1000</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="119">
         <v>1000</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="52"/>
-      <c r="J15" s="143">
+      <c r="J15" s="142">
         <f>SUM(I16+I17-L15)</f>
         <v>-9000</v>
       </c>
@@ -2676,56 +2910,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="142">
+      <c r="L15" s="144">
         <v>9000</v>
       </c>
       <c r="M15" s="93"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="66">
         <v>1500</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="119">
         <v>1500</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="53"/>
       <c r="H16" s="31"/>
       <c r="I16" s="52"/>
-      <c r="J16" s="144"/>
+      <c r="J16" s="143"/>
       <c r="K16" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="142"/>
+      <c r="L16" s="144"/>
       <c r="M16" s="94"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="102">
         <v>500</v>
       </c>
       <c r="C17" s="121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="122"/>
       <c r="F17" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="29"/>
       <c r="I17" s="52"/>
-      <c r="J17" s="143">
+      <c r="J17" s="142">
         <f>SUM(I18+I19-L17)</f>
         <v>-9000</v>
       </c>
@@ -2733,58 +2967,58 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="141">
+      <c r="L17" s="145">
         <v>9000</v>
       </c>
       <c r="M17" s="93"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="66">
         <v>500</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="129">
         <v>500</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="29"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="144"/>
+      <c r="J18" s="143"/>
       <c r="K18" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="141"/>
+      <c r="L18" s="145"/>
       <c r="M18" s="94"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="66">
-        <v>8000</v>
+        <v>8700</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="131">
         <f>SUM(D14+D15+D16+D18-B19)</f>
-        <v>-2540</v>
+        <v>-3240</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="29"/>
       <c r="I19" s="52"/>
-      <c r="J19" s="143">
+      <c r="J19" s="142">
         <f>SUM(I20+I21-L19)</f>
         <v>-9000</v>
       </c>
@@ -2792,43 +3026,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="142">
+      <c r="L19" s="144">
         <v>9000</v>
       </c>
       <c r="M19" s="93"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="123"/>
       <c r="B20" s="124"/>
       <c r="D20" s="130" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="29"/>
       <c r="I20" s="52"/>
-      <c r="J20" s="144"/>
+      <c r="J20" s="143"/>
       <c r="K20" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="142"/>
+      <c r="L20" s="144"/>
       <c r="M20" s="94"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="126"/>
       <c r="C21" s="127"/>
       <c r="D21" s="128"/>
       <c r="F21" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="29"/>
       <c r="I21" s="52"/>
-      <c r="J21" s="143">
+      <c r="J21" s="142">
         <f>SUM(I22+I23-L21)</f>
         <v>-9000</v>
       </c>
@@ -2836,36 +3070,36 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="141">
+      <c r="L21" s="145">
         <v>9000</v>
       </c>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="29"/>
       <c r="F22" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="29"/>
       <c r="I22" s="52"/>
-      <c r="J22" s="144"/>
+      <c r="J22" s="143"/>
       <c r="K22" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="141"/>
+      <c r="L22" s="145"/>
       <c r="M22" s="94"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="29"/>
       <c r="F23" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="29"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="143">
+      <c r="J23" s="142">
         <f>SUM(I24+I25-L23)</f>
         <v>-9000</v>
       </c>
@@ -2873,36 +3107,36 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="142">
+      <c r="L23" s="144">
         <v>9000</v>
       </c>
       <c r="M23" s="93"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="29"/>
       <c r="F24" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="29"/>
       <c r="I24" s="52"/>
-      <c r="J24" s="144"/>
+      <c r="J24" s="143"/>
       <c r="K24" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="142"/>
+      <c r="L24" s="144"/>
       <c r="M24" s="94"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="29"/>
       <c r="F25" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="29"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="143">
+      <c r="J25" s="142">
         <f>SUM(I26+I27-L25)</f>
         <v>-9000</v>
       </c>
@@ -2910,34 +3144,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="141">
+      <c r="L25" s="145">
         <v>9000</v>
       </c>
       <c r="M25" s="93"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29"/>
       <c r="F26" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="29"/>
       <c r="I26" s="52"/>
-      <c r="J26" s="145"/>
+      <c r="J26" s="151"/>
       <c r="K26" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="141"/>
+      <c r="L26" s="145"/>
       <c r="M26" s="94"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D27" s="29"/>
       <c r="F27" s="55"/>
       <c r="G27" s="56"/>
       <c r="H27" s="57"/>
       <c r="I27" s="58"/>
-      <c r="J27" s="139">
+      <c r="J27" s="149">
         <f>SUM(J3:J26)</f>
         <v>-101540</v>
       </c>
@@ -2945,69 +3179,75 @@
       <c r="L27" s="3"/>
       <c r="M27" s="63"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="29"/>
       <c r="F28" s="55"/>
       <c r="G28" s="56"/>
       <c r="H28" s="57"/>
       <c r="I28" s="58"/>
-      <c r="J28" s="140"/>
+      <c r="J28" s="150"/>
       <c r="K28" s="57"/>
       <c r="L28" s="3"/>
       <c r="M28" s="63"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="29"/>
       <c r="F29" s="59"/>
       <c r="G29" s="60"/>
       <c r="H29" s="61"/>
       <c r="I29" s="62"/>
       <c r="J29" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K29" s="61"/>
       <c r="L29" s="64"/>
       <c r="M29" s="65"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H30" s="31"/>
       <c r="I30" s="29"/>
       <c r="J30" s="32"/>
       <c r="K30" s="30"/>
       <c r="L30" s="29"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H31" s="31"/>
       <c r="I31" s="29"/>
       <c r="J31" s="32"/>
       <c r="K31" s="30"/>
       <c r="L31" s="29"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I35"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I36"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I39"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L13:L14"/>
@@ -3019,17 +3259,11 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3041,32 +3275,32 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3119,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3155,7 +3389,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3164,7 +3398,7 @@
         <v>45292</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3199,7 +3433,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3208,7 +3442,7 @@
         <v>45293</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3244,7 +3478,7 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3286,7 +3520,7 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3295,7 +3529,7 @@
         <v>45294</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>13</v>
@@ -3328,19 +3562,25 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12">
+        <v>45295</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>25</v>
+      </c>
       <c r="G8" s="14">
         <f>SUM(G7+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>1716</v>
       </c>
       <c r="H8" t="s">
         <v>31</v>
@@ -3362,19 +3602,25 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12">
+        <v>45295</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14">
+        <v>100</v>
+      </c>
       <c r="G9" s="14">
         <f>SUM(G8+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>1616</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -3393,19 +3639,25 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="12">
+        <v>45295</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>95</v>
+      </c>
       <c r="G10" s="14">
         <f>SUM(G9+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>1521</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -3430,19 +3682,25 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12">
+        <v>45298</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14">
+        <v>330</v>
+      </c>
       <c r="G11" s="14">
         <f>SUM(G10+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>1191</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -3458,19 +3716,25 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="12">
+        <v>45298</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14">
+        <v>100</v>
+      </c>
       <c r="G12" s="14">
         <f>SUM(G11+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>1091</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -3489,19 +3753,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="12">
+        <v>45298</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14">
+        <v>40</v>
+      </c>
       <c r="G13" s="14">
         <f>SUM(G12+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>1051</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -3512,7 +3782,7 @@
       </c>
       <c r="K13" s="27">
         <f>SUM(F2:F42)</f>
-        <v>6000</v>
+        <v>9743</v>
       </c>
       <c r="L13" s="27">
         <f>SUM(Table14542[Savings Balance])</f>
@@ -3523,19 +3793,25 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14">
+        <v>90</v>
+      </c>
       <c r="G14" s="14">
         <f>SUM(G13+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>961</v>
       </c>
       <c r="I14" s="24">
         <f t="shared" si="0"/>
@@ -3545,19 +3821,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14">
+        <v>160</v>
+      </c>
       <c r="G15" s="14">
         <f>SUM(G14+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>801</v>
       </c>
       <c r="H15" t="s">
         <v>40</v>
@@ -3567,19 +3847,25 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="12">
+        <v>45301</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14">
+        <v>40</v>
+      </c>
       <c r="G16" s="14">
         <f>SUM(G15+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>761</v>
       </c>
       <c r="I16" s="24">
         <f t="shared" si="0"/>
@@ -3595,19 +3881,25 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="D17" s="15"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14">
+        <v>50</v>
+      </c>
       <c r="G17" s="14">
         <f>SUM(G16+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>711</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
@@ -3623,38 +3915,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="14">
+        <v>59</v>
+      </c>
       <c r="G18" s="14">
         <f>SUM(G17+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>652</v>
       </c>
       <c r="I18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="12">
+        <v>45303</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14">
+        <v>120</v>
+      </c>
       <c r="G19" s="14">
         <f>SUM(G18+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>532</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="0"/>
@@ -3665,19 +3967,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14">
+        <v>50</v>
+      </c>
       <c r="G20" s="14">
         <f>SUM(G19+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>482</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" si="0"/>
@@ -3688,95 +3994,119 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="12">
+        <v>45304</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14">
+        <v>50</v>
+      </c>
       <c r="G21" s="14">
         <f>SUM(G20+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>432</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14">
+        <v>50</v>
+      </c>
       <c r="G22" s="14">
         <f>SUM(G21+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>382</v>
       </c>
       <c r="I22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="12">
+        <v>45306</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="D23" s="15"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="14">
+        <v>65</v>
+      </c>
       <c r="G23" s="14">
         <f>SUM(G22+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>317</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="14">
+        <v>280</v>
+      </c>
       <c r="G24" s="14">
         <f>SUM(G23+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>37</v>
       </c>
       <c r="I24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="14">
+        <v>99</v>
+      </c>
       <c r="G25" s="14">
         <f>SUM(G24+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-62</v>
       </c>
       <c r="I25" s="21">
         <f t="shared" si="0"/>
@@ -3787,459 +4117,1199 @@
       </c>
       <c r="L25" s="152"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="14">
+        <v>74</v>
+      </c>
       <c r="G26" s="14">
         <f>SUM(G25+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-136</v>
       </c>
       <c r="I26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="12">
+        <v>45307</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="14">
+        <v>50</v>
+      </c>
       <c r="G27" s="14">
         <f>SUM(G26+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-186</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="12">
+        <v>45308</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="14">
+        <v>52</v>
+      </c>
       <c r="G28" s="14">
         <f>SUM(G27+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-238</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="14">
+        <v>305</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
         <f>SUM(G28+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>67</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="12">
+        <v>45309</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="14">
+        <v>72</v>
+      </c>
       <c r="G30" s="14">
         <f>SUM(G29+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-5</v>
       </c>
       <c r="I30" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="12">
+        <v>45310</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="14">
+        <v>75</v>
+      </c>
       <c r="G31" s="14">
         <f>SUM(G30+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-80</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="14">
+        <v>35</v>
+      </c>
       <c r="G32" s="14">
         <f>SUM(G31+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-115</v>
       </c>
       <c r="I32" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="12">
+        <v>45311</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="D33" s="13"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="14">
+        <v>40</v>
+      </c>
       <c r="G33" s="14">
         <f>SUM(G32+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-155</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="D34" s="13"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="14">
+        <v>35</v>
+      </c>
       <c r="G34" s="14">
         <f>SUM(G33+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-190</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="12">
+        <v>45312</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="D35" s="15"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="14">
+        <v>22</v>
+      </c>
       <c r="G35" s="14">
         <f>SUM(G34+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-212</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="18"/>
+      <c r="C36" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="14">
+        <v>400</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14">
         <f>SUM(G35+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>188</v>
       </c>
       <c r="I36" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="12">
+        <v>45313</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="14">
+        <v>100</v>
+      </c>
       <c r="G37" s="14">
         <f>SUM(G36+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>88</v>
       </c>
       <c r="I37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="D38" s="13"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="14">
+        <v>55</v>
+      </c>
       <c r="G38" s="14">
         <f>SUM(G37+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>33</v>
       </c>
       <c r="I38" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="12">
+        <v>45314</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="D39" s="15"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="14">
+        <v>30</v>
+      </c>
       <c r="G39" s="14">
         <f>SUM(G38+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>3</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="14">
+        <v>2500</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14">
         <f>SUM(G39+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>2503</v>
       </c>
       <c r="I40" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="F41" s="14">
+        <v>650</v>
+      </c>
       <c r="G41" s="14">
         <f>SUM(G40+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>1853</v>
       </c>
       <c r="I41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="D42" s="11"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="14">
+        <v>650</v>
+      </c>
       <c r="G42" s="14">
         <f>SUM(G41+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>1203</v>
       </c>
       <c r="I42" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="D43" s="13"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="14">
+        <v>1000</v>
+      </c>
       <c r="G43" s="14">
         <f>SUM(G42+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>203</v>
       </c>
       <c r="I43" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="D44" s="13"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="F44" s="14">
+        <v>51</v>
+      </c>
       <c r="G44" s="14">
         <f>SUM(G43+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>152</v>
       </c>
       <c r="I44" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="D45" s="13"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="14">
+        <v>20</v>
+      </c>
       <c r="G45" s="14">
         <f>SUM(G44+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>132</v>
       </c>
       <c r="I45" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="12">
+        <v>45315</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="14">
+        <v>26</v>
+      </c>
       <c r="G46" s="14">
         <f>SUM(G45+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>106</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="D47" s="13"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="14">
+        <v>20</v>
+      </c>
       <c r="G47" s="14">
         <f>SUM(G46+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>86</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="D48" s="13"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="F48" s="14">
+        <v>65</v>
+      </c>
       <c r="G48" s="14">
         <f>SUM(G47+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>21</v>
       </c>
       <c r="I48" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="12">
+        <v>45316</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="D49" s="13"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="F49" s="14">
+        <v>28</v>
+      </c>
       <c r="G49" s="14">
         <f>SUM(G48+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
-        <v>1741</v>
+        <v>-7</v>
       </c>
       <c r="I49" s="25">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B50" s="153">
+        <v>45317</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14">
+        <v>26</v>
+      </c>
+      <c r="G50" s="14">
+        <f>SUM(G49+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-33</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="155">
+        <f t="shared" ref="I50:I65" si="1">SUM(K57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B51" s="153"/>
+      <c r="C51" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14">
+        <v>23</v>
+      </c>
+      <c r="G51" s="14">
+        <f>SUM(G50+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-56</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B52" s="153">
+        <v>45318</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14">
+        <v>50</v>
+      </c>
+      <c r="G52" s="14">
+        <f>SUM(G51+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-106</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B53" s="153"/>
+      <c r="C53" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14">
+        <v>50</v>
+      </c>
+      <c r="G53" s="14">
+        <f>SUM(G52+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-156</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B54" s="153">
+        <v>45319</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14">
+        <v>350</v>
+      </c>
+      <c r="G54" s="14">
+        <f>SUM(G53+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-506</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B55" s="153"/>
+      <c r="C55" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14">
+        <v>200</v>
+      </c>
+      <c r="G55" s="14">
+        <f>SUM(G54+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-706</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B56" s="153"/>
+      <c r="C56" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14">
+        <v>200</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14">
+        <f>SUM(G55+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-506</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B57" s="153">
+        <v>45320</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14">
+        <v>350</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14">
+        <f>SUM(G56+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-156</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B58" s="153"/>
+      <c r="C58" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14">
+        <v>200</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14">
+        <f>SUM(G57+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>44</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B59" s="153">
+        <v>45321</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14">
+        <v>50</v>
+      </c>
+      <c r="G59" s="14">
+        <f>SUM(G58+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-6</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B60" s="153">
+        <v>45322</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14">
+        <v>100</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14">
+        <f>SUM(G59+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>94</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B61" s="153"/>
+      <c r="C61" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14">
+        <v>100</v>
+      </c>
+      <c r="G61" s="14">
+        <f>SUM(G60+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-6</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B62" s="153"/>
+      <c r="C62" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14">
+        <v>26</v>
+      </c>
+      <c r="G62" s="14">
+        <f>SUM(G61+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B63" s="153"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14">
+        <f>SUM(G62+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B64" s="153"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14">
+        <f>SUM(G63+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B65" s="153"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14">
+        <f>SUM(G64+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B66" s="153"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14">
+        <f>SUM(G65+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H66" s="14"/>
+      <c r="I66" s="155">
+        <f t="shared" ref="I66:I77" si="2">SUM(K73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B67" s="153"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14">
+        <f>SUM(G66+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B68" s="153"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14">
+        <f>SUM(G67+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B69" s="153"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14">
+        <f>SUM(G68+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B70" s="153"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14">
+        <f>SUM(G69+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B71" s="153"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14">
+        <f>SUM(G70+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B72" s="153"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14">
+        <f>SUM(G71+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H72" s="14"/>
+      <c r="I72" s="155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B73" s="153"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14">
+        <f>SUM(G72+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B74" s="153"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14">
+        <f>SUM(G73+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B75" s="153"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14">
+        <f>SUM(G74+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B76" s="153"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14">
+        <f>SUM(G75+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="154">
+        <f>MONTH(Table14542[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B77" s="153"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14">
+        <f>SUM(G76+Table14542[[#This Row],[Income]]-Table14542[[#This Row],[Debits]])</f>
+        <v>-32</v>
+      </c>
+      <c r="H77" s="14"/>
+      <c r="I77" s="21">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4332,7 +5402,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 K9" xr:uid="{F8A0E710-FBF0-4A81-B56F-0AD821A7261C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9 D1:D1048576" xr:uid="{F8A0E710-FBF0-4A81-B56F-0AD821A7261C}">
       <formula1>"Income, Transportation, Savings/Investment, Liabilities, Entertainment/Wants, Savings/Investment Used"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4439,6 +5509,1418 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A30DC7-9B08-4CF6-8C62-86D056D8E323}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14">
+        <v>-32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>45323</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
+        <v>34</v>
+      </c>
+      <c r="G3" s="14">
+        <f>SUM(G2+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>-66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="21">
+        <f>SUMIFS(Table1454253[[#All],[Debits]],Table1454253[[#All],[Month]],K4, Table1454253[[#All],[Category]],K9)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>45</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM(G3+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>-111</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" ref="I4:I49" si="0">SUM(K11)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>45324</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14">
+        <v>8246</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <f>SUM(G4+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>8135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f>SUMIFS(Table1454253[[#All],[Income]],Table1454253[[#All],[Month]],K4,Table1454253[[#All],[Category]],K5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
+        <v>10000</v>
+      </c>
+      <c r="N5">
+        <v>4000</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
+        <v>7200</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(G5+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>935</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="20">
+        <f>SUM(K100)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f>SUMIFS(Table1454253[[#All],[Debits]],Table1454253[[#All],[Month]],K4, Table1454253[[#All],[Category]],K6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>2000</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14">
+        <v>3500</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="14">
+        <f>SUM(G6+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>935</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <f>SUMIFS(Table1454253[[#All],[Debits]],Table1454253[[#All],[Month]],K4, Table1454253[[#All],[Category]],K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <v>2000</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2700</v>
+      </c>
+      <c r="G8" s="14">
+        <f>SUM(G7+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>935</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <f>SUMIFS(Table1454253[[#All],[Debits]],Table1454253[[#All],[Month]],K4, Table1454253[[#All],[Category]],K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="23">
+        <v>3500</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
+        <v>110</v>
+      </c>
+      <c r="G9" s="14">
+        <f>SUM(G8+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>825</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <f>SUMIFS(Table1454253[[#All],[Debits]],Table1454253[[#All],[Month]],K4, Table1454253[[#All],[Category]],K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>8000</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="12">
+        <v>45325</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
+        <v>215</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(G9+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>610</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <f>SUMIFS(Table1454253[[#All],[Income]],Table1454253[[#All],[Month]],K4,Table1454253[[#All],[Category]],K10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <v>10000</v>
+      </c>
+      <c r="N10">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
+        <v>100</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <f>SUM(G10+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>710</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="12">
+        <v>45326</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <v>129</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(G11+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <f>SUM(G12+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <f>SUM(F2:F42)</f>
+        <v>13933</v>
+      </c>
+      <c r="L13" s="27">
+        <f>SUM(Table1454253[Savings Balance])</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <f>SUM(1921-1400)</f>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <f>SUM(G13+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <f>SUM(G14+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="21">
+        <f>SUM(I2:I13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
+        <f>SUM(G15+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
+        <f>SUM(G16+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
+        <f>SUM(G17+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
+        <f>SUM(G18+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
+        <f>SUM(G19+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <f>SUM(G20+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <f>SUM(G21+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <f>SUM(G22+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
+        <f>SUM(G23+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
+        <f>SUM(G24+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="152"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
+        <f>SUM(G25+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <f>SUM(G26+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
+        <f>SUM(G27+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
+        <f>SUM(G28+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
+        <f>SUM(G29+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
+        <f>SUM(G30+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
+        <f>SUM(G31+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <f>SUM(G32+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14">
+        <f>SUM(G33+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14">
+        <f>SUM(G34+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14">
+        <f>SUM(G35+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
+        <f>SUM(G36+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
+        <f>SUM(G37+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I38" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14">
+        <f>SUM(G38+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14">
+        <f>SUM(G39+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14">
+        <f>SUM(G40+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14">
+        <f>SUM(G41+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I42" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14">
+        <f>SUM(G42+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14">
+        <f>SUM(G43+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14">
+        <f>SUM(G44+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14">
+        <f>SUM(G45+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I46" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14">
+        <f>SUM(G46+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14">
+        <f>SUM(G47+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I48" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="13">
+        <f>MONTH(Table1454253[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14">
+        <f>SUM(G48+Table1454253[[#This Row],[Income]]-Table1454253[[#This Row],[Debits]])</f>
+        <v>581</v>
+      </c>
+      <c r="I49" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K25:L25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10000"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3686B951-71BB-425E-BDD8-0BFAACA28A1D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{948F6FB8-735D-4725-9A91-07440002BB71}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F215E5E-724B-40AE-B33E-002C6534909C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3500"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF89B5A1-9ED5-466F-BE07-B3CDC13B282A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="8000"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B189AE3A-1CCE-4D6C-9208-6B525DCC3D08}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="10000"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4EC400FC-2CD3-440E-8A0C-DE7F7A5E4867}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 K9" xr:uid="{334C555B-29CF-47EA-B35E-6B09DD5DBBD1}">
+      <formula1>"Income, Transportation, Savings/Investment, Liabilities, Entertainment/Wants, Savings/Investment Used"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3686B951-71BB-425E-BDD8-0BFAACA28A1D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>10000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{948F6FB8-735D-4725-9A91-07440002BB71}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F215E5E-724B-40AE-B33E-002C6534909C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF89B5A1-9ED5-466F-BE07-B3CDC13B282A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3500</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B189AE3A-1CCE-4D6C-9208-6B525DCC3D08}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4EC400FC-2CD3-440E-8A0C-DE7F7A5E4867}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>10000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA208565-B97A-4954-B47A-41DDAB90BA21}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -4449,26 +6931,26 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +6979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4515,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4543,7 +7025,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4579,7 +7061,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4616,7 +7098,7 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4650,7 +7132,7 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4684,7 +7166,7 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4718,7 +7200,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4749,7 +7231,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4786,7 +7268,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4814,7 +7296,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4845,7 +7327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4879,7 +7361,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4901,7 +7383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4923,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4951,7 +7433,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4979,7 +7461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4998,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5021,7 +7503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5044,7 +7526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5063,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5082,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5101,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5120,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5143,7 +7625,7 @@
       </c>
       <c r="L25" s="152"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5162,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5181,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5200,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5219,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5238,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5257,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5276,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5295,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5314,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5333,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5352,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5371,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5390,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5409,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5428,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5447,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5466,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5485,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5504,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5523,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5542,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5561,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5580,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>

--- a/PERSONAL BUSINESS/BUDGET 2024.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0C13EE-7062-4397-B419-59BD511A9EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3A549-FC15-4F36-855C-364D37EE032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTA BASED" sheetId="23" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="January" sheetId="19" r:id="rId3"/>
     <sheet name="February" sheetId="25" r:id="rId4"/>
     <sheet name="TEMPLATE" sheetId="24" r:id="rId5"/>
+    <sheet name="TEMPLATE (2)" sheetId="27" r:id="rId6"/>
+    <sheet name="Practice" sheetId="26" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="198">
   <si>
     <t>Month</t>
   </si>
@@ -526,21 +528,128 @@
   </si>
   <si>
     <t>bball drinks</t>
+  </si>
+  <si>
+    <t>INCOME</t>
+  </si>
+  <si>
+    <t>CREDIT LIMIT</t>
+  </si>
+  <si>
+    <t>DEBIT</t>
+  </si>
+  <si>
+    <t>CREDIT USED</t>
+  </si>
+  <si>
+    <t>WANTS</t>
+  </si>
+  <si>
+    <t>FIX PAYMENT/SAVINGS</t>
+  </si>
+  <si>
+    <t>DEBIT CATEGORY</t>
+  </si>
+  <si>
+    <t>FIX PAYMENT/SAVINGS CATEGORY</t>
+  </si>
+  <si>
+    <t>INCOME CATEGORY</t>
+  </si>
+  <si>
+    <t>ENTERTAINMENT/WANTS</t>
+  </si>
+  <si>
+    <t>CREDIT/UTANG CATEGORY</t>
+  </si>
+  <si>
+    <t>HOME CREDIT</t>
+  </si>
+  <si>
+    <t>UTANG FAMILY FRIENDS</t>
+  </si>
+  <si>
+    <t>CREDIT LIMIT CATEGORY</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>FOOD</t>
+  </si>
+  <si>
+    <t>LIABILITIES CATEGORY</t>
+  </si>
+  <si>
+    <t>COST OF LIVING</t>
+  </si>
+  <si>
+    <t>INVESTMENTS</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>SIDE JOB</t>
+  </si>
+  <si>
+    <t>COST OF LIVING / DEBIT</t>
+  </si>
+  <si>
+    <t>EXCESS CASH</t>
+  </si>
+  <si>
+    <t>EXCESS CASH/CASHFLOW</t>
+  </si>
+  <si>
+    <t>EXPENSE</t>
+  </si>
+  <si>
+    <t>ASSETS</t>
+  </si>
+  <si>
+    <t>LIAIBLITIES</t>
+  </si>
+  <si>
+    <t>LIABILITES CATEGORY</t>
+  </si>
+  <si>
+    <t>EXPECTED MONTHLY</t>
+  </si>
+  <si>
+    <t>CUT OFF</t>
+  </si>
+  <si>
+    <t>GROWTH SECTION</t>
+  </si>
+  <si>
+    <t>MONEY FLOW</t>
+  </si>
+  <si>
+    <t>MONEY CYCLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="[$PHP]\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$₱-464]#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$₱-464]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1235,15 +1344,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1265,7 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1281,29 +1390,29 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1312,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1321,22 +1430,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1348,81 +1457,81 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1434,10 +1543,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,7 +1561,7 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,9 +1572,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1483,47 +1589,47 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -1532,13 +1638,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,18 +1655,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1573,14 +1683,44 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1591,58 +1731,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="40">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1656,19 +1768,19 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1678,7 +1790,7 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1689,7 +1801,7 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1703,19 +1815,19 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1725,7 +1837,7 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1736,7 +1848,7 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1750,19 +1862,19 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1772,7 +1884,54 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1801,20 +1960,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBCC0DA-16FA-496F-A798-3ACEF1B0728B}" name="Table14542" displayName="Table14542" ref="A1:I77" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBCC0DA-16FA-496F-A798-3ACEF1B0728B}" name="Table14542" displayName="Table14542" ref="A1:I77" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A1:I77" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D112E57D-C5F7-4EF3-AE1F-A2939AE2E069}" name="Month" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{D112E57D-C5F7-4EF3-AE1F-A2939AE2E069}" name="Month" dataDxfId="38">
       <calculatedColumnFormula>MONTH(Table14542[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A555A39-8AB0-4C6E-9243-6FC6E29493BF}" name="Date" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{A052C14E-F72C-44ED-A7C8-BBB20320E8F8}" name="Description" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{7818BF9B-065E-4671-846D-D17583E36652}" name="Category" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{5E7FB5A3-4785-4505-9436-4DD43AA82289}" name="Income" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{A82DA387-0642-46AA-9D56-7697E921916D}" name="Debits" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{3501D39E-DFC8-4016-93D8-7704133964D0}" name="Balance" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{88D56B58-AC51-44A0-9733-5471A28A9F03}" name="Month for Savings" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{D2EF91F0-6A35-4203-A80B-9DF2750FD81D}" name="Savings Balance" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{6A555A39-8AB0-4C6E-9243-6FC6E29493BF}" name="Date" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{A052C14E-F72C-44ED-A7C8-BBB20320E8F8}" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{7818BF9B-065E-4671-846D-D17583E36652}" name="Category" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{5E7FB5A3-4785-4505-9436-4DD43AA82289}" name="Income" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{A82DA387-0642-46AA-9D56-7697E921916D}" name="Debits" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{3501D39E-DFC8-4016-93D8-7704133964D0}" name="Balance" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{88D56B58-AC51-44A0-9733-5471A28A9F03}" name="Month for Savings" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{D2EF91F0-6A35-4203-A80B-9DF2750FD81D}" name="Savings Balance" dataDxfId="30">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1823,20 +1982,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D14257-61ED-4B4A-A78E-7043085AD9E8}" name="Table1454253" displayName="Table1454253" ref="A1:I49" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D14257-61ED-4B4A-A78E-7043085AD9E8}" name="Table1454253" displayName="Table1454253" ref="A1:I49" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0294208F-D482-4F0A-B869-6C32269EFA1F}" name="Month" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{0294208F-D482-4F0A-B869-6C32269EFA1F}" name="Month" dataDxfId="28">
       <calculatedColumnFormula>MONTH(Table1454253[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{018BF1C1-066F-4C09-BA0F-65F039FE7FF0}" name="Date" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{32933DDB-D71E-4CBA-8BDB-5E557A250AF1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{137428C2-3E76-4967-80B7-832A283920FE}" name="Category" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E65397B1-A5C0-4295-92BC-94F297A440D3}" name="Income" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{24341281-92AB-4EFB-B21C-5B47B39C7765}" name="Debits" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5E3AD812-3C1B-42A5-9160-691E6252E0BD}" name="Balance" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{C1C1E0C0-4B25-4094-BFB6-A6718E2A0A5F}" name="Month for Savings" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4245AF5B-14D4-4F88-A53E-F9A0DF90EA38}" name="Savings Balance" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{018BF1C1-066F-4C09-BA0F-65F039FE7FF0}" name="Date" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{32933DDB-D71E-4CBA-8BDB-5E557A250AF1}" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{137428C2-3E76-4967-80B7-832A283920FE}" name="Category" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{E65397B1-A5C0-4295-92BC-94F297A440D3}" name="Income" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{24341281-92AB-4EFB-B21C-5B47B39C7765}" name="Debits" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{5E3AD812-3C1B-42A5-9160-691E6252E0BD}" name="Balance" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{C1C1E0C0-4B25-4094-BFB6-A6718E2A0A5F}" name="Month for Savings" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{4245AF5B-14D4-4F88-A53E-F9A0DF90EA38}" name="Savings Balance" dataDxfId="20">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1866,10 +2025,32 @@
 </table>
 </file>
 
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3F673F8C-2288-43D8-B3AC-AF3853CC5B17}" name="Table1454254" displayName="Table1454254" ref="A1:I49" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{753FEEC3-4193-4B30-BE9A-EE126761F449}" name="Month" dataDxfId="8">
+      <calculatedColumnFormula>MONTH(Table1454254[[#This Row],[Date]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E76CAD17-AA72-4A06-894B-DD71EA212904}" name="Date" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{93EF9266-6294-48D3-9E44-9E4D86B8C864}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D466057F-D8D0-47A9-B6D7-5ABE9AB2E544}" name="Category" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{BCFF38BB-70D8-474F-ABF2-6BBFEE00611C}" name="Income" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{AF07AB87-35D2-4B16-A619-D67D4318D87C}" name="Debits" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D0D9F66D-09EA-4616-841E-EA82CFFCACD2}" name="Balance" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{BF527D65-73AF-4098-9578-AC870161BD34}" name="Month for Savings" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{AA06D605-D263-4D53-A185-07E024C0B5C8}" name="Savings Balance" dataDxfId="0">
+      <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1907,7 +2088,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2013,7 +2194,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2155,7 +2336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2169,59 +2350,59 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="114" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="113" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="114" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="114" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="110" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="113" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.44140625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="113" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="113" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="109" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="112" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="70">
         <v>5700</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="103">
+      <c r="D1" s="102">
         <v>1000</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="103">
+      <c r="F1" s="102">
         <v>2000</v>
       </c>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="107">
+      <c r="H1" s="106">
         <v>500</v>
       </c>
-      <c r="I1" s="136" t="s">
+      <c r="I1" s="137" t="s">
         <v>101</v>
       </c>
       <c r="J1" s="71">
         <v>500</v>
       </c>
-      <c r="K1" s="138" t="s">
+      <c r="K1" s="139" t="s">
         <v>101</v>
       </c>
       <c r="L1" s="73" t="s">
@@ -2232,90 +2413,90 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="104" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="106" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="108" t="s">
+      <c r="G2" s="136"/>
+      <c r="H2" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="137"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="138"/>
+      <c r="K2" s="139"/>
       <c r="L2" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="133" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="105" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="105" t="s">
+      <c r="E3" s="136"/>
+      <c r="F3" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="135"/>
-      <c r="H3" s="109" t="s">
+      <c r="G3" s="136"/>
+      <c r="H3" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="137"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="138"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="133"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="134"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
-      <c r="B4" s="111">
+      <c r="B4" s="110">
         <v>-2460</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="113">
         <v>45294</v>
       </c>
-      <c r="D4" s="112">
+      <c r="D4" s="111">
         <v>500</v>
       </c>
-      <c r="E4" s="114">
+      <c r="E4" s="113">
         <v>45262</v>
       </c>
       <c r="F4" s="2">
         <v>263</v>
       </c>
-      <c r="G4" s="114">
+      <c r="G4" s="113">
         <v>45262</v>
       </c>
-      <c r="H4" s="110">
+      <c r="H4" s="109">
         <v>500</v>
       </c>
-      <c r="I4" s="115">
+      <c r="I4" s="114">
         <v>45297</v>
       </c>
       <c r="L4" s="45"/>
@@ -2326,26 +2507,26 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76"/>
       <c r="B5" s="43"/>
       <c r="D5" s="2">
         <v>1000</v>
       </c>
-      <c r="E5" s="114">
+      <c r="E5" s="113">
         <v>45297</v>
       </c>
       <c r="F5" s="2">
         <v>1500</v>
       </c>
-      <c r="G5" s="114">
+      <c r="G5" s="113">
         <v>45297</v>
       </c>
       <c r="L5" s="45"/>
       <c r="M5" s="44"/>
       <c r="N5" s="80"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="84" t="s">
@@ -2355,7 +2536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="88" t="s">
@@ -2365,7 +2546,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="88" t="s">
@@ -2373,7 +2554,7 @@
       </c>
       <c r="N8" s="82"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="88" t="s">
@@ -2383,7 +2564,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="89" t="s">
@@ -2393,99 +2574,99 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
@@ -2509,48 +2690,48 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="29" customWidth="1"/>
     <col min="8" max="8" width="17" style="32" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" style="30" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="35"/>
-      <c r="F1" s="146">
+      <c r="F1" s="147">
         <v>2024</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="148"/>
-    </row>
-    <row r="2" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="149"/>
+    </row>
+    <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
       <c r="B2" s="67"/>
       <c r="C2" s="44"/>
@@ -2580,8 +2761,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="95" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="67"/>
@@ -2590,25 +2771,29 @@
       <c r="F3" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="29">
+        <v>8246</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="50">
         <v>5460</v>
       </c>
-      <c r="J3" s="142">
+      <c r="J3" s="144">
         <f>SUM(I3+I4-L3)</f>
         <v>-2540</v>
       </c>
       <c r="K3" s="51">
         <f>SUM(G3+H3-I3)</f>
-        <v>-5460</v>
-      </c>
-      <c r="L3" s="144">
+        <v>2786</v>
+      </c>
+      <c r="L3" s="143">
         <v>8000</v>
       </c>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="154">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>47</v>
       </c>
@@ -2622,18 +2807,19 @@
       <c r="F4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29">
+        <v>1205</v>
+      </c>
       <c r="I4" s="50"/>
-      <c r="J4" s="143"/>
+      <c r="J4" s="145"/>
       <c r="K4" s="51">
         <f>SUM(G4+H4-I4)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="144"/>
-      <c r="M4" s="92"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1205</v>
+      </c>
+      <c r="L4" s="143"/>
+      <c r="M4" s="91"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>52</v>
       </c>
@@ -2645,23 +2831,21 @@
       <c r="F5" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29"/>
       <c r="I5" s="50"/>
-      <c r="J5" s="142">
+      <c r="J5" s="144">
         <f>SUM(I6+I7-L5)</f>
         <v>-9000</v>
       </c>
       <c r="K5" s="51">
-        <f t="shared" ref="K5:K26" si="0">SUM(G5+H5-I5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="145">
+        <f>SUM(G5+H5-I5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="142">
         <v>9000</v>
       </c>
-      <c r="M5" s="93"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="92"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
         <v>160</v>
       </c>
@@ -2678,15 +2862,15 @@
       <c r="G6" s="31"/>
       <c r="H6" s="29"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="143"/>
+      <c r="J6" s="145"/>
       <c r="K6" s="51">
         <f>SUM(G6+H6-I6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="145"/>
-      <c r="M6" s="92"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="142"/>
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>46</v>
       </c>
@@ -2701,20 +2885,20 @@
       <c r="G7" s="31"/>
       <c r="H7" s="29"/>
       <c r="I7" s="50"/>
-      <c r="J7" s="142">
+      <c r="J7" s="144">
         <f>SUM(I8+I9-L7)</f>
         <v>-9000</v>
       </c>
       <c r="K7" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="144">
+        <f t="shared" ref="K5:K26" si="0">SUM(G7+H7-I7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="143">
         <v>9000</v>
       </c>
-      <c r="M7" s="93"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="92"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>43</v>
       </c>
@@ -2729,19 +2913,19 @@
       <c r="G8" s="31"/>
       <c r="H8" s="29"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="143"/>
+      <c r="J8" s="145"/>
       <c r="K8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="144"/>
-      <c r="M8" s="94"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="97" t="s">
+      <c r="L8" s="143"/>
+      <c r="M8" s="93"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="98">
         <f>SUM(B4:B8)</f>
         <v>9200</v>
       </c>
@@ -2753,7 +2937,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="29"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="142">
+      <c r="J9" s="144">
         <f>SUM(I10+I11-L9)</f>
         <v>-9000</v>
       </c>
@@ -2761,12 +2945,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="145">
+      <c r="L9" s="142">
         <v>9000</v>
       </c>
-      <c r="M9" s="93"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="92"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="43"/>
       <c r="C10" s="44"/>
@@ -2777,15 +2961,15 @@
       <c r="G10" s="31"/>
       <c r="H10" s="29"/>
       <c r="I10" s="52"/>
-      <c r="J10" s="143"/>
+      <c r="J10" s="145"/>
       <c r="K10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="94"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" s="142"/>
+      <c r="M10" s="93"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="43"/>
       <c r="C11" s="44"/>
@@ -2796,7 +2980,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="52"/>
-      <c r="J11" s="142">
+      <c r="J11" s="144">
         <f>SUM(I12+I13-L11)</f>
         <v>-9000</v>
       </c>
@@ -2804,12 +2988,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="144">
+      <c r="L11" s="143">
         <v>9000</v>
       </c>
-      <c r="M11" s="93"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="92"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -2820,21 +3004,21 @@
       <c r="G12" s="53"/>
       <c r="H12" s="31"/>
       <c r="I12" s="52"/>
-      <c r="J12" s="143"/>
+      <c r="J12" s="145"/>
       <c r="K12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="144"/>
-      <c r="M12" s="94"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="139" t="s">
+      <c r="L12" s="143"/>
+      <c r="M12" s="93"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="29" t="s">
         <v>107</v>
       </c>
@@ -2844,7 +3028,7 @@
       <c r="G13" s="53"/>
       <c r="H13" s="31"/>
       <c r="I13" s="52"/>
-      <c r="J13" s="142">
+      <c r="J13" s="144">
         <f>SUM(I14+I15-L13)</f>
         <v>-9000</v>
       </c>
@@ -2852,23 +3036,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="145">
+      <c r="L13" s="142">
         <v>9000</v>
       </c>
-      <c r="M13" s="93"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="116" t="s">
+      <c r="M13" s="92"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="99">
         <v>5700</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="117">
+      <c r="C14" s="100"/>
+      <c r="D14" s="116">
         <v>2460</v>
       </c>
-      <c r="E14" s="156">
+      <c r="E14" s="132">
         <v>2500</v>
       </c>
       <c r="F14" s="42" t="s">
@@ -2876,16 +3060,16 @@
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="52"/>
-      <c r="J14" s="143"/>
+      <c r="J14" s="145"/>
       <c r="K14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="145"/>
-      <c r="M14" s="94"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="118" t="s">
+      <c r="L14" s="142"/>
+      <c r="M14" s="93"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="117" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="66">
@@ -2894,7 +3078,7 @@
       <c r="C15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="119">
+      <c r="D15" s="118">
         <v>1000</v>
       </c>
       <c r="F15" s="41" t="s">
@@ -2902,7 +3086,7 @@
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="52"/>
-      <c r="J15" s="142">
+      <c r="J15" s="144">
         <f>SUM(I16+I17-L15)</f>
         <v>-9000</v>
       </c>
@@ -2910,13 +3094,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="144">
+      <c r="L15" s="143">
         <v>9000</v>
       </c>
-      <c r="M15" s="93"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="118" t="s">
+      <c r="M15" s="92"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="117" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="66">
@@ -2925,7 +3109,7 @@
       <c r="C16" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="119">
+      <c r="D16" s="118">
         <v>1500</v>
       </c>
       <c r="F16" s="42" t="s">
@@ -2934,32 +3118,32 @@
       <c r="G16" s="53"/>
       <c r="H16" s="31"/>
       <c r="I16" s="52"/>
-      <c r="J16" s="143"/>
+      <c r="J16" s="145"/>
       <c r="K16" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="144"/>
-      <c r="M16" s="94"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="120" t="s">
+      <c r="L16" s="143"/>
+      <c r="M16" s="93"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="101">
         <v>500</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="122"/>
+      <c r="D17" s="121"/>
       <c r="F17" s="41" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="29"/>
       <c r="I17" s="52"/>
-      <c r="J17" s="142">
+      <c r="J17" s="144">
         <f>SUM(I18+I19-L17)</f>
         <v>-9000</v>
       </c>
@@ -2967,13 +3151,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="145">
+      <c r="L17" s="142">
         <v>9000</v>
       </c>
-      <c r="M17" s="93"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="118" t="s">
+      <c r="M17" s="92"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="117" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="66">
@@ -2982,7 +3166,7 @@
       <c r="C18" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="129">
+      <c r="D18" s="128">
         <v>500</v>
       </c>
       <c r="F18" s="42" t="s">
@@ -2991,23 +3175,23 @@
       <c r="G18" s="31"/>
       <c r="H18" s="29"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="143"/>
+      <c r="J18" s="145"/>
       <c r="K18" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="145"/>
-      <c r="M18" s="94"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="118" t="s">
+      <c r="L18" s="142"/>
+      <c r="M18" s="93"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="117" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="66">
         <v>8700</v>
       </c>
       <c r="C19" s="44"/>
-      <c r="D19" s="131">
+      <c r="D19" s="130">
         <f>SUM(D14+D15+D16+D18-B19)</f>
         <v>-3240</v>
       </c>
@@ -3018,7 +3202,7 @@
       <c r="G19" s="31"/>
       <c r="H19" s="29"/>
       <c r="I19" s="52"/>
-      <c r="J19" s="142">
+      <c r="J19" s="144">
         <f>SUM(I20+I21-L19)</f>
         <v>-9000</v>
       </c>
@@ -3026,15 +3210,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="144">
+      <c r="L19" s="143">
         <v>9000</v>
       </c>
-      <c r="M19" s="93"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="123"/>
-      <c r="B20" s="124"/>
-      <c r="D20" s="130" t="s">
+      <c r="M19" s="92"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="122"/>
+      <c r="B20" s="123"/>
+      <c r="D20" s="129" t="s">
         <v>106</v>
       </c>
       <c r="F20" s="42" t="s">
@@ -3043,26 +3227,26 @@
       <c r="G20" s="31"/>
       <c r="H20" s="29"/>
       <c r="I20" s="52"/>
-      <c r="J20" s="143"/>
+      <c r="J20" s="145"/>
       <c r="K20" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="144"/>
-      <c r="M20" s="94"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="125"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="128"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="93"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="124"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
       <c r="F21" s="41" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="29"/>
       <c r="I21" s="52"/>
-      <c r="J21" s="142">
+      <c r="J21" s="144">
         <f>SUM(I22+I23-L21)</f>
         <v>-9000</v>
       </c>
@@ -3070,12 +3254,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="145">
+      <c r="L21" s="142">
         <v>9000</v>
       </c>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="29"/>
       <c r="F22" s="42" t="s">
         <v>86</v>
@@ -3083,15 +3267,15 @@
       <c r="G22" s="31"/>
       <c r="H22" s="29"/>
       <c r="I22" s="52"/>
-      <c r="J22" s="143"/>
+      <c r="J22" s="145"/>
       <c r="K22" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="145"/>
-      <c r="M22" s="94"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L22" s="142"/>
+      <c r="M22" s="93"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D23" s="29"/>
       <c r="F23" s="41" t="s">
         <v>87</v>
@@ -3099,7 +3283,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="29"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="142">
+      <c r="J23" s="144">
         <f>SUM(I24+I25-L23)</f>
         <v>-9000</v>
       </c>
@@ -3107,12 +3291,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="144">
+      <c r="L23" s="143">
         <v>9000</v>
       </c>
-      <c r="M23" s="93"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="92"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="29"/>
       <c r="F24" s="42" t="s">
         <v>88</v>
@@ -3120,15 +3304,15 @@
       <c r="G24" s="31"/>
       <c r="H24" s="29"/>
       <c r="I24" s="52"/>
-      <c r="J24" s="143"/>
+      <c r="J24" s="145"/>
       <c r="K24" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="144"/>
-      <c r="M24" s="94"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L24" s="143"/>
+      <c r="M24" s="93"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D25" s="29"/>
       <c r="F25" s="41" t="s">
         <v>89</v>
@@ -3136,7 +3320,7 @@
       <c r="G25" s="31"/>
       <c r="H25" s="29"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="142">
+      <c r="J25" s="144">
         <f>SUM(I26+I27-L25)</f>
         <v>-9000</v>
       </c>
@@ -3144,12 +3328,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="145">
+      <c r="L25" s="142">
         <v>9000</v>
       </c>
-      <c r="M25" s="93"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="92"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="29"/>
       <c r="F26" s="42" t="s">
         <v>90</v>
@@ -3157,21 +3341,21 @@
       <c r="G26" s="31"/>
       <c r="H26" s="29"/>
       <c r="I26" s="52"/>
-      <c r="J26" s="151"/>
+      <c r="J26" s="146"/>
       <c r="K26" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="145"/>
-      <c r="M26" s="94"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="142"/>
+      <c r="M26" s="93"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D27" s="29"/>
       <c r="F27" s="55"/>
       <c r="G27" s="56"/>
       <c r="H27" s="57"/>
       <c r="I27" s="58"/>
-      <c r="J27" s="149">
+      <c r="J27" s="140">
         <f>SUM(J3:J26)</f>
         <v>-101540</v>
       </c>
@@ -3179,18 +3363,18 @@
       <c r="L27" s="3"/>
       <c r="M27" s="63"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="29"/>
       <c r="F28" s="55"/>
       <c r="G28" s="56"/>
       <c r="H28" s="57"/>
       <c r="I28" s="58"/>
-      <c r="J28" s="150"/>
+      <c r="J28" s="141"/>
       <c r="K28" s="57"/>
       <c r="L28" s="3"/>
       <c r="M28" s="63"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="29"/>
       <c r="F29" s="59"/>
       <c r="G29" s="60"/>
@@ -3203,40 +3387,56 @@
       <c r="L29" s="64"/>
       <c r="M29" s="65"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H30" s="31"/>
       <c r="I30" s="29"/>
       <c r="J30" s="32"/>
       <c r="K30" s="30"/>
       <c r="L30" s="29"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H31" s="31"/>
       <c r="I31" s="29"/>
       <c r="J31" s="32"/>
       <c r="K31" s="30"/>
       <c r="L31" s="29"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I35"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I36"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I39"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L21:L22"/>
@@ -3248,22 +3448,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3277,30 +3461,30 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="11" width="30.44140625" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.109375" customWidth="1"/>
-    <col min="15" max="15" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3353,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3389,7 +3573,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3433,7 +3617,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3468,7 +3652,7 @@
       </c>
       <c r="L5">
         <f>SUMIFS(Table14542[[#All],[Income]],Table14542[[#All],[Month]],K4,Table14542[[#All],[Category]],K5)</f>
-        <v>4813</v>
+        <v>6018</v>
       </c>
       <c r="M5" s="23">
         <v>10000</v>
@@ -3478,7 +3662,7 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3513,14 +3697,14 @@
       </c>
       <c r="L6">
         <f>SUMIFS(Table14542[[#All],[Debits]],Table14542[[#All],[Month]],K4, Table14542[[#All],[Category]],K6)</f>
-        <v>0</v>
+        <v>3096</v>
       </c>
       <c r="M6" s="23">
         <v>2000</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3555,14 +3739,14 @@
       </c>
       <c r="L7">
         <f>SUMIFS(Table14542[[#All],[Debits]],Table14542[[#All],[Month]],K4, Table14542[[#All],[Category]],K7)</f>
-        <v>200</v>
+        <v>1260</v>
       </c>
       <c r="M7" s="23">
         <v>2000</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3573,7 +3757,9 @@
       <c r="C8" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14">
         <v>25</v>
@@ -3595,14 +3781,14 @@
       </c>
       <c r="L8">
         <f>SUMIFS(Table14542[[#All],[Debits]],Table14542[[#All],[Month]],K4, Table14542[[#All],[Category]],K8)</f>
-        <v>100</v>
+        <v>1772</v>
       </c>
       <c r="M8" s="23">
         <v>3500</v>
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3613,7 +3799,9 @@
       <c r="C9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14">
         <v>100</v>
@@ -3639,7 +3827,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3650,7 +3838,9 @@
       <c r="C10" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14">
         <v>95</v>
@@ -3672,7 +3862,7 @@
       </c>
       <c r="L10">
         <f>SUMIFS(Table14542[[#All],[Income]],Table14542[[#All],[Month]],K4,Table14542[[#All],[Category]],K10)</f>
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="M10" s="23">
         <v>10000</v>
@@ -3682,7 +3872,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3693,7 +3883,9 @@
       <c r="C11" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14">
         <v>330</v>
@@ -3716,7 +3908,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3727,7 +3919,9 @@
       <c r="C12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14">
         <v>100</v>
@@ -3753,7 +3947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3764,7 +3958,9 @@
       <c r="C13" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14">
         <v>40</v>
@@ -3793,7 +3989,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3804,7 +4000,9 @@
       <c r="C14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14">
         <v>90</v>
@@ -3821,7 +4019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3830,7 +4028,9 @@
       <c r="C15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14">
         <v>160</v>
@@ -3847,7 +4047,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3858,7 +4058,9 @@
       <c r="C16" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14">
         <v>40</v>
@@ -3881,7 +4083,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3892,7 +4094,9 @@
       <c r="C17" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14">
         <v>50</v>
@@ -3915,7 +4119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3924,7 +4128,9 @@
       <c r="C18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14">
         <v>59</v>
@@ -3938,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3949,7 +4155,9 @@
       <c r="C19" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14">
         <v>120</v>
@@ -3967,7 +4175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -3976,7 +4184,9 @@
       <c r="C20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14">
         <v>50</v>
@@ -3994,7 +4204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4005,7 +4215,9 @@
       <c r="C21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14">
         <v>50</v>
@@ -4019,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4028,7 +4240,9 @@
       <c r="C22" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14">
         <v>50</v>
@@ -4042,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4053,7 +4267,9 @@
       <c r="C23" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14">
         <v>65</v>
@@ -4067,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4076,7 +4292,9 @@
       <c r="C24" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14">
         <v>280</v>
@@ -4090,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4099,7 +4317,9 @@
       <c r="C25" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14">
         <v>99</v>
@@ -4112,12 +4332,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="152" t="s">
+      <c r="K25" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="152"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="153"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4126,7 +4346,9 @@
       <c r="C26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14">
         <v>74</v>
@@ -4140,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4151,7 +4373,9 @@
       <c r="C27" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14">
         <v>50</v>
@@ -4165,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4176,7 +4400,9 @@
       <c r="C28" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14">
         <v>52</v>
@@ -4190,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4199,7 +4425,9 @@
       <c r="C29" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="E29" s="14">
         <v>305</v>
       </c>
@@ -4213,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4224,7 +4452,9 @@
       <c r="C30" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14">
         <v>72</v>
@@ -4238,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4249,7 +4479,9 @@
       <c r="C31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14">
         <v>75</v>
@@ -4263,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4272,7 +4504,9 @@
       <c r="C32" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14">
         <v>35</v>
@@ -4286,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4297,7 +4531,9 @@
       <c r="C33" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14">
         <v>40</v>
@@ -4311,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4320,7 +4556,9 @@
       <c r="C34" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14">
         <v>35</v>
@@ -4334,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4345,7 +4583,9 @@
       <c r="C35" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14">
         <v>22</v>
@@ -4359,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4368,7 +4608,9 @@
       <c r="C36" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="E36" s="14">
         <v>400</v>
       </c>
@@ -4382,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4393,7 +4635,9 @@
       <c r="C37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14">
         <v>100</v>
@@ -4407,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4416,7 +4660,9 @@
       <c r="C38" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14">
         <v>55</v>
@@ -4430,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4441,7 +4687,9 @@
       <c r="C39" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14">
         <v>30</v>
@@ -4455,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4464,7 +4712,9 @@
       <c r="C40" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="E40" s="14">
         <v>2500</v>
       </c>
@@ -4478,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4487,7 +4737,9 @@
       <c r="C41" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14">
         <v>650</v>
@@ -4501,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4510,7 +4762,9 @@
       <c r="C42" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14">
         <v>650</v>
@@ -4524,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4533,7 +4787,9 @@
       <c r="C43" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14">
         <v>1000</v>
@@ -4547,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4556,7 +4812,9 @@
       <c r="C44" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14">
         <v>51</v>
@@ -4570,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4579,7 +4837,9 @@
       <c r="C45" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14">
         <v>20</v>
@@ -4593,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4604,7 +4864,9 @@
       <c r="C46" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="13"/>
+      <c r="D46" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14">
         <v>26</v>
@@ -4618,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4627,7 +4889,9 @@
       <c r="C47" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14">
         <v>20</v>
@@ -4641,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4650,7 +4914,9 @@
       <c r="C48" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14">
         <v>65</v>
@@ -4664,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
@@ -4675,7 +4941,9 @@
       <c r="C49" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14">
         <v>28</v>
@@ -4689,18 +4957,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="154">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B50" s="153">
+      <c r="B50" s="12">
         <v>45317</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14">
         <v>26</v>
@@ -4710,21 +4980,23 @@
         <v>-33</v>
       </c>
       <c r="H50" s="14"/>
-      <c r="I50" s="155">
+      <c r="I50" s="131">
         <f t="shared" ref="I50:I65" si="1">SUM(K57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="154">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B51" s="153"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14">
         <v>23</v>
@@ -4739,18 +5011,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="154">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B52" s="153">
+      <c r="B52" s="12">
         <v>45318</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14">
         <v>50</v>
@@ -4760,21 +5034,23 @@
         <v>-106</v>
       </c>
       <c r="H52" s="14"/>
-      <c r="I52" s="155">
+      <c r="I52" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="154">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B53" s="153"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14">
         <v>50</v>
@@ -4789,18 +5065,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="154">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B54" s="153">
+      <c r="B54" s="12">
         <v>45319</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14">
         <v>350</v>
@@ -4810,21 +5088,23 @@
         <v>-506</v>
       </c>
       <c r="H54" s="14"/>
-      <c r="I54" s="155">
+      <c r="I54" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="154">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B55" s="153"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14">
         <v>200</v>
@@ -4839,16 +5119,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="154">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B56" s="153"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="E56" s="14">
         <v>200</v>
       </c>
@@ -4858,23 +5140,25 @@
         <v>-506</v>
       </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="155">
+      <c r="I56" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="154">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B57" s="153">
+      <c r="B57" s="12">
         <v>45320</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="E57" s="14">
         <v>350</v>
       </c>
@@ -4889,16 +5173,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="154">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B58" s="153"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="E58" s="14">
         <v>200</v>
       </c>
@@ -4908,23 +5194,25 @@
         <v>44</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="I58" s="155">
+      <c r="I58" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="154">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B59" s="153">
+      <c r="B59" s="12">
         <v>45321</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14">
         <v>50</v>
@@ -4939,18 +5227,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="154">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B60" s="153">
+      <c r="B60" s="12">
         <v>45322</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="E60" s="14">
         <v>100</v>
       </c>
@@ -4960,21 +5250,23 @@
         <v>94</v>
       </c>
       <c r="H60" s="14"/>
-      <c r="I60" s="155">
+      <c r="I60" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="154">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B61" s="153"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14">
         <v>100</v>
@@ -4989,16 +5281,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="154">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B62" s="153"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14">
         <v>26</v>
@@ -5008,17 +5302,17 @@
         <v>-32</v>
       </c>
       <c r="H62" s="14"/>
-      <c r="I62" s="155">
+      <c r="I62" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="154">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B63" s="153"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
@@ -5033,12 +5327,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="154">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B64" s="153"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
@@ -5048,17 +5342,17 @@
         <v>-32</v>
       </c>
       <c r="H64" s="14"/>
-      <c r="I64" s="155">
+      <c r="I64" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="154">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B65" s="153"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
@@ -5073,12 +5367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="154">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B66" s="153"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="14"/>
@@ -5088,17 +5382,17 @@
         <v>-32</v>
       </c>
       <c r="H66" s="14"/>
-      <c r="I66" s="155">
+      <c r="I66" s="131">
         <f t="shared" ref="I66:I77" si="2">SUM(K73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="154">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B67" s="153"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="14"/>
@@ -5113,12 +5407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="154">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B68" s="153"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="14"/>
@@ -5128,17 +5422,17 @@
         <v>-32</v>
       </c>
       <c r="H68" s="14"/>
-      <c r="I68" s="155">
+      <c r="I68" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="154">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B69" s="153"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="14"/>
@@ -5153,12 +5447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="154">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B70" s="153"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="14"/>
@@ -5168,17 +5462,17 @@
         <v>-32</v>
       </c>
       <c r="H70" s="14"/>
-      <c r="I70" s="155">
+      <c r="I70" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="154">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B71" s="153"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
@@ -5193,12 +5487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="154">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B72" s="153"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="14"/>
@@ -5208,17 +5502,17 @@
         <v>-32</v>
       </c>
       <c r="H72" s="14"/>
-      <c r="I72" s="155">
+      <c r="I72" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="154">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B73" s="153"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="14"/>
@@ -5233,12 +5527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="154">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B74" s="153"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="14"/>
@@ -5248,17 +5542,17 @@
         <v>-32</v>
       </c>
       <c r="H74" s="14"/>
-      <c r="I74" s="155">
+      <c r="I74" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="154">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B75" s="153"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="14"/>
@@ -5273,12 +5567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="154">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B76" s="153"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="14"/>
@@ -5288,17 +5582,17 @@
         <v>-32</v>
       </c>
       <c r="H76" s="14"/>
-      <c r="I76" s="155">
+      <c r="I76" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="154">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
         <f>MONTH(Table14542[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
-      <c r="B77" s="153"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="14"/>
@@ -5515,30 +5809,30 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="11" width="30.44140625" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.109375" customWidth="1"/>
-    <col min="15" max="15" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5567,7 +5861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -5589,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>2</v>
@@ -5623,12 +5917,14 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>45323</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>152</v>
       </c>
@@ -5650,7 +5946,7 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
@@ -5663,7 +5959,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>2</v>
@@ -5706,12 +6002,14 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>45324</v>
+      </c>
       <c r="C6" s="34" t="s">
         <v>154</v>
       </c>
@@ -5744,12 +6042,14 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="12">
+        <v>45324</v>
+      </c>
       <c r="C7" s="15" t="s">
         <v>155</v>
       </c>
@@ -5784,12 +6084,14 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>45324</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>156</v>
       </c>
@@ -5824,12 +6126,14 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45324</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>157</v>
       </c>
@@ -5859,7 +6163,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>2</v>
@@ -5902,12 +6206,14 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B11" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>45325</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>159</v>
       </c>
@@ -5934,7 +6240,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>2</v>
@@ -5971,7 +6277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6005,7 +6311,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6027,7 +6333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6049,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6077,7 +6383,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6105,7 +6411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6124,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6147,7 +6453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6170,7 +6476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6189,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6208,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6227,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6246,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6264,12 +6570,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="152" t="s">
+      <c r="K25" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="152"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="153"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6288,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6307,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6326,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6345,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6364,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6383,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6402,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6421,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6440,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6459,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6478,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6497,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6516,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6535,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6554,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6573,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6592,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6611,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6630,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6649,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6668,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6687,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6706,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <f>MONTH(Table1454253[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6928,29 +7234,29 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="11" width="30.44140625" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.109375" customWidth="1"/>
-    <col min="15" max="15" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6979,7 +7285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -6997,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7025,7 +7331,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7061,7 +7367,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7098,7 +7404,7 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7132,7 +7438,7 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7166,7 +7472,7 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7200,7 +7506,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7231,7 +7537,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7268,7 +7574,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7296,7 +7602,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7327,7 +7633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7361,7 +7667,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7383,7 +7689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7405,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7433,7 +7739,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7461,7 +7767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7480,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7503,7 +7809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7526,7 +7832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7545,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7564,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7583,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7602,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7620,12 +7926,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="152" t="s">
+      <c r="K25" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="152"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="153"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7644,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7663,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7682,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7701,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7720,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7739,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7758,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7777,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7796,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7815,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7834,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7853,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7872,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7891,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7910,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7929,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7948,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7967,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -7986,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -8005,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -8024,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -8043,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -8062,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <f>MONTH(Table145425[[#This Row],[Date]])</f>
         <v>1</v>
@@ -8169,7 +8475,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 K9" xr:uid="{5C8604C8-083B-484D-9371-9B38FEF0014B}">
       <formula1>"Income, Transportation, Savings/Investment, Liabilities, Entertainment/Wants, Savings/Investment Used"</formula1>
     </dataValidation>
@@ -8274,4 +8580,1566 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEFBE89-0A62-4592-A351-A03040560556}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
+        <f>SUM(G2+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="21">
+        <f>SUMIFS(Table1454254[[#All],[Debits]],Table1454254[[#All],[Month]],K4, Table1454254[[#All],[Category]],K9)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
+        <f>SUM(G3+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" ref="I4:I49" si="0">SUM(K11)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <f>SUM(G4+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f>SUMIFS(Table1454254[[#All],[Income]],Table1454254[[#All],[Month]],K4,Table1454254[[#All],[Category]],K5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
+        <v>10000</v>
+      </c>
+      <c r="N5">
+        <v>4000</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
+        <f>SUM(G5+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="20">
+        <f>SUM(K100)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f>SUMIFS(Table1454254[[#All],[Debits]],Table1454254[[#All],[Month]],K4, Table1454254[[#All],[Category]],K6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>2000</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
+        <f>SUM(G6+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <f>SUMIFS(Table1454254[[#All],[Debits]],Table1454254[[#All],[Month]],K4, Table1454254[[#All],[Category]],K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <v>2000</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
+        <f>SUM(G7+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <f>SUMIFS(Table1454254[[#All],[Debits]],Table1454254[[#All],[Month]],K4, Table1454254[[#All],[Category]],K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="23">
+        <v>3500</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <f>SUM(G8+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <f>SUMIFS(Table1454254[[#All],[Debits]],Table1454254[[#All],[Month]],K4, Table1454254[[#All],[Category]],K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>8000</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <f>SUM(G9+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <f>SUMIFS(Table1454254[[#All],[Income]],Table1454254[[#All],[Month]],K4,Table1454254[[#All],[Category]],K10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <v>10000</v>
+      </c>
+      <c r="N10">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <f>SUM(G10+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <f>SUM(G11+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <f>SUM(G12+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <f>SUM(F2:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="27">
+        <f>SUM(Table1454254[Savings Balance])</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <f>SUM(1921-1400)</f>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <f>SUM(G13+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <f>SUM(G14+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="21">
+        <f>SUM(I2:I13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
+        <f>SUM(G15+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
+        <f>SUM(G16+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
+        <f>SUM(G17+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
+        <f>SUM(G18+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
+        <f>SUM(G19+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <f>SUM(G20+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <f>SUM(G21+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <f>SUM(G22+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
+        <f>SUM(G23+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
+        <f>SUM(G24+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="153" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="153"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
+        <f>SUM(G25+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <f>SUM(G26+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
+        <f>SUM(G27+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
+        <f>SUM(G28+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
+        <f>SUM(G29+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
+        <f>SUM(G30+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
+        <f>SUM(G31+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <f>SUM(G32+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14">
+        <f>SUM(G33+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14">
+        <f>SUM(G34+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14">
+        <f>SUM(G35+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
+        <f>SUM(G36+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
+        <f>SUM(G37+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14">
+        <f>SUM(G38+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14">
+        <f>SUM(G39+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14">
+        <f>SUM(G40+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14">
+        <f>SUM(G41+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14">
+        <f>SUM(G42+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14">
+        <f>SUM(G43+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14">
+        <f>SUM(G44+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14">
+        <f>SUM(G45+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14">
+        <f>SUM(G46+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14">
+        <f>SUM(G47+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
+        <f>MONTH(Table1454254[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14">
+        <f>SUM(G48+Table1454254[[#This Row],[Income]]-Table1454254[[#This Row],[Debits]])</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K25:L25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10000"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2D59455-20EF-4C1D-9D8A-1C9F93D1415B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7640F119-DDF4-4A63-A2AB-581E1C1A94F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{289AB9B6-1766-4282-920A-20DEB0ACAE52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3500"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AF2C1705-2F62-4F2D-A71B-A49E7EC05B54}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="8000"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8087E5A0-77A5-413D-AF0C-B4A30E56AC0B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="10000"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90255E23-E473-4CD7-B30A-48E49DDE6C86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 K9" xr:uid="{A6930FA2-1D7A-4A11-84EF-6AF3878CF716}">
+      <formula1>"Income, Transportation, Savings/Investment, Liabilities, Entertainment/Wants, Savings/Investment Used"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E2D59455-20EF-4C1D-9D8A-1C9F93D1415B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>10000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7640F119-DDF4-4A63-A2AB-581E1C1A94F6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{289AB9B6-1766-4282-920A-20DEB0ACAE52}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AF2C1705-2F62-4F2D-A71B-A49E7EC05B54}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3500</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8087E5A0-77A5-413D-AF0C-B4A30E56AC0B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90255E23-E473-4CD7-B30A-48E49DDE6C86}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>10000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4E2705-6778-441F-A3D7-29F80EB7CC81}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="155" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="155" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="155" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="155" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="155" customWidth="1"/>
+    <col min="6" max="6" width="21" style="155" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="155" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="155" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="155"/>
+    <col min="10" max="10" width="14.28515625" style="155" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="155" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="155"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="155" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="156" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="155" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="155">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="155" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="155" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="155" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="155" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="155" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="155" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="155" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="155" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="155" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="155" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="155" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="155" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="155" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="156" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="156" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="157" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="155" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="155" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="155" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PERSONAL BUSINESS/BUDGET 2024.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3A549-FC15-4F36-855C-364D37EE032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFDF691-1750-4F0E-AFE3-388A4D1F868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="2925" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTA BASED" sheetId="23" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="TEMPLATE" sheetId="24" r:id="rId5"/>
     <sheet name="TEMPLATE (2)" sheetId="27" r:id="rId6"/>
     <sheet name="Practice" sheetId="26" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="205">
   <si>
     <t>Month</t>
   </si>
@@ -581,9 +582,6 @@
     <t>LIABILITIES CATEGORY</t>
   </si>
   <si>
-    <t>COST OF LIVING</t>
-  </si>
-  <si>
     <t>INVESTMENTS</t>
   </si>
   <si>
@@ -602,9 +600,6 @@
     <t>SIDE JOB</t>
   </si>
   <si>
-    <t>COST OF LIVING / DEBIT</t>
-  </si>
-  <si>
     <t>EXCESS CASH</t>
   </si>
   <si>
@@ -636,13 +631,40 @@
   </si>
   <si>
     <t>MONEY CYCLE</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>LUXURIES</t>
+  </si>
+  <si>
+    <t>10000 / 18000</t>
+  </si>
+  <si>
+    <t>OVERALL EXPENSE OF LIFE</t>
+  </si>
+  <si>
+    <t>2ND CUT OFF</t>
+  </si>
+  <si>
+    <t>credit gastos</t>
+  </si>
+  <si>
+    <t>cash gastos</t>
+  </si>
+  <si>
+    <t>online gastos</t>
+  </si>
+  <si>
+    <t>debit category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -650,6 +672,7 @@
     <numFmt numFmtId="167" formatCode="[$₱-464]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="169" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -852,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1341,13 +1364,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1744,6 +1776,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3461,7 +3523,7 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -9940,10 +10002,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4E2705-6778-441F-A3D7-29F80EB7CC81}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9962,18 +10024,36 @@
     <col min="12" max="16384" width="9.140625" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
-        <v>197</v>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="158">
+        <v>8000</v>
+      </c>
+      <c r="B1" s="158">
+        <v>6000</v>
+      </c>
+      <c r="C1" s="158">
+        <v>10000</v>
+      </c>
+      <c r="D1" s="164">
+        <v>6000</v>
+      </c>
+      <c r="E1" s="158" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="158">
+        <v>20000</v>
       </c>
       <c r="J1" s="155" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K1" s="155" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="L1" s="155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
         <v>168</v>
       </c>
@@ -9981,28 +10061,31 @@
         <v>169</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="156" t="s">
         <v>172</v>
+      </c>
+      <c r="D2" s="160" t="s">
+        <v>178</v>
       </c>
       <c r="E2" s="156" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="156" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G2" s="156" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H2" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="155">
+      <c r="J2" s="155">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K2" s="155">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
         <v>171</v>
       </c>
@@ -10010,22 +10093,22 @@
         <v>46</v>
       </c>
       <c r="C3" s="155" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="155" t="s">
         <v>173</v>
+      </c>
+      <c r="D3" s="159" t="s">
+        <v>180</v>
       </c>
       <c r="E3" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="155" t="s">
-        <v>177</v>
+      <c r="G3" s="155" t="s">
+        <v>181</v>
       </c>
       <c r="H3" s="155" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="155" t="s">
         <v>166</v>
       </c>
@@ -10033,80 +10116,128 @@
         <v>43</v>
       </c>
       <c r="C4" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="155" t="s">
         <v>174</v>
+      </c>
+      <c r="D4" s="159" t="s">
+        <v>196</v>
       </c>
       <c r="E4" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="155" t="s">
-        <v>179</v>
+      <c r="G4" s="155" t="s">
+        <v>182</v>
       </c>
       <c r="H4" s="155" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="155" t="s">
+        <v>177</v>
+      </c>
       <c r="B5" s="155" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="155" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="155" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="D5" s="159"/>
+      <c r="G5" s="155" t="s">
+        <v>183</v>
       </c>
       <c r="H5" s="155" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="155" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="155" t="s">
-        <v>185</v>
+      <c r="D6" s="159"/>
+      <c r="G6" s="155" t="s">
+        <v>184</v>
       </c>
       <c r="H6" s="155" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="155" t="s">
-        <v>186</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="155" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="159"/>
       <c r="H7" s="155" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
-        <v>196</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="155" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="159"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="166">
+        <f>SUM(A1+B1+D1)</f>
+        <v>20000</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="167"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="161"/>
+      <c r="B11" s="165" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="165"/>
+      <c r="D11" s="159"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="161"/>
+      <c r="D12" s="159"/>
+    </row>
+    <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="162" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="159"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="159"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="159"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="156" t="s">
         <v>162</v>
       </c>
       <c r="B17" s="156" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="156" t="s">
         <v>189</v>
-      </c>
-      <c r="C17" s="156" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="156" t="s">
-        <v>191</v>
       </c>
       <c r="E17" s="156" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="157" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10117,13 +10248,13 @@
         <v>168</v>
       </c>
       <c r="C18" s="155" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E18" s="155" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -10137,6 +10268,61 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="155" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="155">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F272E2F-E2B0-47A2-BF58-42FC76E6AC48}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/PERSONAL BUSINESS/BUDGET 2024.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9432F83-FF66-4BBF-8FDF-A7F954D62CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579927BD-661B-4684-911A-77B66E56C703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="QUOTA BASED" sheetId="23" r:id="rId2"/>
     <sheet name="January" sheetId="19" r:id="rId3"/>
     <sheet name="February New" sheetId="28" r:id="rId4"/>
-    <sheet name="template new" sheetId="30" r:id="rId5"/>
+    <sheet name="February New (2)" sheetId="31" r:id="rId5"/>
     <sheet name="TEMPLATE" sheetId="24" r:id="rId6"/>
     <sheet name="Practice" sheetId="26" r:id="rId7"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="299">
   <si>
     <t>Month</t>
   </si>
@@ -629,9 +629,6 @@
     <t>Debit Expected</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>GRAND LIMIT</t>
   </si>
   <si>
@@ -665,9 +662,6 @@
     <t>LIMIT</t>
   </si>
   <si>
-    <t>BALANCE CASH</t>
-  </si>
-  <si>
     <t>EXCESS CASH:</t>
   </si>
   <si>
@@ -695,12 +689,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Business Savings</t>
-  </si>
-  <si>
-    <t>QUOTA CATEGORY</t>
-  </si>
-  <si>
     <t>spoon n mang juan</t>
   </si>
   <si>
@@ -773,9 +761,6 @@
     <t>flower valentines</t>
   </si>
   <si>
-    <t>To Pay</t>
-  </si>
-  <si>
     <t>payment</t>
   </si>
   <si>
@@ -791,9 +776,6 @@
     <t>payment2</t>
   </si>
   <si>
-    <t>TOTAL NEEDED</t>
-  </si>
-  <si>
     <t>deadlines/to pay</t>
   </si>
   <si>
@@ -906,6 +888,57 @@
   </si>
   <si>
     <t>TOTAL TO PAY:</t>
+  </si>
+  <si>
+    <t>valentine flower</t>
+  </si>
+  <si>
+    <t>redhorse</t>
+  </si>
+  <si>
+    <t>monitor wire</t>
+  </si>
+  <si>
+    <t>gupit</t>
+  </si>
+  <si>
+    <t>gcash to maya to hc</t>
+  </si>
+  <si>
+    <t>home credit</t>
+  </si>
+  <si>
+    <t>relo</t>
+  </si>
+  <si>
+    <t>key dupli</t>
+  </si>
+  <si>
+    <t>deod</t>
+  </si>
+  <si>
+    <t>perfume</t>
+  </si>
+  <si>
+    <t>earrings</t>
+  </si>
+  <si>
+    <t>renz utang</t>
+  </si>
+  <si>
+    <t>softdtrinks</t>
+  </si>
+  <si>
+    <t>boodle food</t>
+  </si>
+  <si>
+    <t>vape</t>
+  </si>
+  <si>
+    <t>softdrinks work</t>
+  </si>
+  <si>
+    <t>burger steak work</t>
   </si>
 </sst>
 </file>
@@ -2452,15 +2485,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="13" fillId="25" borderId="54" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="29" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2533,6 +2560,70 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="25" borderId="43" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2542,36 +2633,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2635,45 +2696,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="25" borderId="43" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3113,8 +3144,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}" name="Table8" displayName="Table8" ref="A2:F69" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="Check Cell">
-  <autoFilter ref="A2:F69" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}" name="Table8" displayName="Table8" ref="A2:F82" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="Check Cell">
+  <autoFilter ref="A2:F82" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7615E4B-559A-4B45-B67A-974850B2E511}" name="MONTH" dataDxfId="61">
       <calculatedColumnFormula>MONTH(Table8[[#This Row],[DATE]])</calculatedColumnFormula>
@@ -3168,30 +3199,30 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1FF6074-FF1C-43E7-9744-96F3ED9AF9C7}" name="Table83" displayName="Table83" ref="A2:F69" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Check Cell">
-  <autoFilter ref="A2:F69" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5962E0B3-62E3-4BE3-A292-0780277E170E}" name="Table810" displayName="Table810" ref="A2:F82" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Check Cell">
+  <autoFilter ref="A2:F82" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4B07A87D-2119-427A-9C09-77AA80214E89}" name="MONTH" dataDxfId="24">
-      <calculatedColumnFormula>MONTH(Table83[[#This Row],[DATE]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{9DE79451-45ED-44C3-A314-E0B0A03944A8}" name="MONTH" dataDxfId="24">
+      <calculatedColumnFormula>MONTH(Table810[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A4F75F83-B67C-47B5-86E9-EDF056935C1B}" name="DATE" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{F841024A-DB3C-48C8-83C7-3D017FCE3B7A}" name="DESCRIPTION" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{DEA1D152-1B86-4B82-8C9A-ECAB625B224B}" name="CATEGORY" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{88DEA2BC-6CC8-4C00-B6CA-C77016C0A080}" name="CREDIT DEBIT" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{22CD0B27-9378-455D-9C1F-875EAEB3C1C3}" name="CASH DEBIT" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FEB72C41-2C62-4BD1-BD10-CFB12E58EB15}" name="DATE" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{CA04D2A0-F85E-48E8-82BA-5C1CBFB3F568}" name="DESCRIPTION" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{0DC06A44-8B79-4082-A076-DC8F77FD23E9}" name="CATEGORY" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{BC80BDCB-6F83-4172-BE97-F604D33B3081}" name="CREDIT DEBIT" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{D90BC451-ACDE-4355-852E-B958760D9AAF}" name="CASH DEBIT" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6E7AFB0-21EC-4DD6-B30C-941FE58705BA}" name="Table54" displayName="Table54" ref="G39:J62" totalsRowShown="0" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B0FF4B34-76E9-41E0-9AB8-DC820434DC12}" name="Table511" displayName="Table511" ref="G39:J62" totalsRowShown="0" tableBorderDxfId="18">
   <autoFilter ref="G39:J62" xr:uid="{F7C62F1D-9524-49D4-825B-A02F6B6DBF43}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{47EFF5AB-E68E-4F51-9F40-C7D3EC679802}" name="INCOME" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{78F651B4-488B-4B17-8C2E-704DC3A5CD2D}" name="CATEGORY"/>
-    <tableColumn id="3" xr3:uid="{8C404D5D-AD27-4021-A840-505EBEFA61D7}" name="DATE" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{6C12B76D-E992-4E19-B429-E77487814997}" name="MONTH" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{5B2297C4-EB5A-4298-8AE9-63DEB23B6B44}" name="INCOME" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0C822354-5133-4BCE-A683-25AF01BE8DC3}" name="CATEGORY"/>
+    <tableColumn id="3" xr3:uid="{BF10F449-93C1-4B4F-A864-30B6FD7BF238}" name="DATE" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{FDA8A346-D03C-4C25-BBFB-28B055F69FF5}" name="MONTH" dataDxfId="15">
       <calculatedColumnFormula>MONTH(I40)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3200,23 +3231,23 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0C6F80F1-9690-4CBF-8B7F-3F7D492BFF82}" name="Table77" displayName="Table77" ref="L3:W42" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Neutral">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0559127F-AF26-43DA-BFBC-FD4D9A57C1E2}" name="Table712" displayName="Table712" ref="L3:W42" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Neutral">
   <autoFilter ref="L3:W42" xr:uid="{C67B2D01-8D57-4A28-9D85-78CFA02AF5A1}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D131E07B-4EFA-4BCA-B489-3DD9FED4503E}" name="Liabilities" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B5533BE0-F92C-41B6-B7B4-07BA56B645BD}" name="payment" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{DA785CCD-2414-49D7-A648-51BF21862BBF}" name="date payed" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{3A5CCCBE-26AC-4D39-9380-E464814076BE}" name="deadlines/to pay" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{04930414-E723-49F6-BA0E-3C4C43418D74}" name="MONTH" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{FE87B24B-96A3-438A-8299-B60C572BCE83}" name="business" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{EFD85A16-4E21-4E41-8A8E-9F5AD342FA01}" name="payment2" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{44AB5805-99C7-4594-AB57-037C3F9F1B57}" name="BALANCE TO PAY" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0276232D-203D-4F3D-89DD-627CD23B9F0C}" name="DATE PAYED2" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{1FE1E5AB-F7CD-416A-8270-74DA064F9D06}" name="DEBT" dataDxfId="2">
-      <calculatedColumnFormula>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{483194A8-06ED-4077-9715-53D2213195CC}" name="Liabilities" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FF234FCD-DFB3-4279-A12C-0E2011A41D16}" name="payment" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3F402591-856F-46E2-9A3A-0F91A0CB0FAF}" name="date payed" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A3C01EF5-56A3-42E3-A38E-7DB588807B4A}" name="deadlines/to pay" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5A85B7C3-B451-4C4A-B1B3-9101EF8F29C4}" name="MONTH" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{DC1C47A5-DF98-45E8-88E1-40D539E042AA}" name="business" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{81CD4DEA-DA1E-4182-86E1-18FBD29C41F5}" name="payment2" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{080F2D32-690B-4278-9B2A-80E49B515E7C}" name="BALANCE TO PAY" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{DDBE2B8A-67DD-419F-B054-6786C54D34A7}" name="DATE PAYED2" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{7FCB04A3-861E-4CF4-80DB-158EE47B6CFE}" name="DEBT" dataDxfId="2">
+      <calculatedColumnFormula>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0CFF66E5-B219-4B04-81DE-8470AC429AAA}" name="DEADLINE" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{60E48411-A6AA-4D06-BA52-BB67410DCE5F}" name="MONTH22" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{2F5C6750-C3FA-4A8C-8F22-B370ACC71099}" name="DEADLINE" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{64EDF943-6495-488A-BC6E-3F07C8A92BEA}" name="MONTH22" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3577,16 +3608,16 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="35"/>
-      <c r="F1" s="226">
+      <c r="F1" s="236">
         <v>2024</v>
       </c>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="228"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
@@ -3635,7 +3666,7 @@
       <c r="I3" s="49">
         <v>5460</v>
       </c>
-      <c r="J3" s="222">
+      <c r="J3" s="233">
         <f>SUM(I3+I4-L3)</f>
         <v>-80</v>
       </c>
@@ -3643,7 +3674,7 @@
         <f>SUM(G3+H3-I3)</f>
         <v>2786</v>
       </c>
-      <c r="L3" s="224">
+      <c r="L3" s="232">
         <v>8000</v>
       </c>
       <c r="M3" s="127">
@@ -3670,12 +3701,12 @@
       <c r="I4" s="49">
         <v>2460</v>
       </c>
-      <c r="J4" s="223"/>
+      <c r="J4" s="234"/>
       <c r="K4" s="50">
         <f>SUM(G4+H4-I4)</f>
         <v>-1255</v>
       </c>
-      <c r="L4" s="224"/>
+      <c r="L4" s="232"/>
       <c r="M4" s="170">
         <v>45328</v>
       </c>
@@ -3693,7 +3724,7 @@
         <v>69</v>
       </c>
       <c r="I5" s="49"/>
-      <c r="J5" s="222">
+      <c r="J5" s="233">
         <f>SUM(I6+I7-L5)</f>
         <v>-9000</v>
       </c>
@@ -3701,7 +3732,7 @@
         <f>SUM(G5+H5-I5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="225">
+      <c r="L5" s="231">
         <v>9000</v>
       </c>
       <c r="M5" s="166"/>
@@ -3723,12 +3754,12 @@
       <c r="G6" s="31"/>
       <c r="H6" s="29"/>
       <c r="I6" s="49"/>
-      <c r="J6" s="223"/>
+      <c r="J6" s="234"/>
       <c r="K6" s="50">
         <f>SUM(G6+H6-I6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="225"/>
+      <c r="L6" s="231"/>
       <c r="M6" s="165"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3746,7 +3777,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="29"/>
       <c r="I7" s="49"/>
-      <c r="J7" s="222">
+      <c r="J7" s="233">
         <f>SUM(I8+I9-L7)</f>
         <v>-9000</v>
       </c>
@@ -3754,7 +3785,7 @@
         <f t="shared" ref="K7:K26" si="0">SUM(G7+H7-I7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="224">
+      <c r="L7" s="232">
         <v>9000</v>
       </c>
       <c r="M7" s="166"/>
@@ -3774,12 +3805,12 @@
       <c r="G8" s="31"/>
       <c r="H8" s="29"/>
       <c r="I8" s="49"/>
-      <c r="J8" s="223"/>
+      <c r="J8" s="234"/>
       <c r="K8" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="224"/>
+      <c r="L8" s="232"/>
       <c r="M8" s="167"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3798,7 +3829,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="29"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="222">
+      <c r="J9" s="233">
         <f>SUM(I10+I11-L9)</f>
         <v>-9000</v>
       </c>
@@ -3806,7 +3837,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="225">
+      <c r="L9" s="231">
         <v>9000</v>
       </c>
       <c r="M9" s="166"/>
@@ -3822,12 +3853,12 @@
       <c r="G10" s="31"/>
       <c r="H10" s="29"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="223"/>
+      <c r="J10" s="234"/>
       <c r="K10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="225"/>
+      <c r="L10" s="231"/>
       <c r="M10" s="167"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3841,7 +3872,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="222">
+      <c r="J11" s="233">
         <f>SUM(I12+I13-L11)</f>
         <v>-9000</v>
       </c>
@@ -3849,7 +3880,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="224">
+      <c r="L11" s="232">
         <v>9000</v>
       </c>
       <c r="M11" s="166"/>
@@ -3865,21 +3896,21 @@
       <c r="G12" s="52"/>
       <c r="H12" s="31"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="223"/>
+      <c r="J12" s="234"/>
       <c r="K12" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="224"/>
+      <c r="L12" s="232"/>
       <c r="M12" s="167"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219" t="s">
+      <c r="A13" s="239" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="220"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="221"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="29" t="s">
         <v>107</v>
       </c>
@@ -3889,7 +3920,7 @@
       <c r="G13" s="52"/>
       <c r="H13" s="31"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="222">
+      <c r="J13" s="233">
         <f>SUM(I14+I15-L13)</f>
         <v>-9000</v>
       </c>
@@ -3897,7 +3928,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="225">
+      <c r="L13" s="231">
         <v>9000</v>
       </c>
       <c r="M13" s="166"/>
@@ -3921,12 +3952,12 @@
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="51"/>
-      <c r="J14" s="223"/>
+      <c r="J14" s="234"/>
       <c r="K14" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="225"/>
+      <c r="L14" s="231"/>
       <c r="M14" s="167"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3947,7 +3978,7 @@
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="222">
+      <c r="J15" s="233">
         <f>SUM(I16+I17-L15)</f>
         <v>-9000</v>
       </c>
@@ -3955,7 +3986,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="224">
+      <c r="L15" s="232">
         <v>9000</v>
       </c>
       <c r="M15" s="166"/>
@@ -3979,12 +4010,12 @@
       <c r="G16" s="52"/>
       <c r="H16" s="31"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="223"/>
+      <c r="J16" s="234"/>
       <c r="K16" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="224"/>
+      <c r="L16" s="232"/>
       <c r="M16" s="167"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4004,7 +4035,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="29"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="222">
+      <c r="J17" s="233">
         <f>SUM(I18+I19-L17)</f>
         <v>-9000</v>
       </c>
@@ -4012,7 +4043,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="225">
+      <c r="L17" s="231">
         <v>9000</v>
       </c>
       <c r="M17" s="166"/>
@@ -4036,12 +4067,12 @@
       <c r="G18" s="31"/>
       <c r="H18" s="29"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="223"/>
+      <c r="J18" s="234"/>
       <c r="K18" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="225"/>
+      <c r="L18" s="231"/>
       <c r="M18" s="167"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4063,7 +4094,7 @@
       <c r="G19" s="31"/>
       <c r="H19" s="29"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="222">
+      <c r="J19" s="233">
         <f>SUM(I20+I21-L19)</f>
         <v>-9000</v>
       </c>
@@ -4071,7 +4102,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="224">
+      <c r="L19" s="232">
         <v>9000</v>
       </c>
       <c r="M19" s="166"/>
@@ -4088,12 +4119,12 @@
       <c r="G20" s="31"/>
       <c r="H20" s="29"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="223"/>
+      <c r="J20" s="234"/>
       <c r="K20" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="224"/>
+      <c r="L20" s="232"/>
       <c r="M20" s="167"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4107,7 +4138,7 @@
       <c r="G21" s="31"/>
       <c r="H21" s="29"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="222">
+      <c r="J21" s="233">
         <f>SUM(I22+I23-L21)</f>
         <v>-9000</v>
       </c>
@@ -4115,7 +4146,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="225">
+      <c r="L21" s="231">
         <v>9000</v>
       </c>
       <c r="M21" s="166"/>
@@ -4128,12 +4159,12 @@
       <c r="G22" s="31"/>
       <c r="H22" s="29"/>
       <c r="I22" s="51"/>
-      <c r="J22" s="223"/>
+      <c r="J22" s="234"/>
       <c r="K22" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="225"/>
+      <c r="L22" s="231"/>
       <c r="M22" s="167"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4144,7 +4175,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="29"/>
       <c r="I23" s="51"/>
-      <c r="J23" s="222">
+      <c r="J23" s="233">
         <f>SUM(I24+I25-L23)</f>
         <v>-9000</v>
       </c>
@@ -4152,7 +4183,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="224">
+      <c r="L23" s="232">
         <v>9000</v>
       </c>
       <c r="M23" s="166"/>
@@ -4165,12 +4196,12 @@
       <c r="G24" s="31"/>
       <c r="H24" s="29"/>
       <c r="I24" s="51"/>
-      <c r="J24" s="223"/>
+      <c r="J24" s="234"/>
       <c r="K24" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="224"/>
+      <c r="L24" s="232"/>
       <c r="M24" s="167"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4181,7 +4212,7 @@
       <c r="G25" s="31"/>
       <c r="H25" s="29"/>
       <c r="I25" s="51"/>
-      <c r="J25" s="222">
+      <c r="J25" s="233">
         <f>SUM(I26+I27-L25)</f>
         <v>-9000</v>
       </c>
@@ -4189,7 +4220,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="225">
+      <c r="L25" s="231">
         <v>9000</v>
       </c>
       <c r="M25" s="166"/>
@@ -4202,12 +4233,12 @@
       <c r="G26" s="31"/>
       <c r="H26" s="29"/>
       <c r="I26" s="51"/>
-      <c r="J26" s="231"/>
+      <c r="J26" s="235"/>
       <c r="K26" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="225"/>
+      <c r="L26" s="231"/>
       <c r="M26" s="167"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4282,6 +4313,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L21:L22"/>
@@ -4293,22 +4340,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4351,31 +4382,31 @@
       <c r="B1" s="67">
         <v>5700</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="C1" s="244" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="96">
         <v>1000</v>
       </c>
-      <c r="E1" s="234" t="s">
+      <c r="E1" s="244" t="s">
         <v>101</v>
       </c>
       <c r="F1" s="96">
         <v>2000</v>
       </c>
-      <c r="G1" s="234" t="s">
+      <c r="G1" s="244" t="s">
         <v>101</v>
       </c>
       <c r="H1" s="100">
         <v>500</v>
       </c>
-      <c r="I1" s="236" t="s">
+      <c r="I1" s="246" t="s">
         <v>101</v>
       </c>
       <c r="J1" s="68">
         <v>500</v>
       </c>
-      <c r="K1" s="238" t="s">
+      <c r="K1" s="248" t="s">
         <v>101</v>
       </c>
       <c r="L1" s="70" t="s">
@@ -4393,27 +4424,27 @@
       <c r="B2" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="235"/>
+      <c r="C2" s="245"/>
       <c r="D2" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="235"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="235"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="237"/>
+      <c r="I2" s="247"/>
       <c r="J2" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="238"/>
+      <c r="K2" s="248"/>
       <c r="L2" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="232" t="s">
+      <c r="M2" s="242" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4424,27 +4455,27 @@
       <c r="B3" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="235"/>
+      <c r="C3" s="245"/>
       <c r="D3" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="235"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="235"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="237"/>
+      <c r="I3" s="247"/>
       <c r="J3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="238"/>
+      <c r="K3" s="248"/>
       <c r="L3" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="233"/>
+      <c r="M3" s="243"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
@@ -5533,10 +5564,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="239" t="s">
+      <c r="K25" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="239"/>
+      <c r="L25" s="249"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -7007,8 +7038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F272E2F-E2B0-47A2-BF58-42FC76E6AC48}">
   <dimension ref="A1:Y369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:R11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,33 +7072,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="240" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="242"/>
+      <c r="A1" s="250" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="252"/>
       <c r="G1" s="152">
         <v>2</v>
       </c>
       <c r="H1" s="161" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K1" s="153"/>
-      <c r="L1" s="197" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="214"/>
-      <c r="U1" s="198"/>
+      <c r="L1" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="196"/>
       <c r="V1" s="135"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7078,16 +7109,16 @@
         <v>101</v>
       </c>
       <c r="C2" s="150" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="150" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E2" s="151" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F2" s="151" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G2" s="141" t="s">
         <v>192</v>
@@ -7096,28 +7127,28 @@
         <v>193</v>
       </c>
       <c r="I2" s="141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" s="141" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" s="199">
+        <v>205</v>
+      </c>
+      <c r="L2" s="197">
         <v>6000</v>
       </c>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="243">
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="253">
         <v>6000</v>
       </c>
-      <c r="R2" s="243"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="243"/>
-      <c r="U2" s="243"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
       <c r="V2" s="135"/>
     </row>
     <row r="3" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7129,28 +7160,28 @@
         <v>45323</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="174">
         <v>34</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H3" s="138">
         <f>SUM(I3+J3)</f>
-        <v>7401.75</v>
+        <v>8950</v>
       </c>
       <c r="I3" s="138">
-        <f t="shared" ref="I3:I8" si="0">SUMIFS(E:E,A:A,$G$1,D:D,G3)</f>
-        <v>7401.75</v>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G3)</f>
+        <v>5650</v>
       </c>
       <c r="J3" s="138">
-        <f t="shared" ref="J3:J8" si="1">SUMIFS(F:F,A:A,$G$1,D:D,G3)</f>
-        <v>0</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G3)</f>
+        <v>3300</v>
       </c>
       <c r="K3" s="143">
         <v>5000</v>
@@ -7159,43 +7190,43 @@
         <v>7</v>
       </c>
       <c r="M3" s="137" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="137" t="s">
+        <v>245</v>
+      </c>
+      <c r="O3" s="137" t="s">
         <v>244</v>
-      </c>
-      <c r="N3" s="137" t="s">
-        <v>251</v>
-      </c>
-      <c r="O3" s="137" t="s">
-        <v>250</v>
       </c>
       <c r="P3" s="179" t="s">
         <v>50</v>
       </c>
       <c r="Q3" s="188" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="211" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" s="211" t="s">
+        <v>242</v>
+      </c>
+      <c r="R3" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="S3" s="209" t="s">
+        <v>258</v>
+      </c>
+      <c r="T3" s="213" t="s">
+        <v>263</v>
+      </c>
+      <c r="U3" s="159" t="s">
+        <v>265</v>
+      </c>
+      <c r="V3" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="T3" s="215" t="s">
-        <v>269</v>
-      </c>
-      <c r="U3" s="159" t="s">
-        <v>271</v>
-      </c>
-      <c r="V3" s="179" t="s">
-        <v>270</v>
-      </c>
       <c r="W3" s="179" t="s">
+        <v>262</v>
+      </c>
+      <c r="X3" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="X3" s="176" t="s">
-        <v>274</v>
-      </c>
       <c r="Y3" s="176" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7210,71 +7241,71 @@
         <v>151</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="175">
         <v>45</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="138">
         <f>SUM(I4+J4)</f>
-        <v>1481</v>
+        <v>2420</v>
       </c>
       <c r="I4" s="138">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G4)</f>
         <v>186</v>
       </c>
       <c r="J4" s="138">
-        <f t="shared" si="1"/>
-        <v>1295</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G4)</f>
+        <v>2234</v>
       </c>
       <c r="K4" s="143">
         <v>2000</v>
       </c>
-      <c r="L4" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M4" s="202">
+      <c r="L4" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="200">
         <v>2460</v>
       </c>
-      <c r="N4" s="203">
+      <c r="N4" s="201">
         <v>45328</v>
       </c>
-      <c r="O4" s="204">
+      <c r="O4" s="202">
         <v>45336</v>
       </c>
-      <c r="P4" s="205" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q4" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="R4" s="212">
+      <c r="P4" s="203" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q4" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R4" s="210">
         <v>1500</v>
       </c>
-      <c r="S4" s="212">
+      <c r="S4" s="210">
         <v>1000</v>
       </c>
-      <c r="T4" s="204">
+      <c r="T4" s="202">
         <v>45297</v>
       </c>
-      <c r="U4" s="212">
+      <c r="U4" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>500</v>
       </c>
-      <c r="V4" s="205">
+      <c r="V4" s="203">
         <v>45297</v>
       </c>
-      <c r="W4" s="205" t="s">
-        <v>263</v>
-      </c>
-      <c r="X4" s="244">
+      <c r="W4" s="203" t="s">
+        <v>257</v>
+      </c>
+      <c r="X4" s="254">
         <f>SUM(Table7[[#This Row],[payment2]]+R5+R6)</f>
         <v>3763</v>
       </c>
-      <c r="Y4" s="246">
+      <c r="Y4" s="256">
         <f>SUM(Table7[[#This Row],[DEBT]]+U5+U6)</f>
         <v>263</v>
       </c>
@@ -7288,10 +7319,10 @@
         <v>45324</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E5" s="138">
         <v>3500</v>
@@ -7301,37 +7332,37 @@
         <v>12</v>
       </c>
       <c r="H5" s="138">
-        <f t="shared" ref="H5:H7" si="2">SUM(I5+J5)</f>
-        <v>480</v>
+        <f t="shared" ref="H5:H7" si="0">SUM(I5+J5)</f>
+        <v>860</v>
       </c>
       <c r="I5" s="138">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="138">
-        <f t="shared" si="1"/>
-        <v>480</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G5)</f>
+        <v>860</v>
       </c>
       <c r="K5" s="143">
         <v>1000</v>
       </c>
-      <c r="L5" s="206" t="s">
-        <v>246</v>
+      <c r="L5" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M5" s="191">
         <v>7200</v>
       </c>
-      <c r="N5" s="207">
+      <c r="N5" s="205">
         <v>45324</v>
       </c>
-      <c r="O5" s="200">
+      <c r="O5" s="198">
         <v>45324</v>
       </c>
       <c r="P5" s="184" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="R5" s="14">
         <v>1763</v>
@@ -7350,10 +7381,10 @@
         <v>45297</v>
       </c>
       <c r="W5" s="182" t="s">
-        <v>263</v>
-      </c>
-      <c r="X5" s="245"/>
-      <c r="Y5" s="247"/>
+        <v>257</v>
+      </c>
+      <c r="X5" s="255"/>
+      <c r="Y5" s="257"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="128">
@@ -7364,68 +7395,68 @@
         <v>45324</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E6" s="138">
         <v>2000</v>
       </c>
       <c r="F6" s="175"/>
       <c r="G6" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H6" s="138">
-        <f t="shared" si="2"/>
-        <v>1019</v>
+        <f t="shared" si="0"/>
+        <v>2534</v>
       </c>
       <c r="I6" s="138">
-        <f t="shared" si="0"/>
-        <v>856</v>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G6)</f>
+        <v>882</v>
       </c>
       <c r="J6" s="138">
-        <f t="shared" si="1"/>
-        <v>163</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G6)</f>
+        <v>1652</v>
       </c>
       <c r="K6" s="143">
         <v>2000</v>
       </c>
-      <c r="L6" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M6" s="202"/>
+      <c r="L6" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="200"/>
       <c r="N6" s="186"/>
-      <c r="O6" s="204">
+      <c r="O6" s="202">
         <v>45365</v>
       </c>
-      <c r="P6" s="205" t="s">
-        <v>253</v>
+      <c r="P6" s="203" t="s">
+        <v>247</v>
       </c>
       <c r="Q6" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="R6" s="213">
+        <v>261</v>
+      </c>
+      <c r="R6" s="211">
         <v>500</v>
       </c>
-      <c r="S6" s="213">
+      <c r="S6" s="211">
         <v>500</v>
       </c>
-      <c r="T6" s="200">
+      <c r="T6" s="198">
         <v>45297</v>
       </c>
-      <c r="U6" s="213">
+      <c r="U6" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
-      <c r="V6" s="216">
+      <c r="V6" s="214">
         <v>45297</v>
       </c>
       <c r="W6" s="184" t="s">
-        <v>263</v>
-      </c>
-      <c r="X6" s="245"/>
-      <c r="Y6" s="247"/>
+        <v>257</v>
+      </c>
+      <c r="X6" s="255"/>
+      <c r="Y6" s="257"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="128">
@@ -7436,68 +7467,72 @@
         <v>45324</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="174">
         <v>110</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="I7" s="138">
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G7)</f>
         <v>100</v>
       </c>
-      <c r="I7" s="138">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J7" s="138">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G7)</f>
+        <v>235</v>
       </c>
       <c r="K7" s="143">
         <v>1000</v>
       </c>
-      <c r="L7" s="206" t="s">
-        <v>246</v>
-      </c>
-      <c r="M7" s="191"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="200">
+      <c r="L7" s="204" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" s="191">
+        <v>3141</v>
+      </c>
+      <c r="N7" s="205">
+        <v>45342</v>
+      </c>
+      <c r="O7" s="198">
         <v>45350</v>
       </c>
       <c r="P7" s="184" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q7" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="R7" s="212"/>
-      <c r="S7" s="212">
+        <v>247</v>
+      </c>
+      <c r="Q7" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R7" s="210"/>
+      <c r="S7" s="210">
         <v>1500</v>
       </c>
-      <c r="T7" s="204"/>
-      <c r="U7" s="212">
+      <c r="T7" s="202"/>
+      <c r="U7" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V7" s="205">
+      <c r="V7" s="203">
         <v>45328</v>
       </c>
-      <c r="W7" s="205" t="s">
-        <v>252</v>
-      </c>
-      <c r="X7" s="244">
+      <c r="W7" s="203" t="s">
+        <v>246</v>
+      </c>
+      <c r="X7" s="254">
         <f>SUM(Table7[[#This Row],[payment2]]+R8+R9)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="246">
+      <c r="Y7" s="256">
         <f>SUM(Table7[[#This Row],[DEBT]]+U8+U9)</f>
-        <v>-5500</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -7512,58 +7547,58 @@
         <v>152</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="175">
         <v>100</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="138">
         <f>SUM(I8+J8)</f>
-        <v>1634</v>
+        <v>3410.75</v>
       </c>
       <c r="I8" s="138">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G8)</f>
+        <v>1751.75</v>
       </c>
       <c r="J8" s="138">
-        <f t="shared" si="1"/>
-        <v>1634</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G8)</f>
+        <v>1659</v>
       </c>
       <c r="K8" s="143">
         <v>2000</v>
       </c>
-      <c r="L8" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" s="202"/>
+      <c r="L8" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M8" s="200"/>
       <c r="N8" s="186"/>
-      <c r="O8" s="204">
+      <c r="O8" s="202">
         <v>45396</v>
       </c>
-      <c r="P8" s="205" t="s">
-        <v>254</v>
+      <c r="P8" s="203" t="s">
+        <v>248</v>
       </c>
       <c r="Q8" s="189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S8" s="14">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U8" s="14">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
-        <v>-3000</v>
+        <v>-3500</v>
       </c>
       <c r="V8" s="180">
         <v>45328</v>
       </c>
       <c r="W8" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="X8" s="245"/>
-      <c r="Y8" s="247"/>
+        <v>246</v>
+      </c>
+      <c r="X8" s="255"/>
+      <c r="Y8" s="257"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="128">
@@ -7574,10 +7609,10 @@
         <v>45326</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="174">
         <v>24</v>
@@ -7586,47 +7621,47 @@
       <c r="H9" s="138"/>
       <c r="I9" s="142">
         <f>SUM(I3:I8)</f>
-        <v>8443.75</v>
+        <v>8569.75</v>
       </c>
       <c r="J9" s="142">
         <f>SUM(J3:J8)</f>
-        <v>3672</v>
+        <v>9940</v>
       </c>
       <c r="K9" s="160">
         <f>SUM(K4:K8)</f>
         <v>8000</v>
       </c>
-      <c r="L9" s="206" t="s">
-        <v>246</v>
+      <c r="L9" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M9" s="191"/>
       <c r="N9" s="183"/>
-      <c r="O9" s="200">
+      <c r="O9" s="198">
         <v>45379</v>
       </c>
       <c r="P9" s="184" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="R9" s="213"/>
-      <c r="S9" s="213">
+        <v>261</v>
+      </c>
+      <c r="R9" s="211"/>
+      <c r="S9" s="211">
         <v>1000</v>
       </c>
-      <c r="T9" s="200"/>
-      <c r="U9" s="213">
+      <c r="T9" s="198"/>
+      <c r="U9" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V9" s="216">
+      <c r="V9" s="214">
         <v>45328</v>
       </c>
       <c r="W9" s="184" t="s">
-        <v>252</v>
-      </c>
-      <c r="X9" s="245"/>
-      <c r="Y9" s="247"/>
+        <v>246</v>
+      </c>
+      <c r="X9" s="255"/>
+      <c r="Y9" s="257"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="128">
@@ -7637,10 +7672,10 @@
         <v>45326</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="175">
         <v>25</v>
@@ -7652,42 +7687,42 @@
       <c r="K10" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="L10" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M10" s="202"/>
+      <c r="L10" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" s="200"/>
       <c r="N10" s="186"/>
-      <c r="O10" s="204">
+      <c r="O10" s="202">
         <v>45426</v>
       </c>
-      <c r="P10" s="205" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q10" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="R10" s="212"/>
-      <c r="S10" s="212">
+      <c r="P10" s="203" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q10" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R10" s="210"/>
+      <c r="S10" s="210">
         <v>1500</v>
       </c>
-      <c r="T10" s="204"/>
-      <c r="U10" s="212">
+      <c r="T10" s="202"/>
+      <c r="U10" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V10" s="205">
+      <c r="V10" s="203">
         <v>45357</v>
       </c>
-      <c r="W10" s="205" t="s">
-        <v>253</v>
-      </c>
-      <c r="X10" s="244">
+      <c r="W10" s="203" t="s">
+        <v>247</v>
+      </c>
+      <c r="X10" s="254">
         <f>SUM(Table7[[#This Row],[payment2]]+R11+R12)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="246">
+      <c r="Y10" s="256">
         <f>SUM(Table7[[#This Row],[DEBT]]+U11+U12)</f>
-        <v>-5500</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7699,45 +7734,45 @@
         <v>45326</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="174">
         <v>80</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="138"/>
-      <c r="L11" s="206" t="s">
-        <v>246</v>
+      <c r="L11" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M11" s="191"/>
       <c r="N11" s="183"/>
-      <c r="O11" s="200">
+      <c r="O11" s="198">
         <v>45410</v>
       </c>
       <c r="P11" s="184" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S11" s="14">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U11" s="14">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
-        <v>-3000</v>
+        <v>-3500</v>
       </c>
       <c r="V11" s="180">
         <v>45357</v>
       </c>
       <c r="W11" s="182" t="s">
-        <v>253</v>
-      </c>
-      <c r="X11" s="245"/>
-      <c r="Y11" s="247"/>
+        <v>247</v>
+      </c>
+      <c r="X11" s="255"/>
+      <c r="Y11" s="257"/>
     </row>
     <row r="12" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="128">
@@ -7751,7 +7786,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="175">
         <v>204</v>
@@ -7762,44 +7797,44 @@
       <c r="H12" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="195"/>
-      <c r="J12" s="257" t="s">
-        <v>214</v>
-      </c>
-      <c r="K12" s="258" t="s">
-        <v>279</v>
-      </c>
-      <c r="L12" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M12" s="202"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="220" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="L12" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M12" s="200"/>
       <c r="N12" s="186"/>
-      <c r="O12" s="204">
+      <c r="O12" s="202">
         <v>45457</v>
       </c>
-      <c r="P12" s="205" t="s">
-        <v>256</v>
+      <c r="P12" s="203" t="s">
+        <v>250</v>
       </c>
       <c r="Q12" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="R12" s="213"/>
-      <c r="S12" s="213">
+        <v>261</v>
+      </c>
+      <c r="R12" s="211"/>
+      <c r="S12" s="211">
         <v>1000</v>
       </c>
-      <c r="T12" s="200"/>
-      <c r="U12" s="213">
+      <c r="T12" s="198"/>
+      <c r="U12" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V12" s="216">
+      <c r="V12" s="214">
         <v>45357</v>
       </c>
       <c r="W12" s="184" t="s">
-        <v>253</v>
-      </c>
-      <c r="X12" s="245"/>
-      <c r="Y12" s="247"/>
+        <v>247</v>
+      </c>
+      <c r="X12" s="255"/>
+      <c r="Y12" s="257"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="128">
@@ -7810,10 +7845,10 @@
         <v>45327</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="138">
         <v>89</v>
@@ -7826,50 +7861,50 @@
         <f>SUMIFS(Table5[INCOME],Table5[MONTH],$G$1,Table5[CATEGORY],G13)</f>
         <v>-32</v>
       </c>
-      <c r="I13" s="195"/>
-      <c r="J13" s="255" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" s="261">
+      <c r="I13" s="193"/>
+      <c r="J13" s="218" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="223">
         <f>SUM(K4-H4)</f>
-        <v>519</v>
-      </c>
-      <c r="L13" s="206" t="s">
-        <v>246</v>
+        <v>-420</v>
+      </c>
+      <c r="L13" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M13" s="191"/>
       <c r="N13" s="183"/>
-      <c r="O13" s="200">
+      <c r="O13" s="198">
         <v>45440</v>
       </c>
       <c r="P13" s="184" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q13" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="R13" s="212"/>
-      <c r="S13" s="212">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R13" s="210"/>
+      <c r="S13" s="210">
         <v>1500</v>
       </c>
-      <c r="T13" s="204"/>
-      <c r="U13" s="212">
+      <c r="T13" s="202"/>
+      <c r="U13" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V13" s="205">
+      <c r="V13" s="203">
         <v>45388</v>
       </c>
-      <c r="W13" s="205" t="s">
-        <v>254</v>
-      </c>
-      <c r="X13" s="244">
+      <c r="W13" s="203" t="s">
+        <v>248</v>
+      </c>
+      <c r="X13" s="254">
         <f>SUM(Table7[[#This Row],[payment2]]+R14+R15)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="246">
+      <c r="Y13" s="256">
         <f>SUM(Table7[[#This Row],[DEBT]]+U14+U15)</f>
-        <v>-5500</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -7884,55 +7919,55 @@
         <v>150</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="175">
         <v>26</v>
       </c>
       <c r="G14" s="149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H14" s="157">
         <f>SUMIFS(Table5[INCOME],Table5[MONTH],$G$1,Table5[CATEGORY],G14)</f>
         <v>19466.68</v>
       </c>
-      <c r="I14" s="195"/>
+      <c r="I14" s="193"/>
       <c r="J14" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="261">
+      <c r="K14" s="223">
         <f>SUM(K5-H5)</f>
-        <v>520</v>
-      </c>
-      <c r="L14" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M14" s="202"/>
+        <v>140</v>
+      </c>
+      <c r="L14" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M14" s="200"/>
       <c r="N14" s="186"/>
-      <c r="O14" s="204">
+      <c r="O14" s="202">
         <v>45487</v>
       </c>
-      <c r="P14" s="205" t="s">
-        <v>257</v>
+      <c r="P14" s="203" t="s">
+        <v>251</v>
       </c>
       <c r="Q14" s="189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S14" s="14">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U14" s="14">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
-        <v>-3000</v>
+        <v>-3500</v>
       </c>
       <c r="V14" s="180">
         <v>45388</v>
       </c>
       <c r="W14" s="182" t="s">
-        <v>254</v>
-      </c>
-      <c r="X14" s="245"/>
-      <c r="Y14" s="247"/>
+        <v>248</v>
+      </c>
+      <c r="X14" s="255"/>
+      <c r="Y14" s="257"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="128">
@@ -7943,60 +7978,60 @@
         <v>45328</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="174">
         <v>29</v>
       </c>
       <c r="G15" s="149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="157">
         <f>SUMIFS(Table5[INCOME],Table5[MONTH],$G$1,Table5[CATEGORY],G15)</f>
-        <v>800</v>
-      </c>
-      <c r="I15" s="196"/>
+        <v>1060</v>
+      </c>
+      <c r="I15" s="194"/>
       <c r="J15" s="181" t="s">
-        <v>205</v>
-      </c>
-      <c r="K15" s="261">
+        <v>204</v>
+      </c>
+      <c r="K15" s="223">
         <f>SUM(K6-H6)</f>
-        <v>981</v>
-      </c>
-      <c r="L15" s="206" t="s">
-        <v>246</v>
+        <v>-534</v>
+      </c>
+      <c r="L15" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M15" s="191"/>
       <c r="N15" s="183"/>
-      <c r="O15" s="200">
+      <c r="O15" s="198">
         <v>45471</v>
       </c>
       <c r="P15" s="184" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q15" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213">
+        <v>261</v>
+      </c>
+      <c r="R15" s="211"/>
+      <c r="S15" s="211">
         <v>1000</v>
       </c>
-      <c r="T15" s="200"/>
-      <c r="U15" s="213">
+      <c r="T15" s="198"/>
+      <c r="U15" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V15" s="216">
+      <c r="V15" s="214">
         <v>45388</v>
       </c>
       <c r="W15" s="184" t="s">
-        <v>254</v>
-      </c>
-      <c r="X15" s="245"/>
-      <c r="Y15" s="247"/>
+        <v>248</v>
+      </c>
+      <c r="X15" s="255"/>
+      <c r="Y15" s="257"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="128">
@@ -8016,46 +8051,48 @@
         <v>100</v>
       </c>
       <c r="G16" s="149" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H16" s="157">
         <f>SUMIFS(Table5[INCOME],Table5[MONTH],$G$1,Table5[CATEGORY],G16)</f>
-        <v>100</v>
-      </c>
-      <c r="I16" s="196"/>
-      <c r="J16" s="255" t="s">
-        <v>203</v>
-      </c>
-      <c r="K16" s="261">
+        <v>250</v>
+      </c>
+      <c r="I16" s="194"/>
+      <c r="J16" s="218" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="223">
         <f>SUM(K7-H7)</f>
-        <v>900</v>
-      </c>
-      <c r="L16" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M16" s="202"/>
+        <v>665</v>
+      </c>
+      <c r="L16" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="200"/>
       <c r="N16" s="186"/>
-      <c r="O16" s="204">
+      <c r="O16" s="202">
         <v>45518</v>
       </c>
-      <c r="P16" s="205" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q16" s="208"/>
-      <c r="R16" s="212"/>
-      <c r="S16" s="212">
+      <c r="P16" s="203" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q16" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R16" s="210"/>
+      <c r="S16" s="210">
         <v>1500</v>
       </c>
-      <c r="T16" s="204"/>
-      <c r="U16" s="212">
+      <c r="T16" s="202"/>
+      <c r="U16" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V16" s="205">
+      <c r="V16" s="203">
         <v>45418</v>
       </c>
-      <c r="W16" s="205" t="s">
-        <v>255</v>
+      <c r="W16" s="203" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8070,7 +8107,7 @@
         <v>150</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="174">
         <v>26</v>
@@ -8078,30 +8115,32 @@
       <c r="G17" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="193">
+      <c r="H17" s="192">
         <f>SUM(H14:H16)</f>
-        <v>20366.68</v>
-      </c>
-      <c r="I17" s="196"/>
-      <c r="J17" s="253" t="s">
-        <v>280</v>
-      </c>
-      <c r="K17" s="262">
+        <v>20776.68</v>
+      </c>
+      <c r="I17" s="194"/>
+      <c r="J17" s="217" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="224">
         <f>SUM(K13:K16)</f>
-        <v>2920</v>
-      </c>
-      <c r="L17" s="206" t="s">
-        <v>246</v>
+        <v>-149</v>
+      </c>
+      <c r="L17" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M17" s="191"/>
       <c r="N17" s="183"/>
-      <c r="O17" s="200">
+      <c r="O17" s="198">
         <v>45501</v>
       </c>
       <c r="P17" s="184" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q17" s="189"/>
+        <v>252</v>
+      </c>
+      <c r="Q17" s="189" t="s">
+        <v>260</v>
+      </c>
       <c r="S17" s="14">
         <v>3000</v>
       </c>
@@ -8113,7 +8152,7 @@
         <v>45418</v>
       </c>
       <c r="W17" s="182" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8125,42 +8164,44 @@
         <v>45330</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="138">
         <v>150</v>
       </c>
       <c r="F18" s="175"/>
-      <c r="I18" s="196"/>
-      <c r="L18" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M18" s="202"/>
+      <c r="I18" s="194"/>
+      <c r="L18" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M18" s="200"/>
       <c r="N18" s="186"/>
-      <c r="O18" s="204">
+      <c r="O18" s="202">
         <v>45549</v>
       </c>
-      <c r="P18" s="205" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q18" s="190"/>
-      <c r="R18" s="213"/>
-      <c r="S18" s="213">
+      <c r="P18" s="203" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q18" s="190" t="s">
+        <v>261</v>
+      </c>
+      <c r="R18" s="211"/>
+      <c r="S18" s="211">
         <v>1000</v>
       </c>
-      <c r="T18" s="200"/>
-      <c r="U18" s="213">
+      <c r="T18" s="198"/>
+      <c r="U18" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V18" s="216">
+      <c r="V18" s="214">
         <v>45418</v>
       </c>
       <c r="W18" s="184" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8172,43 +8213,45 @@
         <v>45331</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="174">
         <v>200</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="138"/>
-      <c r="I19" s="196"/>
-      <c r="L19" s="206" t="s">
-        <v>246</v>
+      <c r="I19" s="194"/>
+      <c r="L19" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M19" s="191"/>
       <c r="N19" s="183"/>
-      <c r="O19" s="200">
+      <c r="O19" s="198">
         <v>45532</v>
       </c>
       <c r="P19" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q19" s="206" t="s">
         <v>259</v>
       </c>
-      <c r="Q19" s="208"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="212">
+      <c r="R19" s="210"/>
+      <c r="S19" s="210">
         <v>1500</v>
       </c>
-      <c r="T19" s="204"/>
-      <c r="U19" s="212">
+      <c r="T19" s="202"/>
+      <c r="U19" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V19" s="205">
+      <c r="V19" s="203">
         <v>45449</v>
       </c>
-      <c r="W19" s="205" t="s">
-        <v>256</v>
+      <c r="W19" s="203" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -8230,19 +8273,21 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="138"/>
-      <c r="I20" s="196"/>
-      <c r="L20" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M20" s="202"/>
+      <c r="I20" s="194"/>
+      <c r="L20" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M20" s="200"/>
       <c r="N20" s="186"/>
-      <c r="O20" s="204">
+      <c r="O20" s="202">
         <v>45579</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q20" s="189"/>
+        <v>255</v>
+      </c>
+      <c r="Q20" s="189" t="s">
+        <v>260</v>
+      </c>
       <c r="S20" s="14">
         <v>3000</v>
       </c>
@@ -8254,7 +8299,7 @@
         <v>45449</v>
       </c>
       <c r="W20" s="182" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8266,58 +8311,60 @@
         <v>45332</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="174">
         <v>100</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H21" s="138">
         <f>SUM(I21+J21)</f>
-        <v>7401.75</v>
+        <v>8950</v>
       </c>
       <c r="I21" s="138">
         <f>SUMIFS(E:E,A:A,$G$1,D:D,G21)</f>
-        <v>7401.75</v>
+        <v>5650</v>
       </c>
       <c r="J21" s="138">
         <f>SUMIFS(F:F,A:A,$G$1,D:D,G21)</f>
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="K21" s="143">
         <v>5000</v>
       </c>
-      <c r="L21" s="206" t="s">
-        <v>246</v>
+      <c r="L21" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M21" s="191"/>
       <c r="N21" s="183"/>
-      <c r="O21" s="200">
+      <c r="O21" s="198">
         <v>45563</v>
       </c>
       <c r="P21" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q21" s="190" t="s">
         <v>261</v>
       </c>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="213"/>
-      <c r="S21" s="213">
+      <c r="R21" s="211"/>
+      <c r="S21" s="211">
         <v>1000</v>
       </c>
-      <c r="T21" s="200"/>
-      <c r="U21" s="213">
+      <c r="T21" s="198"/>
+      <c r="U21" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V21" s="216">
+      <c r="V21" s="214">
         <v>45449</v>
       </c>
       <c r="W21" s="184" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -8329,44 +8376,48 @@
         <v>45332</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E22" s="138">
         <v>150</v>
       </c>
       <c r="F22" s="175"/>
       <c r="G22" s="138" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="157">
+        <v>217</v>
+      </c>
+      <c r="H22" s="138">
+        <f>SUM(I22+I27)</f>
+        <v>12493.75</v>
+      </c>
+      <c r="I22" s="157">
         <f>SUMIFS(Table5[INCOME],Table5[MONTH],$G$1,Table5[CATEGORY],G22)</f>
         <v>3924</v>
       </c>
-      <c r="L22" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M22" s="202"/>
+      <c r="L22" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M22" s="200"/>
       <c r="N22" s="186"/>
-      <c r="O22" s="204">
+      <c r="O22" s="202">
         <v>45610</v>
       </c>
-      <c r="P22" s="205" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q22" s="208"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="204"/>
-      <c r="U22" s="212">
+      <c r="P22" s="203" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q22" s="206"/>
+      <c r="R22" s="210"/>
+      <c r="S22" s="210"/>
+      <c r="T22" s="202"/>
+      <c r="U22" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
-      <c r="V22" s="205"/>
-      <c r="W22" s="205" t="s">
-        <v>257</v>
+      <c r="V22" s="203"/>
+      <c r="W22" s="203" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8378,31 +8429,31 @@
         <v>45333</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="174">
         <v>100</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="H23" s="263">
-        <f>SUM(H22-H21)</f>
-        <v>-3477.75</v>
-      </c>
-      <c r="L23" s="206" t="s">
-        <v>246</v>
+        <v>280</v>
+      </c>
+      <c r="H23" s="225">
+        <f>SUM(H21-H22)</f>
+        <v>-3543.75</v>
+      </c>
+      <c r="L23" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M23" s="191"/>
       <c r="N23" s="183"/>
-      <c r="O23" s="200">
+      <c r="O23" s="198">
         <v>45593</v>
       </c>
       <c r="P23" s="184" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="189"/>
       <c r="U23" s="14">
@@ -8411,7 +8462,7 @@
       </c>
       <c r="V23" s="182"/>
       <c r="W23" s="182" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8431,28 +8482,28 @@
       <c r="F24" s="175">
         <v>100</v>
       </c>
-      <c r="L24" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M24" s="202"/>
+      <c r="L24" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" s="200"/>
       <c r="N24" s="186"/>
-      <c r="O24" s="204">
+      <c r="O24" s="202">
         <v>45640</v>
       </c>
       <c r="P24" s="187" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q24" s="190"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="200"/>
-      <c r="U24" s="213">
+      <c r="R24" s="211"/>
+      <c r="S24" s="211"/>
+      <c r="T24" s="198"/>
+      <c r="U24" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V24" s="184"/>
       <c r="W24" s="184" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8467,40 +8518,40 @@
         <v>150</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E25" s="138">
         <v>26</v>
       </c>
       <c r="F25" s="174"/>
       <c r="G25" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I25" s="138">
         <v>2000</v>
       </c>
-      <c r="L25" s="206" t="s">
-        <v>246</v>
+      <c r="L25" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M25" s="191"/>
       <c r="N25" s="183"/>
-      <c r="O25" s="200">
+      <c r="O25" s="198">
         <v>45624</v>
       </c>
       <c r="P25" s="184" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q25" s="208"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="212"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="212">
+        <v>256</v>
+      </c>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="202"/>
+      <c r="U25" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
-      <c r="V25" s="205"/>
-      <c r="W25" s="205" t="s">
-        <v>258</v>
+      <c r="V25" s="203"/>
+      <c r="W25" s="203" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8512,7 +8563,7 @@
         <v>45334</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>12</v>
@@ -8522,22 +8573,22 @@
       </c>
       <c r="G26" s="13"/>
       <c r="I26" s="150" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J26" s="150" t="s">
         <v>94</v>
       </c>
       <c r="K26" s="163"/>
-      <c r="L26" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M26" s="202"/>
+      <c r="L26" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" s="200"/>
       <c r="N26" s="186"/>
-      <c r="O26" s="204">
+      <c r="O26" s="202">
         <v>45305</v>
       </c>
       <c r="P26" s="187" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q26" s="189"/>
       <c r="U26" s="14">
@@ -8546,7 +8597,7 @@
       </c>
       <c r="V26" s="182"/>
       <c r="W26" s="182" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8558,7 +8609,7 @@
         <v>45334</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>12</v>
@@ -8567,42 +8618,42 @@
         <v>50</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H27" s="145">
         <f>SUM(I27+J27)</f>
-        <v>12115.75</v>
+        <v>18509.75</v>
       </c>
       <c r="I27" s="145">
         <f>SUM(E:E)</f>
-        <v>8443.75</v>
+        <v>8569.75</v>
       </c>
       <c r="J27" s="146">
         <f>SUM(F:F)</f>
-        <v>3672</v>
-      </c>
-      <c r="L27" s="206" t="s">
-        <v>246</v>
+        <v>9940</v>
+      </c>
+      <c r="L27" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M27" s="191"/>
       <c r="N27" s="183"/>
-      <c r="O27" s="200">
+      <c r="O27" s="198">
         <v>45654</v>
       </c>
       <c r="P27" s="184" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q27" s="190"/>
-      <c r="R27" s="213"/>
-      <c r="S27" s="213"/>
-      <c r="T27" s="200"/>
-      <c r="U27" s="213">
+      <c r="R27" s="211"/>
+      <c r="S27" s="211"/>
+      <c r="T27" s="198"/>
+      <c r="U27" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V27" s="184"/>
       <c r="W27" s="184" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -8614,46 +8665,46 @@
         <v>45334</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E28" s="138">
         <v>95</v>
       </c>
       <c r="F28" s="175"/>
       <c r="G28" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H28" s="145">
         <f>SUM(H29-H27)</f>
-        <v>-4115.75</v>
+        <v>-10509.75</v>
       </c>
       <c r="I28" s="145">
         <f>SUM(I29-I27)</f>
-        <v>-4443.75</v>
+        <v>-4569.75</v>
       </c>
       <c r="J28" s="145">
         <f>SUM(J29-J27)</f>
-        <v>328</v>
+        <v>-5940</v>
       </c>
       <c r="L28" s="181"/>
       <c r="M28" s="138"/>
       <c r="N28" s="13"/>
       <c r="O28" s="12"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="208"/>
-      <c r="R28" s="212"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="204"/>
-      <c r="U28" s="212">
+      <c r="Q28" s="206"/>
+      <c r="R28" s="210"/>
+      <c r="S28" s="210"/>
+      <c r="T28" s="202"/>
+      <c r="U28" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205" t="s">
-        <v>259</v>
+      <c r="V28" s="203"/>
+      <c r="W28" s="203" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8665,16 +8716,16 @@
         <v>45335</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="174">
         <v>138</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H29" s="145">
         <v>8000</v>
@@ -8688,9 +8739,9 @@
         <v>4000</v>
       </c>
       <c r="L29" s="181" t="s">
-        <v>287</v>
-      </c>
-      <c r="M29" s="266">
+        <v>281</v>
+      </c>
+      <c r="M29" s="228">
         <v>5601</v>
       </c>
       <c r="N29" s="13"/>
@@ -8703,7 +8754,7 @@
       </c>
       <c r="V29" s="182"/>
       <c r="W29" s="182" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8715,21 +8766,21 @@
         <v>45336</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="138">
         <v>63</v>
       </c>
       <c r="F30" s="175"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="218" t="s">
-        <v>272</v>
-      </c>
-      <c r="I30" s="217" t="s">
-        <v>285</v>
+      <c r="H30" s="216" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="215" t="s">
+        <v>279</v>
       </c>
       <c r="J30" s="146"/>
       <c r="L30" s="181"/>
@@ -8738,16 +8789,16 @@
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="190"/>
-      <c r="R30" s="213"/>
-      <c r="S30" s="213"/>
-      <c r="T30" s="200"/>
-      <c r="U30" s="213">
+      <c r="R30" s="211"/>
+      <c r="S30" s="211"/>
+      <c r="T30" s="198"/>
+      <c r="U30" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V30" s="184"/>
       <c r="W30" s="184" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -8759,21 +8810,21 @@
         <v>45336</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E31" s="138">
         <v>36</v>
       </c>
       <c r="F31" s="174"/>
       <c r="G31" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H31" s="147">
         <f>SUM(H27+I27+J27)</f>
-        <v>24231.5</v>
+        <v>37019.5</v>
       </c>
       <c r="I31" s="147"/>
       <c r="J31" s="147"/>
@@ -8782,17 +8833,17 @@
       <c r="N31" s="13"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="208"/>
-      <c r="R31" s="212"/>
-      <c r="S31" s="212"/>
-      <c r="T31" s="204"/>
-      <c r="U31" s="212">
+      <c r="Q31" s="206"/>
+      <c r="R31" s="210"/>
+      <c r="S31" s="210"/>
+      <c r="T31" s="202"/>
+      <c r="U31" s="210">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V31" s="187"/>
       <c r="W31" s="187" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8807,13 +8858,13 @@
         <v>150</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="175">
         <v>26</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H32" s="148">
         <f>SUM(K9+Q2+L2)</f>
@@ -8833,7 +8884,7 @@
       </c>
       <c r="V32" s="182"/>
       <c r="W32" s="182" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.3">
@@ -8867,16 +8918,16 @@
       <c r="O33" s="12"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="190"/>
-      <c r="R33" s="213"/>
-      <c r="S33" s="213"/>
-      <c r="T33" s="200"/>
-      <c r="U33" s="213">
+      <c r="R33" s="211"/>
+      <c r="S33" s="211"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="211">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V33" s="184"/>
       <c r="W33" s="184" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -8888,10 +8939,10 @@
         <v>45338</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F34" s="175">
         <v>461</v>
@@ -8909,8 +8960,8 @@
         <v>0</v>
       </c>
       <c r="V34" s="180"/>
-      <c r="W34" s="205" t="s">
-        <v>260</v>
+      <c r="W34" s="203" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -8922,10 +8973,10 @@
         <v>45324</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F35" s="174">
         <v>1158</v>
@@ -8943,7 +8994,7 @@
       </c>
       <c r="V35" s="182"/>
       <c r="W35" s="182" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8955,30 +9006,31 @@
         <v>45338</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="175">
+        <v>202</v>
+      </c>
+      <c r="E36" s="138">
         <v>100</v>
       </c>
+      <c r="F36" s="175"/>
       <c r="L36" s="181"/>
       <c r="M36" s="138"/>
       <c r="N36" s="13"/>
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="190"/>
-      <c r="R36" s="213"/>
-      <c r="S36" s="213"/>
-      <c r="T36" s="200"/>
+      <c r="R36" s="211"/>
+      <c r="S36" s="211"/>
+      <c r="T36" s="198"/>
       <c r="U36" s="14">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V36" s="182"/>
       <c r="W36" s="184" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -8993,7 +9045,7 @@
         <v>150</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="174">
         <v>26</v>
@@ -9003,17 +9055,17 @@
       <c r="N37" s="13"/>
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="208"/>
-      <c r="R37" s="212"/>
-      <c r="S37" s="212"/>
-      <c r="T37" s="204"/>
+      <c r="Q37" s="206"/>
+      <c r="R37" s="210"/>
+      <c r="S37" s="210"/>
+      <c r="T37" s="202"/>
       <c r="U37" s="14">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V37" s="182"/>
       <c r="W37" s="187" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -9025,10 +9077,10 @@
         <v>45338</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="175">
         <v>165</v>
@@ -9045,7 +9097,7 @@
       </c>
       <c r="V38" s="182"/>
       <c r="W38" s="182" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9057,10 +9109,10 @@
         <v>45338</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="E39" s="138">
         <v>1751.75</v>
@@ -9070,7 +9122,7 @@
         <v>154</v>
       </c>
       <c r="H39" s="144" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I39" s="137" t="s">
         <v>101</v>
@@ -9084,16 +9136,16 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="190"/>
-      <c r="R39" s="213"/>
-      <c r="S39" s="213"/>
-      <c r="T39" s="200"/>
+      <c r="R39" s="211"/>
+      <c r="S39" s="211"/>
+      <c r="T39" s="198"/>
       <c r="U39" s="14">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V39" s="182"/>
       <c r="W39" s="184" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9105,10 +9157,10 @@
         <v>45338</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E40" s="138">
         <v>583</v>
@@ -9118,7 +9170,7 @@
         <v>9404</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I40" s="139">
         <v>45324</v>
@@ -9132,17 +9184,17 @@
       <c r="N40" s="13"/>
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="208"/>
-      <c r="R40" s="212"/>
-      <c r="S40" s="212"/>
-      <c r="T40" s="204"/>
+      <c r="Q40" s="206"/>
+      <c r="R40" s="210"/>
+      <c r="S40" s="210"/>
+      <c r="T40" s="202"/>
       <c r="U40" s="14">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V40" s="182"/>
-      <c r="W40" s="209" t="s">
-        <v>263</v>
+      <c r="W40" s="207" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -9154,10 +9206,10 @@
         <v>45338</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F41" s="174">
         <v>15</v>
@@ -9166,13 +9218,13 @@
         <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I41" s="139">
         <v>45325</v>
       </c>
       <c r="J41" s="13">
-        <f t="shared" ref="J41:J62" si="3">MONTH(I41)</f>
+        <f t="shared" ref="J41:J62" si="1">MONTH(I41)</f>
         <v>2</v>
       </c>
       <c r="L41" s="181"/>
@@ -9187,7 +9239,7 @@
       </c>
       <c r="V41" s="182"/>
       <c r="W41" s="182" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9199,63 +9251,74 @@
         <v>45338</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F42" s="175"/>
       <c r="G42" s="143">
         <v>10062.68</v>
       </c>
       <c r="H42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I42" s="156">
         <v>45338</v>
       </c>
       <c r="J42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L42" s="256"/>
+      <c r="L42" s="219"/>
       <c r="M42" s="191"/>
       <c r="N42" s="183"/>
-      <c r="O42" s="200"/>
+      <c r="O42" s="198"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="190"/>
-      <c r="R42" s="213"/>
-      <c r="S42" s="213"/>
-      <c r="T42" s="200"/>
+      <c r="R42" s="211"/>
+      <c r="S42" s="211"/>
+      <c r="T42" s="198"/>
       <c r="U42" s="14">
         <f>SUM(Table7[[#This Row],[payment2]]-Table7[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V42" s="182"/>
       <c r="W42" s="184" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B43" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="174">
+        <v>180</v>
+      </c>
       <c r="G43" s="143">
         <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I43" s="156">
         <v>45326</v>
       </c>
       <c r="J43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L43" s="260"/>
+      <c r="L43" s="138"/>
       <c r="M43" s="138"/>
       <c r="N43" s="13"/>
       <c r="O43" s="12"/>
@@ -9264,43 +9327,63 @@
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B44" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C44" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="175">
+        <v>135</v>
+      </c>
       <c r="G44" s="143">
         <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I44" s="156">
         <v>45330</v>
       </c>
       <c r="J44" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K44" s="254"/>
-      <c r="L44" s="254"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B45" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="174">
+        <v>100</v>
+      </c>
       <c r="G45" s="143">
         <v>200</v>
       </c>
       <c r="H45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I45" s="156">
         <v>45331</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N45" s="13"/>
@@ -9308,20 +9391,31 @@
     <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B46" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="175">
+        <v>240</v>
+      </c>
       <c r="G46" s="143">
         <v>300</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I46" s="156">
         <v>45334</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N46" s="13"/>
@@ -9329,38 +9423,60 @@
     <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F47" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B47" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="174">
+        <v>250</v>
+      </c>
       <c r="G47" s="158">
         <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I47" s="156">
         <v>45334</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L47" s="257" t="s">
-        <v>278</v>
-      </c>
-      <c r="M47" s="258" t="s">
-        <v>198</v>
-      </c>
-      <c r="N47" s="258" t="s">
+      <c r="L47" s="220" t="s">
+        <v>272</v>
+      </c>
+      <c r="M47" s="221" t="s">
+        <v>197</v>
+      </c>
+      <c r="N47" s="221" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F48" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B48" s="140">
+        <v>45341</v>
+      </c>
+      <c r="C48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="175">
+        <v>200</v>
+      </c>
       <c r="G48" s="158">
         <v>-32</v>
       </c>
@@ -9371,65 +9487,82 @@
         <v>45323</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L48" s="181">
-        <v>3141</v>
-      </c>
-      <c r="M48" s="182" t="s">
-        <v>153</v>
-      </c>
-      <c r="N48" s="259">
-        <v>45339</v>
-      </c>
+      <c r="L48" s="181"/>
+      <c r="M48" s="182"/>
+      <c r="N48" s="222"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F49" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B49" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="174">
+        <v>25</v>
+      </c>
       <c r="G49" s="158">
         <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I49" s="156">
         <v>45334</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L49" s="181">
         <v>3477</v>
       </c>
       <c r="M49" s="182" t="s">
-        <v>282</v>
-      </c>
-      <c r="N49" s="259">
-        <v>45339</v>
+        <v>276</v>
+      </c>
+      <c r="N49" s="222">
+        <v>45365</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B50" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C50" s="263" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="264"/>
+      <c r="F50" s="265">
+        <v>3000</v>
+      </c>
       <c r="G50" s="158">
         <v>3774</v>
       </c>
       <c r="H50" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I50" s="156">
         <v>45338</v>
       </c>
       <c r="J50" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L50" s="181"/>
@@ -9439,15 +9572,32 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="174"/>
-      <c r="G51" s="158"/>
-      <c r="H51"/>
-      <c r="I51" s="155"/>
+        <v>2</v>
+      </c>
+      <c r="B51" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="174">
+        <v>180</v>
+      </c>
+      <c r="G51" s="158">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="156">
+        <v>45341</v>
+      </c>
       <c r="J51" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L51" s="181"/>
       <c r="M51" s="182"/>
@@ -9456,15 +9606,32 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F52" s="175"/>
-      <c r="G52" s="158"/>
-      <c r="H52"/>
-      <c r="I52" s="155"/>
+        <v>2</v>
+      </c>
+      <c r="B52" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="175">
+        <v>150</v>
+      </c>
+      <c r="G52" s="158">
+        <v>200</v>
+      </c>
+      <c r="H52" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="156">
+        <v>45347</v>
+      </c>
       <c r="J52" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L52" s="181"/>
       <c r="M52" s="182"/>
@@ -9473,15 +9640,32 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F53" s="174"/>
-      <c r="G53" s="158"/>
-      <c r="H53"/>
-      <c r="I53" s="155"/>
+        <v>2</v>
+      </c>
+      <c r="B53" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C53" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="174">
+        <v>59</v>
+      </c>
+      <c r="G53" s="158">
+        <v>150</v>
+      </c>
+      <c r="H53" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="156">
+        <v>45348</v>
+      </c>
       <c r="J53" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L53" s="181"/>
       <c r="M53" s="182"/>
@@ -9490,14 +9674,25 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F54" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B54" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C54" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="175">
+        <v>288</v>
+      </c>
       <c r="G54" s="158"/>
       <c r="H54"/>
       <c r="I54" s="155"/>
       <c r="J54" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L54" s="181"/>
@@ -9507,14 +9702,25 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F55" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B55" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C55" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="174">
+        <v>70</v>
+      </c>
       <c r="G55" s="158"/>
       <c r="H55"/>
       <c r="I55" s="155"/>
       <c r="J55" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L55" s="181"/>
@@ -9524,14 +9730,25 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F56" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B56" s="140">
+        <v>45343</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="175">
+        <v>100</v>
+      </c>
       <c r="G56" s="158"/>
       <c r="H56"/>
       <c r="I56" s="155"/>
       <c r="J56" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L56" s="181"/>
@@ -9541,14 +9758,25 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F57" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B57" s="140">
+        <v>45343</v>
+      </c>
+      <c r="C57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="174">
+        <v>200</v>
+      </c>
       <c r="G57" s="158"/>
       <c r="H57"/>
       <c r="I57" s="155"/>
       <c r="J57" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L57" s="181"/>
@@ -9558,14 +9786,25 @@
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F58" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B58" s="140">
+        <v>45344</v>
+      </c>
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="175">
+        <v>26</v>
+      </c>
       <c r="G58" s="158"/>
       <c r="H58"/>
       <c r="I58" s="155"/>
       <c r="J58" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L58" s="181"/>
@@ -9575,14 +9814,25 @@
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F59" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B59" s="140">
+        <v>45345</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="175">
+        <v>26</v>
+      </c>
       <c r="G59" s="158"/>
       <c r="H59"/>
       <c r="I59" s="155"/>
       <c r="J59" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L59" s="181"/>
@@ -9592,36 +9842,59 @@
     <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B60" s="140">
+        <v>45346</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="138">
+        <v>26</v>
       </c>
       <c r="F60" s="175"/>
       <c r="G60" s="158"/>
       <c r="H60"/>
       <c r="I60" s="155"/>
       <c r="J60" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L60" s="264">
+      <c r="L60" s="226">
         <f>SUM(L48:L59)</f>
-        <v>6618</v>
-      </c>
-      <c r="M60" s="265" t="s">
-        <v>281</v>
+        <v>3477</v>
+      </c>
+      <c r="M60" s="227" t="s">
+        <v>275</v>
       </c>
       <c r="N60" s="184"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F61" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B61" s="140">
+        <v>45346</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="175">
+        <v>100</v>
+      </c>
       <c r="G61" s="158"/>
       <c r="H61"/>
       <c r="I61" s="155"/>
       <c r="J61" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L61" s="13">
@@ -9632,14 +9905,25 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F62" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B62" s="140">
+        <v>45346</v>
+      </c>
+      <c r="C62" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="175">
+        <v>70</v>
+      </c>
       <c r="G62" s="158"/>
       <c r="H62"/>
       <c r="I62" s="155"/>
       <c r="J62" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N62" s="13"/>
@@ -9647,120 +9931,281 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B63" s="140">
+        <v>45346</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="175">
+        <v>20</v>
+      </c>
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F64" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B64" s="140">
+        <v>45348</v>
+      </c>
+      <c r="C64" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="175">
+        <v>120</v>
+      </c>
       <c r="N64" s="13"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F65" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B65" s="140">
+        <v>45348</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="175">
+        <v>26</v>
+      </c>
       <c r="N65" s="13"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F66" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B66" s="140">
+        <v>45349</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="175">
+        <v>26</v>
+      </c>
       <c r="N66" s="13"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F67" s="174"/>
+        <v>2</v>
+      </c>
+      <c r="B67" s="140">
+        <v>45349</v>
+      </c>
+      <c r="C67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" s="175">
+        <v>559</v>
+      </c>
       <c r="N67" s="13"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F68" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="B68" s="140">
+        <v>45350</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="175">
+        <v>28</v>
+      </c>
       <c r="N68" s="13"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="128">
         <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B69" s="140">
+        <v>45351</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="175">
+        <v>100</v>
+      </c>
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="128">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B70" s="140">
+        <v>45351</v>
+      </c>
+      <c r="C70" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="175">
+        <v>40</v>
+      </c>
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="128">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B71" s="140">
+        <v>45351</v>
+      </c>
+      <c r="C71" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="175">
+        <v>50</v>
+      </c>
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
-      <c r="F69" s="174"/>
-      <c r="N69" s="13"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F70" s="13"/>
-      <c r="N70" s="13"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="N71" s="13"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="138"/>
       <c r="F72" s="13"/>
       <c r="N72" s="13"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="138"/>
       <c r="F73" s="13"/>
       <c r="N73" s="13"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="138"/>
       <c r="F74" s="13"/>
       <c r="N74" s="13"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="138"/>
       <c r="F75" s="13"/>
       <c r="N75" s="13"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+      <c r="A76" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="138"/>
       <c r="F76" s="13"/>
       <c r="N76" s="13"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="138"/>
       <c r="F77" s="13"/>
       <c r="N77" s="13"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="138"/>
       <c r="F78" s="13"/>
       <c r="N78" s="13"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="138"/>
       <c r="F79" s="13"/>
       <c r="N79" s="13"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
+      <c r="A80" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="138"/>
       <c r="F80" s="13"/>
       <c r="N80" s="13"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="138"/>
       <c r="F81" s="13"/>
       <c r="N81" s="13"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+      <c r="A82" s="266">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="138"/>
       <c r="F82" s="13"/>
       <c r="N82" s="13"/>
     </row>
@@ -10231,10 +10676,12 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
+      <c r="F176" s="13"/>
       <c r="N176" s="13"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
+      <c r="F177" s="13"/>
       <c r="N177" s="13"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -10266,9 +10713,11 @@
       <c r="N184" s="13"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
       <c r="N185" s="13"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
       <c r="N186" s="13"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -10945,20 +11394,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D144:D1048576" xr:uid="{B0ADB6FB-0220-49E4-9000-1AD35B37F4C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D146:D1048576" xr:uid="{B0ADB6FB-0220-49E4-9000-1AD35B37F4C2}">
       <formula1>"Entertainment, Transportation, Needs/Food, Family, Tax/Benefits"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P55:P1048576" xr:uid="{4A1855D6-A79E-4BB5-9950-896985ACEFCA}">
       <formula1>"Balance, Salary, Family, Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:B1048576" xr:uid="{0423A68A-1876-4E09-BF60-F1755EBCE3AB}">
-      <formula1>$G$4:$G$8</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40:H62" xr:uid="{B23E4D9A-5788-40F2-B135-A726E456CDCD}">
       <formula1>"Balance, Salary, Family, Debt-in, Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D69" xr:uid="{7A28B545-A0F5-473D-B99A-3781A72BC57F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D82" xr:uid="{7A28B545-A0F5-473D-B99A-3781A72BC57F}">
       <formula1>"Entertainment, Transportation, Needs/Food, Family, Tax/Benefits, Debt-out"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72:B1048576" xr:uid="{0423A68A-1876-4E09-BF60-F1755EBCE3AB}">
+      <formula1>$G$4:$G$8</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="E2" xr:uid="{8411DFAB-F2D8-4133-9077-433C303CD7DC}">
       <formula1>D:D&lt;H30</formula1>
@@ -11085,11 +11534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E99B85-0508-4B1D-9AD4-72DDC18D0BB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C13256-0E75-4D8E-BC68-9A6C377942E3}">
   <dimension ref="A1:Y369"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11109,7 +11558,7 @@
     <col min="13" max="13" width="17" style="13" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="136" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" style="158" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="155" customWidth="1"/>
     <col min="18" max="18" width="11" style="14" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" style="14" customWidth="1"/>
@@ -11122,33 +11571,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="240" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="242"/>
+      <c r="A1" s="250" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="252"/>
       <c r="G1" s="152">
         <v>2</v>
       </c>
       <c r="H1" s="161" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K1" s="153"/>
-      <c r="L1" s="197" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="214"/>
-      <c r="U1" s="198"/>
+      <c r="L1" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="196"/>
       <c r="V1" s="135"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11159,16 +11608,16 @@
         <v>101</v>
       </c>
       <c r="C2" s="150" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="150" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E2" s="151" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F2" s="151" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G2" s="141" t="s">
         <v>192</v>
@@ -11177,61 +11626,61 @@
         <v>193</v>
       </c>
       <c r="I2" s="141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" s="141" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" s="199">
+        <v>205</v>
+      </c>
+      <c r="L2" s="197">
         <v>6000</v>
       </c>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="243">
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="253">
         <v>6000</v>
       </c>
-      <c r="R2" s="243"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="243"/>
-      <c r="U2" s="243"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
       <c r="V2" s="135"/>
     </row>
     <row r="3" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B3" s="140">
         <v>45323</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="174">
         <v>34</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H3" s="138">
         <f>SUM(I3+J3)</f>
-        <v>7401.75</v>
+        <v>8950</v>
       </c>
       <c r="I3" s="138">
-        <f t="shared" ref="I3:I8" si="0">SUMIFS(E:E,A:A,$G$1,D:D,G3)</f>
-        <v>7401.75</v>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G3)</f>
+        <v>5650</v>
       </c>
       <c r="J3" s="138">
-        <f t="shared" ref="J3:J8" si="1">SUMIFS(F:F,A:A,$G$1,D:D,G3)</f>
-        <v>0</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G3)</f>
+        <v>3300</v>
       </c>
       <c r="K3" s="143">
         <v>5000</v>
@@ -11240,48 +11689,48 @@
         <v>7</v>
       </c>
       <c r="M3" s="137" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="137" t="s">
+        <v>245</v>
+      </c>
+      <c r="O3" s="137" t="s">
         <v>244</v>
-      </c>
-      <c r="N3" s="137" t="s">
-        <v>251</v>
-      </c>
-      <c r="O3" s="137" t="s">
-        <v>250</v>
       </c>
       <c r="P3" s="179" t="s">
         <v>50</v>
       </c>
       <c r="Q3" s="188" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="211" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" s="211" t="s">
+        <v>242</v>
+      </c>
+      <c r="R3" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="S3" s="209" t="s">
+        <v>258</v>
+      </c>
+      <c r="T3" s="213" t="s">
+        <v>263</v>
+      </c>
+      <c r="U3" s="159" t="s">
+        <v>265</v>
+      </c>
+      <c r="V3" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="T3" s="215" t="s">
-        <v>269</v>
-      </c>
-      <c r="U3" s="159" t="s">
-        <v>271</v>
-      </c>
-      <c r="V3" s="179" t="s">
-        <v>270</v>
-      </c>
       <c r="W3" s="179" t="s">
+        <v>262</v>
+      </c>
+      <c r="X3" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="X3" s="176" t="s">
-        <v>274</v>
-      </c>
       <c r="Y3" s="176" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B4" s="140">
@@ -11291,88 +11740,88 @@
         <v>151</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="175">
         <v>45</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="138">
         <f>SUM(I4+J4)</f>
-        <v>1481</v>
+        <v>2420</v>
       </c>
       <c r="I4" s="138">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G4)</f>
         <v>186</v>
       </c>
       <c r="J4" s="138">
-        <f t="shared" si="1"/>
-        <v>1295</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G4)</f>
+        <v>2234</v>
       </c>
       <c r="K4" s="143">
         <v>2000</v>
       </c>
-      <c r="L4" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M4" s="202">
+      <c r="L4" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="200">
         <v>2460</v>
       </c>
-      <c r="N4" s="203">
+      <c r="N4" s="201">
         <v>45328</v>
       </c>
-      <c r="O4" s="204">
+      <c r="O4" s="202">
         <v>45336</v>
       </c>
-      <c r="P4" s="205" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q4" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="R4" s="212">
+      <c r="P4" s="203" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q4" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R4" s="210">
         <v>1500</v>
       </c>
-      <c r="S4" s="212">
+      <c r="S4" s="210">
         <v>1000</v>
       </c>
-      <c r="T4" s="204">
+      <c r="T4" s="202">
         <v>45297</v>
       </c>
-      <c r="U4" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="U4" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>500</v>
       </c>
-      <c r="V4" s="205">
+      <c r="V4" s="203">
         <v>45297</v>
       </c>
-      <c r="W4" s="205" t="s">
-        <v>263</v>
-      </c>
-      <c r="X4" s="244">
-        <f>SUM(Table77[[#This Row],[payment2]]+R5+R6)</f>
+      <c r="W4" s="203" t="s">
+        <v>257</v>
+      </c>
+      <c r="X4" s="254">
+        <f>SUM(Table712[[#This Row],[payment2]]+R5+R6)</f>
         <v>3763</v>
       </c>
-      <c r="Y4" s="246">
-        <f>SUM(Table77[[#This Row],[DEBT]]+U5+U6)</f>
+      <c r="Y4" s="256">
+        <f>SUM(Table712[[#This Row],[DEBT]]+U5+U6)</f>
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B5" s="140">
         <v>45324</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E5" s="138">
         <v>3500</v>
@@ -11382,37 +11831,37 @@
         <v>12</v>
       </c>
       <c r="H5" s="138">
-        <f t="shared" ref="H5:H7" si="2">SUM(I5+J5)</f>
-        <v>480</v>
+        <f t="shared" ref="H5:H7" si="0">SUM(I5+J5)</f>
+        <v>860</v>
       </c>
       <c r="I5" s="138">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="138">
-        <f t="shared" si="1"/>
-        <v>480</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G5)</f>
+        <v>860</v>
       </c>
       <c r="K5" s="143">
         <v>1000</v>
       </c>
-      <c r="L5" s="206" t="s">
-        <v>246</v>
+      <c r="L5" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M5" s="191">
         <v>7200</v>
       </c>
-      <c r="N5" s="207">
+      <c r="N5" s="205">
         <v>45324</v>
       </c>
-      <c r="O5" s="200">
+      <c r="O5" s="198">
         <v>45324</v>
       </c>
       <c r="P5" s="184" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="R5" s="14">
         <v>1763</v>
@@ -11424,166 +11873,170 @@
         <v>45297</v>
       </c>
       <c r="U5" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-237</v>
       </c>
       <c r="V5" s="180">
         <v>45297</v>
       </c>
       <c r="W5" s="182" t="s">
-        <v>263</v>
-      </c>
-      <c r="X5" s="245"/>
-      <c r="Y5" s="247"/>
+        <v>257</v>
+      </c>
+      <c r="X5" s="255"/>
+      <c r="Y5" s="257"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B6" s="140">
         <v>45324</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E6" s="138">
         <v>2000</v>
       </c>
       <c r="F6" s="175"/>
       <c r="G6" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H6" s="138">
-        <f t="shared" si="2"/>
-        <v>1019</v>
+        <f t="shared" si="0"/>
+        <v>2534</v>
       </c>
       <c r="I6" s="138">
-        <f t="shared" si="0"/>
-        <v>856</v>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G6)</f>
+        <v>882</v>
       </c>
       <c r="J6" s="138">
-        <f t="shared" si="1"/>
-        <v>163</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G6)</f>
+        <v>1652</v>
       </c>
       <c r="K6" s="143">
         <v>2000</v>
       </c>
-      <c r="L6" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M6" s="202"/>
+      <c r="L6" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="200"/>
       <c r="N6" s="186"/>
-      <c r="O6" s="204">
+      <c r="O6" s="202">
         <v>45365</v>
       </c>
-      <c r="P6" s="205" t="s">
-        <v>253</v>
+      <c r="P6" s="203" t="s">
+        <v>247</v>
       </c>
       <c r="Q6" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="R6" s="213">
+        <v>261</v>
+      </c>
+      <c r="R6" s="211">
         <v>500</v>
       </c>
-      <c r="S6" s="213">
+      <c r="S6" s="211">
         <v>500</v>
       </c>
-      <c r="T6" s="200">
+      <c r="T6" s="198">
         <v>45297</v>
       </c>
-      <c r="U6" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="216">
+      <c r="U6" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="214">
         <v>45297</v>
       </c>
       <c r="W6" s="184" t="s">
-        <v>263</v>
-      </c>
-      <c r="X6" s="245"/>
-      <c r="Y6" s="247"/>
+        <v>257</v>
+      </c>
+      <c r="X6" s="255"/>
+      <c r="Y6" s="257"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B7" s="140">
         <v>45324</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="174">
         <v>110</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="I7" s="138">
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G7)</f>
         <v>100</v>
       </c>
-      <c r="I7" s="138">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J7" s="138">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G7)</f>
+        <v>235</v>
       </c>
       <c r="K7" s="143">
         <v>1000</v>
       </c>
-      <c r="L7" s="206" t="s">
+      <c r="L7" s="204" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" s="191">
+        <v>3141</v>
+      </c>
+      <c r="N7" s="205">
+        <v>45342</v>
+      </c>
+      <c r="O7" s="198">
+        <v>45350</v>
+      </c>
+      <c r="P7" s="184" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q7" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R7" s="210"/>
+      <c r="S7" s="210">
+        <v>1500</v>
+      </c>
+      <c r="T7" s="202"/>
+      <c r="U7" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
+        <v>-1500</v>
+      </c>
+      <c r="V7" s="203">
+        <v>45328</v>
+      </c>
+      <c r="W7" s="203" t="s">
         <v>246</v>
       </c>
-      <c r="M7" s="191"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="200">
-        <v>45350</v>
-      </c>
-      <c r="P7" s="184" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q7" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="R7" s="212"/>
-      <c r="S7" s="212">
-        <v>1500</v>
-      </c>
-      <c r="T7" s="204"/>
-      <c r="U7" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
-        <v>-1500</v>
-      </c>
-      <c r="V7" s="205">
-        <v>45328</v>
-      </c>
-      <c r="W7" s="205" t="s">
-        <v>252</v>
-      </c>
-      <c r="X7" s="244">
-        <f>SUM(Table77[[#This Row],[payment2]]+R8+R9)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="246">
-        <f>SUM(Table77[[#This Row],[DEBT]]+U8+U9)</f>
+      <c r="X7" s="254">
+        <f>SUM(Table712[[#This Row],[payment2]]+R8+R9)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="256">
+        <f>SUM(Table712[[#This Row],[DEBT]]+U8+U9)</f>
         <v>-5500</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B8" s="140">
@@ -11593,72 +12046,72 @@
         <v>152</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="175">
         <v>100</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="138">
         <f>SUM(I8+J8)</f>
-        <v>1619</v>
+        <v>3410.75</v>
       </c>
       <c r="I8" s="138">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUMIFS(E:E,A:A,$G$1,D:D,G8)</f>
+        <v>1751.75</v>
       </c>
       <c r="J8" s="138">
-        <f t="shared" si="1"/>
-        <v>1619</v>
+        <f>SUMIFS(F:F,A:A,$G$1,D:D,G8)</f>
+        <v>1659</v>
       </c>
       <c r="K8" s="143">
         <v>2000</v>
       </c>
-      <c r="L8" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" s="202"/>
+      <c r="L8" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M8" s="200"/>
       <c r="N8" s="186"/>
-      <c r="O8" s="204">
+      <c r="O8" s="202">
         <v>45396</v>
       </c>
-      <c r="P8" s="205" t="s">
-        <v>254</v>
+      <c r="P8" s="203" t="s">
+        <v>248</v>
       </c>
       <c r="Q8" s="189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S8" s="14">
         <v>3000</v>
       </c>
       <c r="U8" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-3000</v>
       </c>
       <c r="V8" s="180">
         <v>45328</v>
       </c>
       <c r="W8" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="X8" s="245"/>
-      <c r="Y8" s="247"/>
+        <v>246</v>
+      </c>
+      <c r="X8" s="255"/>
+      <c r="Y8" s="257"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B9" s="140">
         <v>45326</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="174">
         <v>24</v>
@@ -11667,61 +12120,61 @@
       <c r="H9" s="138"/>
       <c r="I9" s="142">
         <f>SUM(I3:I8)</f>
-        <v>8443.75</v>
+        <v>8569.75</v>
       </c>
       <c r="J9" s="142">
         <f>SUM(J3:J8)</f>
-        <v>3657</v>
+        <v>9940</v>
       </c>
       <c r="K9" s="160">
         <f>SUM(K4:K8)</f>
         <v>8000</v>
       </c>
-      <c r="L9" s="206" t="s">
-        <v>246</v>
+      <c r="L9" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M9" s="191"/>
       <c r="N9" s="183"/>
-      <c r="O9" s="200">
+      <c r="O9" s="198">
         <v>45379</v>
       </c>
       <c r="P9" s="184" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="R9" s="213"/>
-      <c r="S9" s="213">
+        <v>261</v>
+      </c>
+      <c r="R9" s="211"/>
+      <c r="S9" s="211">
         <v>1000</v>
       </c>
-      <c r="T9" s="200"/>
-      <c r="U9" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T9" s="198"/>
+      <c r="U9" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V9" s="216">
+      <c r="V9" s="214">
         <v>45328</v>
       </c>
       <c r="W9" s="184" t="s">
-        <v>252</v>
-      </c>
-      <c r="X9" s="245"/>
-      <c r="Y9" s="247"/>
+        <v>246</v>
+      </c>
+      <c r="X9" s="255"/>
+      <c r="Y9" s="257"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B10" s="140">
         <v>45326</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="175">
         <v>25</v>
@@ -11733,96 +12186,96 @@
       <c r="K10" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="L10" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M10" s="202"/>
+      <c r="L10" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" s="200"/>
       <c r="N10" s="186"/>
-      <c r="O10" s="204">
+      <c r="O10" s="202">
         <v>45426</v>
       </c>
-      <c r="P10" s="205" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q10" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="R10" s="212"/>
-      <c r="S10" s="212">
+      <c r="P10" s="203" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q10" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R10" s="210"/>
+      <c r="S10" s="210">
         <v>1500</v>
       </c>
-      <c r="T10" s="204"/>
-      <c r="U10" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T10" s="202"/>
+      <c r="U10" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V10" s="205">
+      <c r="V10" s="203">
         <v>45357</v>
       </c>
-      <c r="W10" s="205" t="s">
-        <v>253</v>
-      </c>
-      <c r="X10" s="244">
-        <f>SUM(Table77[[#This Row],[payment2]]+R11+R12)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="246">
-        <f>SUM(Table77[[#This Row],[DEBT]]+U11+U12)</f>
+      <c r="W10" s="203" t="s">
+        <v>247</v>
+      </c>
+      <c r="X10" s="254">
+        <f>SUM(Table712[[#This Row],[payment2]]+R11+R12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="256">
+        <f>SUM(Table712[[#This Row],[DEBT]]+U11+U12)</f>
         <v>-5500</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B11" s="140">
         <v>45326</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="174">
         <v>80</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="138"/>
-      <c r="L11" s="206" t="s">
-        <v>246</v>
+      <c r="L11" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M11" s="191"/>
       <c r="N11" s="183"/>
-      <c r="O11" s="200">
+      <c r="O11" s="198">
         <v>45410</v>
       </c>
       <c r="P11" s="184" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S11" s="14">
         <v>3000</v>
       </c>
       <c r="U11" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-3000</v>
       </c>
       <c r="V11" s="180">
         <v>45357</v>
       </c>
       <c r="W11" s="182" t="s">
-        <v>253</v>
-      </c>
-      <c r="X11" s="245"/>
-      <c r="Y11" s="247"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="X11" s="255"/>
+      <c r="Y11" s="257"/>
+    </row>
+    <row r="12" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B12" s="140">
@@ -11832,7 +12285,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="175">
         <v>204</v>
@@ -11843,60 +12296,58 @@
       <c r="H12" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="194" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="192" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="L12" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M12" s="202"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="220" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="L12" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M12" s="200"/>
       <c r="N12" s="186"/>
-      <c r="O12" s="204">
+      <c r="O12" s="202">
         <v>45457</v>
       </c>
-      <c r="P12" s="205" t="s">
-        <v>256</v>
+      <c r="P12" s="203" t="s">
+        <v>250</v>
       </c>
       <c r="Q12" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="R12" s="213"/>
-      <c r="S12" s="213">
+        <v>261</v>
+      </c>
+      <c r="R12" s="211"/>
+      <c r="S12" s="211">
         <v>1000</v>
       </c>
-      <c r="T12" s="200"/>
-      <c r="U12" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T12" s="198"/>
+      <c r="U12" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V12" s="216">
+      <c r="V12" s="214">
         <v>45357</v>
       </c>
       <c r="W12" s="184" t="s">
-        <v>253</v>
-      </c>
-      <c r="X12" s="245"/>
-      <c r="Y12" s="247"/>
+        <v>247</v>
+      </c>
+      <c r="X12" s="255"/>
+      <c r="Y12" s="257"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B13" s="140">
         <v>45327</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="138">
         <v>89</v>
@@ -11906,54 +12357,58 @@
         <v>6</v>
       </c>
       <c r="H13" s="157">
-        <f>SUMIFS(Table54[INCOME],Table54[MONTH],$G$1,Table54[CATEGORY],G13)</f>
+        <f>SUMIFS(Table511[INCOME],Table511[MONTH],$G$1,Table511[CATEGORY],G13)</f>
         <v>-32</v>
       </c>
-      <c r="I13" s="195" t="s">
-        <v>217</v>
-      </c>
-      <c r="J13" s="149"/>
-      <c r="L13" s="206" t="s">
-        <v>246</v>
+      <c r="I13" s="193"/>
+      <c r="J13" s="218" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="223">
+        <f>SUM(K4-H4)</f>
+        <v>-420</v>
+      </c>
+      <c r="L13" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M13" s="191"/>
       <c r="N13" s="183"/>
-      <c r="O13" s="200">
+      <c r="O13" s="198">
         <v>45440</v>
       </c>
       <c r="P13" s="184" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q13" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="R13" s="212"/>
-      <c r="S13" s="212">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="206" t="s">
+        <v>259</v>
+      </c>
+      <c r="R13" s="210"/>
+      <c r="S13" s="210">
         <v>1500</v>
       </c>
-      <c r="T13" s="204"/>
-      <c r="U13" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T13" s="202"/>
+      <c r="U13" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V13" s="205">
+      <c r="V13" s="203">
         <v>45388</v>
       </c>
-      <c r="W13" s="205" t="s">
-        <v>254</v>
-      </c>
-      <c r="X13" s="244">
-        <f>SUM(Table77[[#This Row],[payment2]]+R14+R15)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="246">
-        <f>SUM(Table77[[#This Row],[DEBT]]+U14+U15)</f>
+      <c r="W13" s="203" t="s">
+        <v>248</v>
+      </c>
+      <c r="X13" s="254">
+        <f>SUM(Table712[[#This Row],[payment2]]+R14+R15)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="256">
+        <f>SUM(Table712[[#This Row],[DEBT]]+U14+U15)</f>
         <v>-5500</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B14" s="140">
@@ -11963,112 +12418,123 @@
         <v>150</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="175">
         <v>26</v>
       </c>
       <c r="G14" s="149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H14" s="157">
-        <f>SUMIFS(Table54[INCOME],Table54[MONTH],$G$1,Table54[CATEGORY],G14)</f>
+        <f>SUMIFS(Table511[INCOME],Table511[MONTH],$G$1,Table511[CATEGORY],G14)</f>
         <v>19466.68</v>
       </c>
-      <c r="I14" s="195" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="149"/>
-      <c r="L14" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M14" s="202"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="223">
+        <f>SUM(K5-H5)</f>
+        <v>140</v>
+      </c>
+      <c r="L14" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M14" s="200"/>
       <c r="N14" s="186"/>
-      <c r="O14" s="204">
+      <c r="O14" s="202">
         <v>45487</v>
       </c>
-      <c r="P14" s="205" t="s">
-        <v>257</v>
+      <c r="P14" s="203" t="s">
+        <v>251</v>
       </c>
       <c r="Q14" s="189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S14" s="14">
         <v>3000</v>
       </c>
       <c r="U14" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-3000</v>
       </c>
       <c r="V14" s="180">
         <v>45388</v>
       </c>
       <c r="W14" s="182" t="s">
-        <v>254</v>
-      </c>
-      <c r="X14" s="245"/>
-      <c r="Y14" s="247"/>
+        <v>248</v>
+      </c>
+      <c r="X14" s="255"/>
+      <c r="Y14" s="257"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B15" s="140">
         <v>45328</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="174">
         <v>29</v>
       </c>
       <c r="G15" s="149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="157">
-        <f>SUMIFS(Table54[INCOME],Table54[MONTH],$G$1,Table54[CATEGORY],G15)</f>
-        <v>800</v>
-      </c>
-      <c r="I15" s="196"/>
-      <c r="L15" s="206" t="s">
-        <v>246</v>
+        <f>SUMIFS(Table511[INCOME],Table511[MONTH],$G$1,Table511[CATEGORY],G15)</f>
+        <v>1060</v>
+      </c>
+      <c r="I15" s="194"/>
+      <c r="J15" s="181" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" s="223">
+        <f>SUM(K6-H6)</f>
+        <v>-534</v>
+      </c>
+      <c r="L15" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M15" s="191"/>
       <c r="N15" s="183"/>
-      <c r="O15" s="200">
+      <c r="O15" s="198">
         <v>45471</v>
       </c>
       <c r="P15" s="184" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q15" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213">
+        <v>261</v>
+      </c>
+      <c r="R15" s="211"/>
+      <c r="S15" s="211">
         <v>1000</v>
       </c>
-      <c r="T15" s="200"/>
-      <c r="U15" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T15" s="198"/>
+      <c r="U15" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V15" s="216">
+      <c r="V15" s="214">
         <v>45388</v>
       </c>
       <c r="W15" s="184" t="s">
-        <v>254</v>
-      </c>
-      <c r="X15" s="245"/>
-      <c r="Y15" s="247"/>
+        <v>248</v>
+      </c>
+      <c r="X15" s="255"/>
+      <c r="Y15" s="257"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B16" s="140">
@@ -12084,44 +12550,51 @@
         <v>100</v>
       </c>
       <c r="G16" s="149" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H16" s="157">
-        <f>SUMIFS(Table54[INCOME],Table54[MONTH],$G$1,Table54[CATEGORY],G16)</f>
-        <v>100</v>
-      </c>
-      <c r="I16" s="196"/>
-      <c r="L16" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M16" s="202"/>
+        <f>SUMIFS(Table511[INCOME],Table511[MONTH],$G$1,Table511[CATEGORY],G16)</f>
+        <v>250</v>
+      </c>
+      <c r="I16" s="194"/>
+      <c r="J16" s="218" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="223">
+        <f>SUM(K7-H7)</f>
+        <v>665</v>
+      </c>
+      <c r="L16" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="200"/>
       <c r="N16" s="186"/>
-      <c r="O16" s="204">
+      <c r="O16" s="202">
         <v>45518</v>
       </c>
-      <c r="P16" s="205" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q16" s="208"/>
-      <c r="R16" s="212"/>
-      <c r="S16" s="212">
+      <c r="P16" s="203" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q16" s="206"/>
+      <c r="R16" s="210"/>
+      <c r="S16" s="210">
         <v>1500</v>
       </c>
-      <c r="T16" s="204"/>
-      <c r="U16" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T16" s="202"/>
+      <c r="U16" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V16" s="205">
+      <c r="V16" s="203">
         <v>45418</v>
       </c>
-      <c r="W16" s="205" t="s">
-        <v>255</v>
+      <c r="W16" s="203" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B17" s="140">
@@ -12131,7 +12604,7 @@
         <v>150</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="174">
         <v>26</v>
@@ -12139,135 +12612,142 @@
       <c r="G17" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="193">
+      <c r="H17" s="192">
         <f>SUM(H14:H16)</f>
-        <v>20366.68</v>
-      </c>
-      <c r="I17" s="196"/>
-      <c r="L17" s="206" t="s">
-        <v>246</v>
+        <v>20776.68</v>
+      </c>
+      <c r="I17" s="194"/>
+      <c r="J17" s="217" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="224">
+        <f>SUM(K13:K16)</f>
+        <v>-149</v>
+      </c>
+      <c r="L17" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M17" s="191"/>
       <c r="N17" s="183"/>
-      <c r="O17" s="200">
+      <c r="O17" s="198">
         <v>45501</v>
       </c>
       <c r="P17" s="184" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="189"/>
       <c r="S17" s="14">
         <v>3000</v>
       </c>
       <c r="U17" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-3000</v>
       </c>
       <c r="V17" s="180">
         <v>45418</v>
       </c>
       <c r="W17" s="182" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B18" s="140">
         <v>45330</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="138">
         <v>150</v>
       </c>
       <c r="F18" s="175"/>
-      <c r="I18" s="196"/>
-      <c r="L18" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M18" s="202"/>
+      <c r="I18" s="194"/>
+      <c r="L18" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M18" s="200"/>
       <c r="N18" s="186"/>
-      <c r="O18" s="204">
+      <c r="O18" s="202">
         <v>45549</v>
       </c>
-      <c r="P18" s="205" t="s">
-        <v>259</v>
+      <c r="P18" s="203" t="s">
+        <v>253</v>
       </c>
       <c r="Q18" s="190"/>
-      <c r="R18" s="213"/>
-      <c r="S18" s="213">
+      <c r="R18" s="211"/>
+      <c r="S18" s="211">
         <v>1000</v>
       </c>
-      <c r="T18" s="200"/>
-      <c r="U18" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T18" s="198"/>
+      <c r="U18" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V18" s="216">
+      <c r="V18" s="214">
         <v>45418</v>
       </c>
       <c r="W18" s="184" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B19" s="140">
         <v>45331</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="174">
         <v>200</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="138"/>
-      <c r="I19" s="196"/>
-      <c r="L19" s="206" t="s">
-        <v>246</v>
+      <c r="I19" s="194"/>
+      <c r="L19" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M19" s="191"/>
       <c r="N19" s="183"/>
-      <c r="O19" s="200">
+      <c r="O19" s="198">
         <v>45532</v>
       </c>
       <c r="P19" s="184" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q19" s="208"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="212">
+        <v>253</v>
+      </c>
+      <c r="Q19" s="206"/>
+      <c r="R19" s="210"/>
+      <c r="S19" s="210">
         <v>1500</v>
       </c>
-      <c r="T19" s="204"/>
-      <c r="U19" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T19" s="202"/>
+      <c r="U19" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1500</v>
       </c>
-      <c r="V19" s="205">
+      <c r="V19" s="203">
         <v>45449</v>
       </c>
-      <c r="W19" s="205" t="s">
-        <v>256</v>
+      <c r="W19" s="203" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B20" s="140">
@@ -12284,193 +12764,197 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="138"/>
-      <c r="I20" s="196"/>
-      <c r="L20" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M20" s="202"/>
+      <c r="I20" s="194"/>
+      <c r="L20" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M20" s="200"/>
       <c r="N20" s="186"/>
-      <c r="O20" s="204">
+      <c r="O20" s="202">
         <v>45579</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="189"/>
       <c r="S20" s="14">
         <v>3000</v>
       </c>
       <c r="U20" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-3000</v>
       </c>
       <c r="V20" s="180">
         <v>45449</v>
       </c>
       <c r="W20" s="182" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B21" s="140">
         <v>45332</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="174">
         <v>100</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H21" s="138">
         <f>SUM(I21+J21)</f>
-        <v>7401.75</v>
+        <v>8950</v>
       </c>
       <c r="I21" s="138">
         <f>SUMIFS(E:E,A:A,$G$1,D:D,G21)</f>
-        <v>7401.75</v>
+        <v>5650</v>
       </c>
       <c r="J21" s="138">
         <f>SUMIFS(F:F,A:A,$G$1,D:D,G21)</f>
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="K21" s="143">
         <v>5000</v>
       </c>
-      <c r="L21" s="206" t="s">
-        <v>246</v>
+      <c r="L21" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M21" s="191"/>
       <c r="N21" s="183"/>
-      <c r="O21" s="200">
+      <c r="O21" s="198">
         <v>45563</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q21" s="190"/>
-      <c r="R21" s="213"/>
-      <c r="S21" s="213">
+      <c r="R21" s="211"/>
+      <c r="S21" s="211">
         <v>1000</v>
       </c>
-      <c r="T21" s="200"/>
-      <c r="U21" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="T21" s="198"/>
+      <c r="U21" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>-1000</v>
       </c>
-      <c r="V21" s="216">
+      <c r="V21" s="214">
         <v>45449</v>
       </c>
       <c r="W21" s="184" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B22" s="140">
         <v>45332</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E22" s="138">
         <v>150</v>
       </c>
       <c r="F22" s="175"/>
       <c r="G22" s="138" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="157">
-        <f>SUMIFS(Table54[INCOME],Table54[MONTH],$G$1,Table54[CATEGORY],G22)</f>
+        <v>217</v>
+      </c>
+      <c r="H22" s="138">
+        <f>SUM(I22+I27)</f>
+        <v>12493.75</v>
+      </c>
+      <c r="I22" s="157">
+        <f>SUMIFS(Table511[INCOME],Table511[MONTH],$G$1,Table511[CATEGORY],G22)</f>
         <v>3924</v>
       </c>
-      <c r="L22" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M22" s="202"/>
+      <c r="L22" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M22" s="200"/>
       <c r="N22" s="186"/>
-      <c r="O22" s="204">
+      <c r="O22" s="202">
         <v>45610</v>
       </c>
-      <c r="P22" s="205" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q22" s="208"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="204"/>
-      <c r="U22" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="205"/>
-      <c r="W22" s="205" t="s">
-        <v>257</v>
+      <c r="P22" s="203" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q22" s="206"/>
+      <c r="R22" s="210"/>
+      <c r="S22" s="210"/>
+      <c r="T22" s="202"/>
+      <c r="U22" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="203"/>
+      <c r="W22" s="203" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B23" s="140">
         <v>45333</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="174">
         <v>100</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H23" s="138">
-        <f>SUM(H22-H21)</f>
-        <v>-3477.75</v>
-      </c>
-      <c r="L23" s="206" t="s">
-        <v>246</v>
+        <v>280</v>
+      </c>
+      <c r="H23" s="225">
+        <f>SUM(H21-H22)</f>
+        <v>-3543.75</v>
+      </c>
+      <c r="L23" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M23" s="191"/>
       <c r="N23" s="183"/>
-      <c r="O23" s="200">
+      <c r="O23" s="198">
         <v>45593</v>
       </c>
       <c r="P23" s="184" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="189"/>
       <c r="U23" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V23" s="182"/>
       <c r="W23" s="182" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B24" s="140">
@@ -12485,34 +12969,33 @@
       <c r="F24" s="175">
         <v>100</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="L24" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M24" s="202"/>
+      <c r="L24" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" s="200"/>
       <c r="N24" s="186"/>
-      <c r="O24" s="204">
+      <c r="O24" s="202">
         <v>45640</v>
       </c>
       <c r="P24" s="187" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q24" s="190"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="200"/>
-      <c r="U24" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="R24" s="211"/>
+      <c r="S24" s="211"/>
+      <c r="T24" s="198"/>
+      <c r="U24" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V24" s="184"/>
       <c r="W24" s="184" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B25" s="140">
@@ -12522,47 +13005,52 @@
         <v>150</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E25" s="138">
         <v>26</v>
       </c>
       <c r="F25" s="174"/>
-      <c r="G25" s="13"/>
-      <c r="L25" s="206" t="s">
-        <v>246</v>
+      <c r="G25" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="138">
+        <v>2000</v>
+      </c>
+      <c r="L25" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M25" s="191"/>
       <c r="N25" s="183"/>
-      <c r="O25" s="200">
+      <c r="O25" s="198">
         <v>45624</v>
       </c>
       <c r="P25" s="184" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q25" s="208"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="212"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="205"/>
-      <c r="W25" s="205" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="202"/>
+      <c r="U25" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="203"/>
+      <c r="W25" s="203" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B26" s="140">
         <v>45334</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>12</v>
@@ -12572,43 +13060,43 @@
       </c>
       <c r="G26" s="13"/>
       <c r="I26" s="150" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J26" s="150" t="s">
         <v>94</v>
       </c>
       <c r="K26" s="163"/>
-      <c r="L26" s="201" t="s">
-        <v>245</v>
-      </c>
-      <c r="M26" s="202"/>
+      <c r="L26" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" s="200"/>
       <c r="N26" s="186"/>
-      <c r="O26" s="204">
+      <c r="O26" s="202">
         <v>45305</v>
       </c>
       <c r="P26" s="187" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q26" s="189"/>
       <c r="U26" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V26" s="182"/>
       <c r="W26" s="182" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B27" s="140">
         <v>45334</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>12</v>
@@ -12617,114 +13105,114 @@
         <v>50</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H27" s="145">
         <f>SUM(I27+J27)</f>
-        <v>12100.75</v>
+        <v>18509.75</v>
       </c>
       <c r="I27" s="145">
         <f>SUM(E:E)</f>
-        <v>8443.75</v>
+        <v>8569.75</v>
       </c>
       <c r="J27" s="146">
         <f>SUM(F:F)</f>
-        <v>3657</v>
-      </c>
-      <c r="L27" s="206" t="s">
-        <v>246</v>
+        <v>9940</v>
+      </c>
+      <c r="L27" s="204" t="s">
+        <v>241</v>
       </c>
       <c r="M27" s="191"/>
       <c r="N27" s="183"/>
-      <c r="O27" s="200">
+      <c r="O27" s="198">
         <v>45654</v>
       </c>
       <c r="P27" s="184" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q27" s="190"/>
-      <c r="R27" s="213"/>
-      <c r="S27" s="213"/>
-      <c r="T27" s="200"/>
-      <c r="U27" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="R27" s="211"/>
+      <c r="S27" s="211"/>
+      <c r="T27" s="198"/>
+      <c r="U27" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V27" s="184"/>
       <c r="W27" s="184" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B28" s="140">
         <v>45334</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E28" s="138">
         <v>95</v>
       </c>
       <c r="F28" s="175"/>
       <c r="G28" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H28" s="145">
         <f>SUM(H29-H27)</f>
-        <v>-4100.75</v>
+        <v>-10509.75</v>
       </c>
       <c r="I28" s="145">
         <f>SUM(I29-I27)</f>
-        <v>-4443.75</v>
+        <v>-4569.75</v>
       </c>
       <c r="J28" s="145">
         <f>SUM(J29-J27)</f>
-        <v>343</v>
+        <v>-5940</v>
       </c>
       <c r="L28" s="181"/>
       <c r="M28" s="138"/>
       <c r="N28" s="13"/>
       <c r="O28" s="12"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="208"/>
-      <c r="R28" s="212"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="204"/>
-      <c r="U28" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="206"/>
+      <c r="R28" s="210"/>
+      <c r="S28" s="210"/>
+      <c r="T28" s="202"/>
+      <c r="U28" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="203"/>
+      <c r="W28" s="203" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B29" s="140">
         <v>45335</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="174">
         <v>138</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H29" s="145">
         <v>8000</v>
@@ -12737,45 +13225,49 @@
         <f>SUM(K9/2)</f>
         <v>4000</v>
       </c>
-      <c r="L29" s="181"/>
-      <c r="M29" s="138"/>
+      <c r="L29" s="181" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" s="228">
+        <v>5601</v>
+      </c>
       <c r="N29" s="13"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="189"/>
       <c r="U29" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V29" s="182"/>
       <c r="W29" s="182" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B30" s="140">
         <v>45336</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="138">
         <v>63</v>
       </c>
       <c r="F30" s="175"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="218" t="s">
-        <v>272</v>
-      </c>
-      <c r="I30" s="217">
-        <v>45350</v>
+      <c r="H30" s="216" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="215" t="s">
+        <v>279</v>
       </c>
       <c r="J30" s="146"/>
       <c r="L30" s="181"/>
@@ -12784,42 +13276,42 @@
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="190"/>
-      <c r="R30" s="213"/>
-      <c r="S30" s="213"/>
-      <c r="T30" s="200"/>
-      <c r="U30" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="R30" s="211"/>
+      <c r="S30" s="211"/>
+      <c r="T30" s="198"/>
+      <c r="U30" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V30" s="184"/>
       <c r="W30" s="184" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B31" s="140">
         <v>45336</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E31" s="138">
         <v>36</v>
       </c>
       <c r="F31" s="174"/>
       <c r="G31" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H31" s="147">
         <f>SUM(H27+I27+J27)</f>
-        <v>24201.5</v>
+        <v>37019.5</v>
       </c>
       <c r="I31" s="147"/>
       <c r="J31" s="147"/>
@@ -12828,22 +13320,22 @@
       <c r="N31" s="13"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="208"/>
-      <c r="R31" s="212"/>
-      <c r="S31" s="212"/>
-      <c r="T31" s="204"/>
-      <c r="U31" s="212">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="Q31" s="206"/>
+      <c r="R31" s="210"/>
+      <c r="S31" s="210"/>
+      <c r="T31" s="202"/>
+      <c r="U31" s="210">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V31" s="187"/>
       <c r="W31" s="187" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B32" s="140">
@@ -12853,13 +13345,13 @@
         <v>150</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="175">
         <v>26</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H32" s="148">
         <f>SUM(K9+Q2+L2)</f>
@@ -12874,17 +13366,17 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="189"/>
       <c r="U32" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V32" s="182"/>
       <c r="W32" s="182" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B33" s="140">
@@ -12913,31 +13405,31 @@
       <c r="O33" s="12"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="190"/>
-      <c r="R33" s="213"/>
-      <c r="S33" s="213"/>
-      <c r="T33" s="200"/>
-      <c r="U33" s="213">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+      <c r="R33" s="211"/>
+      <c r="S33" s="211"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="211">
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V33" s="184"/>
       <c r="W33" s="184" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B34" s="140">
         <v>45338</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F34" s="175">
         <v>461</v>
@@ -12951,41 +13443,32 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="189"/>
       <c r="U34" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V34" s="180"/>
-      <c r="W34" s="205" t="s">
-        <v>260</v>
+      <c r="W34" s="203" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B35" s="140">
         <v>45324</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F35" s="174">
         <v>1158</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H35" s="143">
-        <f>SUM(I32-K9)</f>
-        <v>-8000</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>195</v>
-      </c>
+      <c r="H35" s="143"/>
       <c r="L35" s="181"/>
       <c r="M35" s="138"/>
       <c r="N35" s="13"/>
@@ -12993,58 +13476,53 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="189"/>
       <c r="U35" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V35" s="182"/>
       <c r="W35" s="182" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B36" s="140">
         <v>45338</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
+      <c r="C36" s="26" t="s">
+        <v>238</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="175">
+        <v>202</v>
+      </c>
+      <c r="E36" s="138">
         <v>100</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="I36" s="138">
-        <v>2000</v>
-      </c>
+      <c r="F36" s="175"/>
       <c r="L36" s="181"/>
       <c r="M36" s="138"/>
       <c r="N36" s="13"/>
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="190"/>
-      <c r="R36" s="213"/>
-      <c r="S36" s="213"/>
-      <c r="T36" s="200"/>
+      <c r="R36" s="211"/>
+      <c r="S36" s="211"/>
+      <c r="T36" s="198"/>
       <c r="U36" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V36" s="182"/>
       <c r="W36" s="184" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B37" s="140">
@@ -13054,7 +13532,7 @@
         <v>150</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="174">
         <v>26</v>
@@ -13064,37 +13542,36 @@
       <c r="N37" s="13"/>
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="208"/>
-      <c r="R37" s="212"/>
-      <c r="S37" s="212"/>
-      <c r="T37" s="204"/>
+      <c r="Q37" s="206"/>
+      <c r="R37" s="210"/>
+      <c r="S37" s="210"/>
+      <c r="T37" s="202"/>
       <c r="U37" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V37" s="182"/>
       <c r="W37" s="187" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B38" s="140">
         <v>45338</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="175">
         <v>165</v>
       </c>
-      <c r="G38" s="13"/>
       <c r="L38" s="181"/>
       <c r="M38" s="138"/>
       <c r="N38" s="13"/>
@@ -13102,27 +13579,27 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="189"/>
       <c r="U38" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V38" s="182"/>
       <c r="W38" s="182" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B39" s="140">
         <v>45338</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="E39" s="138">
         <v>1751.75</v>
@@ -13132,7 +13609,7 @@
         <v>154</v>
       </c>
       <c r="H39" s="144" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I39" s="137" t="s">
         <v>101</v>
@@ -13146,31 +13623,31 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="190"/>
-      <c r="R39" s="213"/>
-      <c r="S39" s="213"/>
-      <c r="T39" s="200"/>
+      <c r="R39" s="211"/>
+      <c r="S39" s="211"/>
+      <c r="T39" s="198"/>
       <c r="U39" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V39" s="182"/>
       <c r="W39" s="184" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
       <c r="B40" s="140">
         <v>45338</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E40" s="138">
         <v>583</v>
@@ -13180,7 +13657,7 @@
         <v>9404</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I40" s="139">
         <v>45324</v>
@@ -13194,36 +13671,47 @@
       <c r="N40" s="13"/>
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="208"/>
-      <c r="R40" s="212"/>
-      <c r="S40" s="212"/>
-      <c r="T40" s="204"/>
+      <c r="Q40" s="206"/>
+      <c r="R40" s="210"/>
+      <c r="S40" s="210"/>
+      <c r="T40" s="202"/>
       <c r="U40" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V40" s="182"/>
-      <c r="W40" s="209" t="s">
-        <v>263</v>
+      <c r="W40" s="207" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F41" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B41" s="140">
+        <v>45338</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="174">
+        <v>15</v>
+      </c>
       <c r="G41" s="143">
         <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I41" s="139">
         <v>45325</v>
       </c>
       <c r="J41" s="13">
-        <f t="shared" ref="J41:J62" si="3">MONTH(I41)</f>
+        <f t="shared" ref="J41:J62" si="1">MONTH(I41)</f>
         <v>2</v>
       </c>
       <c r="L41" s="181"/>
@@ -13233,71 +13721,91 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="189"/>
       <c r="U41" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V41" s="182"/>
       <c r="W41" s="182" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B42" s="140">
+        <v>45338</v>
+      </c>
+      <c r="C42" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="F42" s="175"/>
       <c r="G42" s="143">
         <v>10062.68</v>
       </c>
       <c r="H42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I42" s="156">
         <v>45338</v>
       </c>
       <c r="J42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L42" s="256"/>
+      <c r="L42" s="219"/>
       <c r="M42" s="191"/>
       <c r="N42" s="183"/>
-      <c r="O42" s="200"/>
+      <c r="O42" s="198"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="190"/>
-      <c r="R42" s="213"/>
-      <c r="S42" s="213"/>
-      <c r="T42" s="200"/>
+      <c r="R42" s="211"/>
+      <c r="S42" s="211"/>
+      <c r="T42" s="198"/>
       <c r="U42" s="14">
-        <f>SUM(Table77[[#This Row],[payment2]]-Table77[[#This Row],[BALANCE TO PAY]])</f>
+        <f>SUM(Table712[[#This Row],[payment2]]-Table712[[#This Row],[BALANCE TO PAY]])</f>
         <v>0</v>
       </c>
       <c r="V42" s="182"/>
       <c r="W42" s="184" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B43" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="174">
+        <v>180</v>
+      </c>
       <c r="G43" s="143">
         <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I43" s="156">
         <v>45326</v>
       </c>
       <c r="J43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L43" s="260"/>
+      <c r="L43" s="138"/>
       <c r="M43" s="138"/>
       <c r="N43" s="13"/>
       <c r="O43" s="12"/>
@@ -13305,104 +13813,157 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B44" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C44" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="175">
+        <v>135</v>
+      </c>
       <c r="G44" s="143">
         <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I44" s="156">
         <v>45330</v>
       </c>
       <c r="J44" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K44" s="254"/>
-      <c r="L44" s="254"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B45" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="174">
+        <v>100</v>
+      </c>
       <c r="G45" s="143">
         <v>200</v>
       </c>
       <c r="H45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I45" s="156">
         <v>45331</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B46" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="175">
+        <v>240</v>
+      </c>
       <c r="G46" s="143">
         <v>300</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I46" s="156">
         <v>45334</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N46" s="13"/>
     </row>
     <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F47" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B47" s="140">
+        <v>45339</v>
+      </c>
+      <c r="C47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="174">
+        <v>250</v>
+      </c>
       <c r="G47" s="158">
         <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I47" s="156">
         <v>45334</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L47" s="257" t="s">
-        <v>278</v>
-      </c>
-      <c r="M47" s="258" t="s">
-        <v>198</v>
-      </c>
-      <c r="N47" s="258" t="s">
+      <c r="L47" s="220" t="s">
+        <v>272</v>
+      </c>
+      <c r="M47" s="221" t="s">
+        <v>197</v>
+      </c>
+      <c r="N47" s="221" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F48" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B48" s="140">
+        <v>45341</v>
+      </c>
+      <c r="C48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="175">
+        <v>200</v>
+      </c>
       <c r="G48" s="158">
         <v>-32</v>
       </c>
@@ -13413,7 +13974,7 @@
         <v>45323</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L48" s="181">
@@ -13422,50 +13983,79 @@
       <c r="M48" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="N48" s="259">
-        <v>45339</v>
+      <c r="N48" s="222">
+        <v>45350</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F49" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B49" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="174">
+        <v>25</v>
+      </c>
       <c r="G49" s="158">
         <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I49" s="156">
         <v>45334</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L49" s="181"/>
-      <c r="M49" s="182"/>
-      <c r="N49" s="182"/>
+      <c r="L49" s="181">
+        <v>3477</v>
+      </c>
+      <c r="M49" s="182" t="s">
+        <v>276</v>
+      </c>
+      <c r="N49" s="222">
+        <v>45365</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B50" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C50" s="263" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="264"/>
+      <c r="F50" s="265">
+        <v>3000</v>
+      </c>
       <c r="G50" s="158">
         <v>3774</v>
       </c>
       <c r="H50" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I50" s="156">
         <v>45338</v>
       </c>
       <c r="J50" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L50" s="181"/>
@@ -13474,16 +14064,33 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="174"/>
-      <c r="G51" s="158"/>
-      <c r="H51"/>
-      <c r="I51" s="155"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B51" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="174">
+        <v>180</v>
+      </c>
+      <c r="G51" s="158">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="156">
+        <v>45341</v>
+      </c>
       <c r="J51" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L51" s="181"/>
       <c r="M51" s="182"/>
@@ -13491,16 +14098,33 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F52" s="175"/>
-      <c r="G52" s="158"/>
-      <c r="H52"/>
-      <c r="I52" s="155"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B52" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="175">
+        <v>150</v>
+      </c>
+      <c r="G52" s="158">
+        <v>200</v>
+      </c>
+      <c r="H52" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="156">
+        <v>45347</v>
+      </c>
       <c r="J52" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L52" s="181"/>
       <c r="M52" s="182"/>
@@ -13508,16 +14132,33 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F53" s="174"/>
-      <c r="G53" s="158"/>
-      <c r="H53"/>
-      <c r="I53" s="155"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B53" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C53" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="174">
+        <v>59</v>
+      </c>
+      <c r="G53" s="158">
+        <v>150</v>
+      </c>
+      <c r="H53" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="156">
+        <v>45348</v>
+      </c>
       <c r="J53" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L53" s="181"/>
       <c r="M53" s="182"/>
@@ -13525,15 +14166,26 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F54" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B54" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C54" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="175">
+        <v>288</v>
+      </c>
       <c r="G54" s="158"/>
       <c r="H54"/>
       <c r="I54" s="155"/>
       <c r="J54" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L54" s="181"/>
@@ -13542,15 +14194,26 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F55" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B55" s="140">
+        <v>45342</v>
+      </c>
+      <c r="C55" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="174">
+        <v>70</v>
+      </c>
       <c r="G55" s="158"/>
       <c r="H55"/>
       <c r="I55" s="155"/>
       <c r="J55" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L55" s="181"/>
@@ -13559,15 +14222,26 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F56" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B56" s="140">
+        <v>45343</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="175">
+        <v>100</v>
+      </c>
       <c r="G56" s="158"/>
       <c r="H56"/>
       <c r="I56" s="155"/>
       <c r="J56" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L56" s="181"/>
@@ -13576,15 +14250,26 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F57" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B57" s="140">
+        <v>45343</v>
+      </c>
+      <c r="C57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="174">
+        <v>200</v>
+      </c>
       <c r="G57" s="158"/>
       <c r="H57"/>
       <c r="I57" s="155"/>
       <c r="J57" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L57" s="181"/>
@@ -13593,15 +14278,26 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F58" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B58" s="140">
+        <v>45344</v>
+      </c>
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="175">
+        <v>26</v>
+      </c>
       <c r="G58" s="158"/>
       <c r="H58"/>
       <c r="I58" s="155"/>
       <c r="J58" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L58" s="181"/>
@@ -13610,15 +14306,26 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F59" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B59" s="140">
+        <v>45345</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="175">
+        <v>26</v>
+      </c>
       <c r="G59" s="158"/>
       <c r="H59"/>
       <c r="I59" s="155"/>
       <c r="J59" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L59" s="181"/>
@@ -13627,168 +14334,371 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B60" s="140">
+        <v>45346</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="138">
+        <v>26</v>
       </c>
       <c r="F60" s="175"/>
       <c r="G60" s="158"/>
       <c r="H60"/>
       <c r="I60" s="155"/>
       <c r="J60" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L60" s="256"/>
-      <c r="M60" s="184"/>
+      <c r="L60" s="226">
+        <f>SUM(L48:L59)</f>
+        <v>6618</v>
+      </c>
+      <c r="M60" s="227" t="s">
+        <v>275</v>
+      </c>
       <c r="N60" s="184"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F61" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B61" s="140">
+        <v>45346</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="175">
+        <v>100</v>
+      </c>
       <c r="G61" s="158"/>
       <c r="H61"/>
       <c r="I61" s="155"/>
       <c r="J61" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="L61" s="13">
+        <v>6718</v>
       </c>
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F62" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B62" s="140">
+        <v>45346</v>
+      </c>
+      <c r="C62" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="175">
+        <v>70</v>
+      </c>
       <c r="G62" s="158"/>
       <c r="H62"/>
       <c r="I62" s="155"/>
       <c r="J62" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N62" s="13"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B63" s="140">
+        <v>45346</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="175">
+        <v>20</v>
+      </c>
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F64" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B64" s="140">
+        <v>45348</v>
+      </c>
+      <c r="C64" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="175">
+        <v>120</v>
+      </c>
       <c r="N64" s="13"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F65" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B65" s="140">
+        <v>45348</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="175">
+        <v>26</v>
+      </c>
       <c r="N65" s="13"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F66" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B66" s="140">
+        <v>45349</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="175">
+        <v>26</v>
+      </c>
       <c r="N66" s="13"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F67" s="174"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B67" s="140">
+        <v>45349</v>
+      </c>
+      <c r="C67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" s="175">
+        <v>559</v>
+      </c>
       <c r="N67" s="13"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
-        <v>1</v>
-      </c>
-      <c r="F68" s="175"/>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B68" s="140">
+        <v>45350</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="175">
+        <v>28</v>
+      </c>
       <c r="N68" s="13"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="128">
-        <f>MONTH(Table83[[#This Row],[DATE]])</f>
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B69" s="140">
+        <v>45351</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="175">
+        <v>100</v>
+      </c>
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="128">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B70" s="140">
+        <v>45351</v>
+      </c>
+      <c r="C70" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="175">
+        <v>40</v>
+      </c>
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="128">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>2</v>
+      </c>
+      <c r="B71" s="140">
+        <v>45351</v>
+      </c>
+      <c r="C71" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="175">
+        <v>50</v>
+      </c>
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
-      <c r="F69" s="174"/>
-      <c r="N69" s="13"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F70" s="13"/>
-      <c r="N70" s="13"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="N71" s="13"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="138"/>
       <c r="F72" s="13"/>
       <c r="N72" s="13"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="138"/>
       <c r="F73" s="13"/>
       <c r="N73" s="13"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="138"/>
       <c r="F74" s="13"/>
       <c r="N74" s="13"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="138"/>
       <c r="F75" s="13"/>
       <c r="N75" s="13"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+      <c r="A76" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="138"/>
       <c r="F76" s="13"/>
       <c r="N76" s="13"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="138"/>
       <c r="F77" s="13"/>
       <c r="N77" s="13"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="138"/>
       <c r="F78" s="13"/>
       <c r="N78" s="13"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="138"/>
       <c r="F79" s="13"/>
       <c r="N79" s="13"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
+      <c r="A80" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="138"/>
       <c r="F80" s="13"/>
       <c r="N80" s="13"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="138"/>
       <c r="F81" s="13"/>
       <c r="N81" s="13"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+      <c r="A82" s="266">
+        <f>MONTH(Table810[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="138"/>
       <c r="F82" s="13"/>
       <c r="N82" s="13"/>
     </row>
@@ -14259,10 +15169,12 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
+      <c r="F176" s="13"/>
       <c r="N176" s="13"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
+      <c r="F177" s="13"/>
       <c r="N177" s="13"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -14294,9 +15206,11 @@
       <c r="N184" s="13"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
       <c r="N185" s="13"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
       <c r="N186" s="13"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -14862,7 +15776,7 @@
     <mergeCell ref="Y7:Y9"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2000"/>
@@ -14870,13 +15784,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1EE44FF2-B2CA-4A5D-9170-B55BB5437256}</x14:id>
+          <x14:id>{9390355E-3049-4B97-B9D2-070D26540098}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1000"/>
@@ -14884,12 +15798,40 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F6140D25-B5FE-461A-85C6-D4CF963E826D}</x14:id>
+          <x14:id>{F59D80BB-24F3-48C4-9D08-C295AEC8E3B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D79AF02F-175D-49AB-8BF8-7E5D07FAC77E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8D960F94-0E72-4503-954C-6055AB049186}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14898,55 +15840,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C34F818-D59D-440D-8D82-AD6CA312864B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1000"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63AC2BE1-53D3-4C96-8421-53CB6AC03E80}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2000"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C74A9625-6177-41BE-B235-D8FC1CD9CB0D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5000"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20801BEE-3EAB-423A-B332-40EE37CAEB27}</x14:id>
+          <x14:id>{6974068B-8558-41A6-9B6F-8907AF3FBA4A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$K$9"/>
@@ -14954,13 +15854,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D24831B1-65F6-436A-A3FE-56204B204F55}</x14:id>
+          <x14:id>{D8205747-A01E-4F1D-9098-5E851314B711}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="20000"/>
@@ -14968,7 +15868,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC40F9DF-A3AF-44C5-AF57-7B44956BB96A}</x14:id>
+          <x14:id>{0629B28F-7415-4081-BCDB-196A8F84A5D3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14986,22 +15886,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="E2" xr:uid="{E7BAA8F2-50E8-4C24-A002-9E28F3D46B99}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="E2" xr:uid="{813FC4F7-E10E-4EF4-9978-9249AD9B5F5B}">
       <formula1>D:D&lt;H30</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D69" xr:uid="{94F0F12A-4AF8-4311-BD94-33E9DE1227FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72:B1048576" xr:uid="{5BB2921C-F0AE-4821-B2B7-AB47BADF9D59}">
+      <formula1>$G$4:$G$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D82" xr:uid="{6483990D-F2AC-4F6A-A8D7-DB25801F77CA}">
       <formula1>"Entertainment, Transportation, Needs/Food, Family, Tax/Benefits, Debt-out"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40:H62" xr:uid="{725AACE1-CD96-488F-9A46-E9A97621E875}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40:H62" xr:uid="{85565FB2-2502-43AC-8476-422246DA2273}">
       <formula1>"Balance, Salary, Family, Debt-in, Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:B1048576" xr:uid="{7D5753BF-4662-4683-A52D-B8515BA1B438}">
-      <formula1>$G$4:$G$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P52:P1048576" xr:uid="{41ADCC22-E9C5-4D73-A7AF-DC99905490BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P55:P1048576" xr:uid="{9985FDE6-6695-47AD-AB6E-4E7676AF6AC4}">
       <formula1>"Balance, Salary, Family, Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D144:D1048576" xr:uid="{C2EC5729-7248-4C37-A724-14B66C6B8AE3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D146:D1048576" xr:uid="{732570C5-53F7-40C1-92BE-D4653F8D7398}">
       <formula1>"Entertainment, Transportation, Needs/Food, Family, Tax/Benefits"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15015,7 +15915,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1EE44FF2-B2CA-4A5D-9170-B55BB5437256}">
+          <x14:cfRule type="dataBar" id="{9390355E-3049-4B97-B9D2-070D26540098}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15030,7 +15930,7 @@
           <xm:sqref>H3:H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F6140D25-B5FE-461A-85C6-D4CF963E826D}">
+          <x14:cfRule type="dataBar" id="{F59D80BB-24F3-48C4-9D08-C295AEC8E3B6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15045,7 +15945,7 @@
           <xm:sqref>H5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C34F818-D59D-440D-8D82-AD6CA312864B}">
+          <x14:cfRule type="dataBar" id="{D79AF02F-175D-49AB-8BF8-7E5D07FAC77E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15060,7 +15960,7 @@
           <xm:sqref>H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63AC2BE1-53D3-4C96-8421-53CB6AC03E80}">
+          <x14:cfRule type="dataBar" id="{8D960F94-0E72-4503-954C-6055AB049186}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15075,7 +15975,7 @@
           <xm:sqref>H7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C74A9625-6177-41BE-B235-D8FC1CD9CB0D}">
+          <x14:cfRule type="dataBar" id="{6974068B-8558-41A6-9B6F-8907AF3FBA4A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15090,22 +15990,7 @@
           <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20801BEE-3EAB-423A-B332-40EE37CAEB27}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5000</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D24831B1-65F6-436A-A3FE-56204B204F55}">
+          <x14:cfRule type="dataBar" id="{D8205747-A01E-4F1D-9098-5E851314B711}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15120,7 +16005,7 @@
           <xm:sqref>I9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC40F9DF-A3AF-44C5-AF57-7B44956BB96A}">
+          <x14:cfRule type="dataBar" id="{0629B28F-7415-4081-BCDB-196A8F84A5D3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15840,10 +16725,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="239" t="s">
+      <c r="K25" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="239"/>
+      <c r="L25" s="249"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -16671,37 +17556,37 @@
       <c r="D8" s="132"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="250">
+      <c r="A9" s="260">
         <f>SUM(A1+B1+D1)</f>
         <v>20500</v>
       </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="251"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="261"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="250"/>
-      <c r="B10" s="250"/>
-      <c r="C10" s="250"/>
-      <c r="D10" s="251"/>
+      <c r="A10" s="260"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="261"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="252" t="s">
+      <c r="B11" s="262" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="252"/>
+      <c r="C11" s="262"/>
       <c r="D11" s="132"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="132"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="248" t="s">
+      <c r="A13" s="258" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="248"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="249"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="132"/>
@@ -16768,13 +17653,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="248" t="s">
+      <c r="A24" s="258" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="248"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="248"/>
+      <c r="B24" s="258"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
     </row>
   </sheetData>
   <mergeCells count="4">
